--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="R2" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -953,16 +953,16 @@
         <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S3" t="n">
         <v>1.3</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lvIem5nC</t>
+          <t>KntSU4rH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kapfenberg</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>First Vienna</t>
+          <t>Beroe</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.82</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>8.25</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>3.85</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>2.95</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>11.5</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>17</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>10</v>
       </c>
-      <c r="Z4" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.95</v>
+        <v>2.25</v>
       </c>
       <c r="AU4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
         <v>6.5</v>
       </c>
-      <c r="AV4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.45</v>
-      </c>
       <c r="AX4" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AY4" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
-        <v>200</v>
+        <v>501</v>
       </c>
       <c r="BC4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KntSU4rH</t>
+          <t>fNRxnvr9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,173 +1274,173 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Ceske Budejovice</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Beroe</t>
+          <t>Liberec</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>4.33</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="J5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L5" t="n">
         <v>2.4</v>
       </c>
-      <c r="K5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6</v>
-      </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>2.08</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
       </c>
       <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM5" t="n">
         <v>23</v>
       </c>
-      <c r="AF5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD5" t="n">
         <v>81</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="H6" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I6" t="n">
         <v>1.1</v>
       </c>
       <c r="J6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
         <v>2.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1499,10 +1499,10 @@
         <v>16</v>
       </c>
       <c r="O6" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.52</v>
@@ -1511,31 +1511,31 @@
         <v>2.22</v>
       </c>
       <c r="S6" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
+        <v>3.91</v>
       </c>
       <c r="U6" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="W6" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="X6" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Y6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z6" t="n">
         <v>600</v>
       </c>
       <c r="AA6" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AB6" t="n">
         <v>200</v>
@@ -1547,7 +1547,7 @@
         <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF6" t="n">
         <v>175</v>
@@ -1562,22 +1562,22 @@
         <v>4.8</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AK6" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AL6" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AP6" t="n">
         <v>100</v>
@@ -1592,31 +1592,31 @@
         <v>51</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AX6" t="n">
         <v>4.15</v>
       </c>
       <c r="AY6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="BA6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BB6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I7" t="n">
         <v>2.62</v>
@@ -1669,10 +1669,10 @@
         <v>2.95</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L7" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1681,28 +1681,28 @@
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>3.68</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T7" t="n">
-        <v>3.14</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="V7" t="n">
-        <v>2.34</v>
+        <v>2.11</v>
       </c>
       <c r="W7" t="n">
         <v>9</v>
@@ -1711,7 +1711,7 @@
         <v>12.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Z7" t="n">
         <v>23</v>
@@ -1723,10 +1723,10 @@
         <v>17.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AE7" t="n">
         <v>9.25</v>
@@ -1735,13 +1735,13 @@
         <v>30</v>
       </c>
       <c r="AG7" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.25</v>
@@ -1750,16 +1750,16 @@
         <v>25</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP7" t="n">
         <v>17</v>
@@ -1774,10 +1774,10 @@
         <v>175</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AV7" t="n">
         <v>45</v>
@@ -1786,19 +1786,19 @@
         <v>4.8</v>
       </c>
       <c r="AX7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BA7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB7" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="H9" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="I9" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="J9" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="K9" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -2045,10 +2045,10 @@
         <v>13.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P9" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="Q9" t="n">
         <v>1.52</v>
@@ -2063,103 +2063,103 @@
         <v>3.65</v>
       </c>
       <c r="U9" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="W9" t="n">
+        <v>17</v>
+      </c>
+      <c r="X9" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y9" t="n">
         <v>16.5</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP9" t="n">
         <v>32</v>
       </c>
-      <c r="Y9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>30</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AR9" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS9" t="n">
         <v>350</v>
       </c>
       <c r="AT9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW9" t="n">
         <v>3.4</v>
       </c>
-      <c r="AU9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>3.45</v>
-      </c>
       <c r="AX9" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AY9" t="n">
         <v>14</v>
       </c>
       <c r="AZ9" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="BA9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BB9" t="n">
         <v>150</v>
@@ -2203,52 +2203,52 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="I10" t="n">
         <v>1.09</v>
       </c>
       <c r="J10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="R10" t="n">
-        <v>3.68</v>
+        <v>3.52</v>
       </c>
       <c r="S10" t="n">
         <v>1.13</v>
       </c>
       <c r="T10" t="n">
-        <v>5.2</v>
+        <v>5.05</v>
       </c>
       <c r="U10" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W10" t="n">
         <v>70</v>
@@ -2266,13 +2266,13 @@
         <v>350</v>
       </c>
       <c r="AB10" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AC10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE10" t="n">
         <v>29</v>
@@ -2284,16 +2284,16 @@
         <v>600</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AI10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AK10" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AL10" t="n">
         <v>9</v>
@@ -2308,7 +2308,7 @@
         <v>150</v>
       </c>
       <c r="AP10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
@@ -2320,28 +2320,28 @@
         <v>51</v>
       </c>
       <c r="AT10" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="AU10" t="n">
         <v>10.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AX10" t="n">
         <v>4.2</v>
       </c>
       <c r="AY10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BA10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB10" t="n">
         <v>150</v>
@@ -2403,16 +2403,16 @@
         <v>2.02</v>
       </c>
       <c r="M11" t="n">
-        <v>10.9</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
         <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>3.52</v>
+        <v>3.55</v>
       </c>
       <c r="Q11" t="n">
         <v>1.72</v>
@@ -2594,7 +2594,7 @@
         <v>1.04</v>
       </c>
       <c r="P12" t="n">
-        <v>6.55</v>
+        <v>6.5</v>
       </c>
       <c r="Q12" t="n">
         <v>1.25</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
         <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -3161,16 +3161,16 @@
         <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
         <v>23</v>
@@ -3194,16 +3194,16 @@
         <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL15" t="n">
         <v>23</v>
@@ -3212,10 +3212,10 @@
         <v>34</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>26</v>
@@ -3239,10 +3239,10 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
         <v>26</v>
@@ -3325,10 +3325,10 @@
         <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S16" t="n">
         <v>1.33</v>
@@ -3477,28 +3477,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -3519,22 +3519,22 @@
         <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y17" t="n">
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
         <v>17</v>
@@ -3543,10 +3543,10 @@
         <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3555,13 +3555,13 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>13</v>
@@ -3570,7 +3570,7 @@
         <v>41</v>
       </c>
       <c r="AL17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
         <v>41</v>
@@ -3579,7 +3579,7 @@
         <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>23</v>
@@ -3591,7 +3591,7 @@
         <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
         <v>2.63</v>
@@ -4023,34 +4023,34 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
         <v>2.07</v>
       </c>
       <c r="L20" t="n">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q20" t="n">
         <v>2.07</v>
@@ -4062,7 +4062,7 @@
         <v>1.42</v>
       </c>
       <c r="T20" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U20" t="n">
         <v>1.82</v>
@@ -4071,31 +4071,31 @@
         <v>1.88</v>
       </c>
       <c r="W20" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="X20" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="Z20" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AA20" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC20" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>75</v>
@@ -4104,34 +4104,34 @@
         <v>600</v>
       </c>
       <c r="AH20" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AI20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AK20" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AM20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AR20" t="n">
         <v>120</v>
@@ -4140,31 +4140,31 @@
         <v>350</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AV20" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW20" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AX20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ20" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BA20" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BB20" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>hIFCsMY1</t>
+          <t>hUN9yS45</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,170 +4186,170 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Geylang</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Young Lions</t>
+          <t>Mura</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.25</v>
+        <v>1.87</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>3.35</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.62</v>
+        <v>2.47</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>34</v>
+        <v>6.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.03</v>
+        <v>1.35</v>
       </c>
       <c r="P21" t="n">
-        <v>15</v>
+        <v>2.92</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.14</v>
+        <v>2.07</v>
       </c>
       <c r="R21" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="n">
-        <v>1.11</v>
+        <v>1.42</v>
       </c>
       <c r="T21" t="n">
-        <v>6.5</v>
+        <v>2.65</v>
       </c>
       <c r="U21" t="n">
-        <v>1.36</v>
+        <v>1.9</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>1.82</v>
       </c>
       <c r="W21" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X21" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX21" t="n">
         <v>23</v>
       </c>
-      <c r="X21" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF21" t="n">
+      <c r="AY21" t="n">
         <v>29</v>
       </c>
-      <c r="AG21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ21" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="BA21" t="n">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="BB21" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="BC21" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BD21" t="n">
         <v>51</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>hUN9yS45</t>
+          <t>8WWUdOIk</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.87</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.47</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S22" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="W22" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="X22" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU22" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AV22" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AW22" t="n">
-        <v>5.8</v>
+        <v>4.75</v>
       </c>
       <c r="AX22" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AY22" t="n">
         <v>29</v>
       </c>
       <c r="AZ22" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="BA22" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>400</v>
+        <v>251</v>
       </c>
       <c r="BC22" t="n">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="BD22" t="n">
-        <v>51</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8WWUdOIk</t>
+          <t>b5k8oPA5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,354 +4550,172 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Vorskla Poltava</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="I23" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>7.5</v>
+        <v>4.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="P23" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="R23" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S23" t="n">
         <v>1.6</v>
       </c>
-      <c r="S23" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T23" t="n">
-        <v>2.5</v>
+        <v>2.07</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V23" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="X23" t="n">
         <v>11</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AA23" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AB23" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.5</v>
+        <v>4.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="n">
-        <v>351</v>
+        <v>67</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.33</v>
+        <v>4.15</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ23" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AR23" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="AS23" t="n">
-        <v>201</v>
+        <v>450</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="AU23" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AV23" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AW23" t="n">
         <v>4.75</v>
       </c>
       <c r="AX23" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AZ23" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="BA23" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC23" t="n">
         <v>81</v>
       </c>
-      <c r="BB23" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>276</v>
-      </c>
       <c r="BD23" t="n">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>b5k8oPA5</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Vorskla Poltava</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kolos Kovalivka</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N24" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W24" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="X24" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>110</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD24" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,7 +750,7 @@
         <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
         <v>3.3</v>
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -795,7 +795,7 @@
         <v>2.05</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
@@ -867,7 +867,7 @@
         <v>2.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>2.4</v>
@@ -953,16 +953,16 @@
         <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
         <v>1.3</v>
@@ -998,19 +998,19 @@
         <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>34</v>
@@ -1037,7 +1037,7 @@
         <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1055,13 +1055,13 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX3" t="n">
         <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
         <v>101</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KntSU4rH</t>
+          <t>8jq5NCqS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Beroe</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>2.35</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
         <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
         <v>41</v>
       </c>
-      <c r="AC4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
         <v>101</v>
       </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
+      <c r="AT4" t="n">
         <v>3.5</v>
       </c>
-      <c r="AO4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ4" t="n">
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
         <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>81</v>
       </c>
       <c r="AW4" t="n">
         <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fNRxnvr9</t>
+          <t>joFIOKzI</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,95 +1274,95 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ceske Budejovice</t>
+          <t>Francs Borains</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liberec</t>
+          <t>Seraing</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.33</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I5" t="n">
         <v>3.6</v>
       </c>
-      <c r="I5" t="n">
-        <v>1.8</v>
-      </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.73</v>
       </c>
-      <c r="R5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA5" t="n">
         <v>15</v>
       </c>
-      <c r="Z5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>34</v>
-      </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1371,73 +1371,73 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="n">
         <v>151</v>
       </c>
-      <c r="AH5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR5" t="n">
+      <c r="BC5" t="n">
         <v>81</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>501</v>
       </c>
       <c r="BD5" t="n">
         <v>81</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0C8qAPwU</t>
+          <t>KntSU4rH</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1461,162 +1461,162 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nomme Utd</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Paide</t>
+          <t>Beroe</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>22</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>1.1</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>16</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W6" t="n">
         <v>5</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W6" t="n">
-        <v>55</v>
-      </c>
       <c r="X6" t="n">
-        <v>250</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>65</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>600</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.8</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.75</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>4.9</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.75</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>20</v>
+        <v>3.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.7</v>
+        <v>2.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.15</v>
+        <v>34</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8.5</v>
+        <v>126</v>
       </c>
       <c r="BA6" t="n">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="n">
-        <v>250</v>
+        <v>501</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4QYgUSOo</t>
+          <t>fNRxnvr9</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,47 +1638,47 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tammeka</t>
+          <t>Ceske Budejovice</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Narva</t>
+          <t>Liberec</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.62</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
-        <v>2.95</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>3.15</v>
+        <v>2.38</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1687,130 +1687,130 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
         <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
+        <v>15</v>
+      </c>
+      <c r="X7" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI7" t="n">
         <v>9</v>
       </c>
-      <c r="X7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AJ7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM7" t="n">
         <v>23</v>
       </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AN7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX7" t="n">
         <v>9</v>
       </c>
-      <c r="AI7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM7" t="n">
+      <c r="AY7" t="n">
         <v>19</v>
       </c>
-      <c r="AN7" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AZ7" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="BB7" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pfgbFFt0</t>
+          <t>0C8qAPwU</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,167 +1820,167 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Paks</t>
+          <t>Nomme Utd</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DVTK</t>
+          <t>Paide</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.55</v>
+        <v>22</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5.25</v>
+        <v>1.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.1</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="R8" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>3.91</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.49</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>55</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>65</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="AA8" t="n">
-        <v>12</v>
+        <v>400</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="AC8" t="n">
         <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
       </c>
       <c r="AH8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>175</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AY8" t="n">
         <v>17</v>
       </c>
-      <c r="AI8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>81</v>
+        <v>8.5</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>63CHqMPP</t>
+          <t>4QYgUSOo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,167 +2002,167 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BFC Daugavpils</t>
+          <t>Tammeka</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Valmiera</t>
+          <t>Narva</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6.3</v>
+        <v>2.47</v>
       </c>
       <c r="H9" t="n">
-        <v>4.55</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1.37</v>
+        <v>2.57</v>
       </c>
       <c r="J9" t="n">
-        <v>5.8</v>
+        <v>3.05</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="L9" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>13.9</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="S9" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
-        <v>3.65</v>
+        <v>3.38</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V9" t="n">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="W9" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>35</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.5</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>50</v>
+        <v>15.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL9" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>8.75</v>
       </c>
       <c r="AM9" t="n">
         <v>17.5</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>4.65</v>
       </c>
       <c r="AO9" t="n">
-        <v>35</v>
+        <v>13.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="AQ9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS9" t="n">
         <v>200</v>
       </c>
-      <c r="AR9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>350</v>
-      </c>
       <c r="AT9" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.7</v>
+        <v>6.2</v>
       </c>
       <c r="AV9" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>6.1</v>
+        <v>13.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ9" t="n">
-        <v>15.5</v>
+        <v>50</v>
       </c>
       <c r="BA9" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="BB9" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EXVQMbIC</t>
+          <t>Wx4uB5ON</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,167 +2184,167 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Levadia</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>22</v>
+        <v>2.18</v>
       </c>
       <c r="H10" t="n">
-        <v>6.9</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>1.09</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>14.5</v>
+        <v>2.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.15</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.34</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.13</v>
-      </c>
       <c r="T10" t="n">
-        <v>5.05</v>
+        <v>3.1</v>
       </c>
       <c r="U10" t="n">
-        <v>2.07</v>
+        <v>1.61</v>
       </c>
       <c r="V10" t="n">
-        <v>1.72</v>
+        <v>2.25</v>
       </c>
       <c r="W10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR10" t="n">
         <v>70</v>
       </c>
-      <c r="X10" t="n">
-        <v>250</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>350</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>175</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI10" t="n">
+      <c r="AS10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU10" t="n">
         <v>6.2</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>800</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AV10" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.25</v>
+        <v>5.2</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.2</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7.8</v>
+        <v>75</v>
       </c>
       <c r="BA10" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="BB10" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OraqutYt</t>
+          <t>dA6ZHxaL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jelgava</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FK Liepaja</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.2</v>
+        <v>1.55</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>4.75</v>
       </c>
       <c r="I11" t="n">
-        <v>1.52</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.27</v>
+        <v>2.63</v>
       </c>
       <c r="L11" t="n">
-        <v>2.02</v>
+        <v>4.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>3.55</v>
+        <v>6.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="R11" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="S11" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="T11" t="n">
-        <v>3.04</v>
+        <v>4</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="W11" t="n">
         <v>12</v>
       </c>
       <c r="X11" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.7</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AG11" t="n">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="AH11" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>6.2</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6.9</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.9</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AQ11" t="n">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="AR11" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="AS11" t="n">
-        <v>400</v>
+        <v>67</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.95</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>7.1</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hOUULIXI</t>
+          <t>naLHUFrR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Riga FC</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Metta</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.11</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>6.6</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>11.75</v>
+        <v>3.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>14.9</v>
+        <v>19</v>
       </c>
       <c r="O12" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.25</v>
       </c>
-      <c r="R12" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.16</v>
-      </c>
       <c r="T12" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="U12" t="n">
-        <v>2.01</v>
+        <v>1.44</v>
       </c>
       <c r="V12" t="n">
-        <v>1.76</v>
+        <v>2.63</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X12" t="n">
-        <v>6.2</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.9</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>8.75</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM12" t="n">
         <v>23</v>
       </c>
-      <c r="AC12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>175</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>110</v>
-      </c>
       <c r="AN12" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>4.4</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>8.75</v>
+        <v>34</v>
       </c>
       <c r="AR12" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="AS12" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AT12" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>9.75</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="AZ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BC12" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>fT8Dp2AJ</t>
+          <t>OKjEAfie</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tukums 2000</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Auda</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>1.45</v>
+        <v>4.75</v>
       </c>
       <c r="J13" t="n">
-        <v>5.2</v>
+        <v>2.25</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.87</v>
+        <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>13.8</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S13" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="T13" t="n">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
         <v>15</v>
       </c>
-      <c r="X13" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>80</v>
-      </c>
       <c r="AA13" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
         <v>7.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.1</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>6.6</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
-        <v>8.75</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
-        <v>9.25</v>
+        <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.6</v>
+        <v>4</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>8.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>6.4</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="BA13" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="BB13" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>nqwRzgGi</t>
+          <t>UwybW05L</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sabah</t>
+          <t>Unterhaching</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kelantan DNFC</t>
+          <t>Mannheim</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.22</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="J14" t="n">
-        <v>1.57</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>2.82</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>7.2</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.06</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.32</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>2.78</v>
+        <v>1.93</v>
       </c>
       <c r="S14" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>4.3</v>
+        <v>2.75</v>
       </c>
       <c r="U14" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="V14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
-        <v>6.6</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.9</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AI14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL14" t="n">
         <v>19</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AM14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY14" t="n">
         <v>21</v>
       </c>
-      <c r="AD14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>40</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>350</v>
+        <v>41</v>
       </c>
       <c r="BA14" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="BB14" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IaerBgx0</t>
+          <t>pfgbFFt0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Paks</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>DVTK</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="S15" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T15" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
         <v>12</v>
       </c>
-      <c r="Y15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>26</v>
-      </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO15" t="n">
         <v>8</v>
       </c>
-      <c r="AI15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="AP15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY15" t="n">
         <v>29</v>
       </c>
-      <c r="AL15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AZ15" t="n">
         <v>81</v>
       </c>
-      <c r="AS15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>51</v>
-      </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>M5XgeA55</t>
+          <t>63CHqMPP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3281,174 +3281,174 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>BFC Daugavpils</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Valmiera</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.42</v>
+        <v>7.5</v>
       </c>
       <c r="H16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N16" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P16" t="n">
         <v>4.5</v>
       </c>
-      <c r="I16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="Q16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W16" t="n">
+        <v>20</v>
+      </c>
+      <c r="X16" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC16" t="n">
         <v>15</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="AD16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>250</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW16" t="n">
         <v>3.25</v>
       </c>
-      <c r="U16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W16" t="n">
-        <v>7</v>
-      </c>
-      <c r="X16" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>8</v>
-      </c>
       <c r="AX16" t="n">
-        <v>34</v>
+        <v>5.8</v>
       </c>
       <c r="AY16" t="n">
-        <v>41</v>
+        <v>14.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="BB16" t="n">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OAJfx8Q0</t>
+          <t>EXVQMbIC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3463,174 +3463,174 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>19.5</v>
       </c>
       <c r="H17" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W17" t="n">
+        <v>60</v>
+      </c>
+      <c r="X17" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>800</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW17" t="n">
         <v>3.2</v>
       </c>
-      <c r="I17" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
-        <v>8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>4.3</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>67</v>
+        <v>8.25</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="BB17" t="n">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="BC17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MRtZdiWH</t>
+          <t>OraqutYt</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,167 +3640,167 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Jelgava</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>FK Liepaja</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="H18" t="n">
-        <v>2.88</v>
+        <v>4.15</v>
       </c>
       <c r="I18" t="n">
-        <v>2.63</v>
+        <v>1.42</v>
       </c>
       <c r="J18" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P18" t="n">
         <v>3.75</v>
       </c>
-      <c r="K18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.5</v>
-      </c>
       <c r="Q18" t="n">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="R18" t="n">
-        <v>1.48</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="T18" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="V18" t="n">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="W18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>7</v>
       </c>
-      <c r="X18" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>11</v>
-      </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AL18" t="n">
-        <v>26</v>
+        <v>9.75</v>
       </c>
       <c r="AM18" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.75</v>
+        <v>7.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="AP18" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AQ18" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="AR18" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AS18" t="n">
-        <v>301</v>
+        <v>450</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.25</v>
+        <v>3.15</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="AV18" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="AX18" t="n">
-        <v>17</v>
+        <v>6.4</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="AZ18" t="n">
-        <v>51</v>
+        <v>17.5</v>
       </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="BB18" t="n">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="BC18" t="n">
         <v>51</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8AF72cf4</t>
+          <t>hOUULIXI</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,167 +3822,167 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Riga FC</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Metta</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.22</v>
+        <v>1.11</v>
       </c>
       <c r="H19" t="n">
-        <v>3.35</v>
+        <v>6.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.85</v>
+        <v>18</v>
       </c>
       <c r="J19" t="n">
-        <v>2.85</v>
+        <v>1.42</v>
       </c>
       <c r="K19" t="n">
-        <v>2.12</v>
+        <v>2.95</v>
       </c>
       <c r="L19" t="n">
-        <v>3.45</v>
+        <v>11.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>21</v>
       </c>
       <c r="N19" t="n">
+        <v>26</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P19" t="n">
         <v>7.5</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.3</v>
-      </c>
       <c r="Q19" t="n">
-        <v>1.87</v>
+        <v>1.28</v>
       </c>
       <c r="R19" t="n">
-        <v>1.87</v>
+        <v>3.5</v>
       </c>
       <c r="S19" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="T19" t="n">
-        <v>2.75</v>
+        <v>4.69</v>
       </c>
       <c r="U19" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="V19" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="W19" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="X19" t="n">
-        <v>11.25</v>
+        <v>6.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z19" t="n">
-        <v>22</v>
+        <v>5.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>18</v>
+        <v>8.75</v>
       </c>
       <c r="AB19" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.6</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AF19" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AG19" t="n">
         <v>450</v>
       </c>
       <c r="AH19" t="n">
-        <v>9.5</v>
+        <v>60</v>
       </c>
       <c r="AI19" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10.5</v>
+        <v>50</v>
       </c>
       <c r="AK19" t="n">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="n">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="AM19" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT19" t="n">
         <v>4.2</v>
       </c>
-      <c r="AO19" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.75</v>
-      </c>
       <c r="AU19" t="n">
-        <v>7.1</v>
+        <v>9.75</v>
       </c>
       <c r="AV19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AY19" t="n">
         <v>65</v>
       </c>
-      <c r="AW19" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ19" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="BA19" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="BB19" t="n">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="BC19" t="n">
         <v>51</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0pCa4JPi</t>
+          <t>fT8Dp2AJ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,167 +4004,167 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Tukums 2000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Auda</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.85</v>
+        <v>7.1</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.3</v>
+        <v>1.34</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="K20" t="n">
-        <v>2.07</v>
+        <v>2.55</v>
       </c>
       <c r="L20" t="n">
-        <v>2.92</v>
+        <v>1.72</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>6.7</v>
+        <v>14.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>2.92</v>
+        <v>4.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.07</v>
+        <v>1.55</v>
       </c>
       <c r="R20" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="S20" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="T20" t="n">
-        <v>2.65</v>
+        <v>3.75</v>
       </c>
       <c r="U20" t="n">
         <v>1.82</v>
       </c>
       <c r="V20" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="W20" t="n">
-        <v>8.25</v>
+        <v>19</v>
       </c>
       <c r="X20" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.75</v>
+        <v>18</v>
       </c>
       <c r="Z20" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="AA20" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AB20" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AC20" t="n">
-        <v>6.7</v>
+        <v>15</v>
       </c>
       <c r="AD20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI20" t="n">
         <v>6.2</v>
       </c>
-      <c r="AE20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>11</v>
-      </c>
       <c r="AJ20" t="n">
-        <v>9.25</v>
+        <v>7.1</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>7.7</v>
       </c>
       <c r="AL20" t="n">
-        <v>19.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP20" t="n">
         <v>32</v>
       </c>
-      <c r="AN20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>24</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="AR20" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AS20" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.65</v>
+        <v>3.65</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AW20" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AX20" t="n">
-        <v>12</v>
+        <v>5.8</v>
       </c>
       <c r="AY20" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AZ20" t="n">
-        <v>50</v>
+        <v>14.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="BB20" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="BC20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>hUN9yS45</t>
+          <t>nqwRzgGi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,167 +4186,167 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Sabah</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>Kelantan DNFC</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.87</v>
+        <v>1.17</v>
       </c>
       <c r="H21" t="n">
-        <v>3.35</v>
+        <v>5.9</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>11.25</v>
       </c>
       <c r="J21" t="n">
-        <v>2.47</v>
+        <v>1.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.87</v>
       </c>
       <c r="L21" t="n">
-        <v>4.4</v>
+        <v>8.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>6.7</v>
+        <v>17.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.35</v>
+        <v>1.05</v>
       </c>
       <c r="P21" t="n">
-        <v>2.92</v>
+        <v>6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.07</v>
+        <v>1.29</v>
       </c>
       <c r="R21" t="n">
-        <v>1.7</v>
+        <v>2.94</v>
       </c>
       <c r="S21" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="T21" t="n">
-        <v>2.65</v>
+        <v>4.3</v>
       </c>
       <c r="U21" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="W21" t="n">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="X21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y21" t="n">
         <v>8.25</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Z21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA21" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>16</v>
-      </c>
       <c r="AB21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>30</v>
       </c>
-      <c r="AC21" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AK21" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM21" t="n">
         <v>65</v>
       </c>
-      <c r="AL21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM21" t="n">
+      <c r="AN21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY21" t="n">
         <v>45</v>
       </c>
-      <c r="AN21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ21" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="BA21" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="BB21" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC21" t="n">
         <v>51</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8WWUdOIk</t>
+          <t>6NGpY8r4</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Tromsdalen</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Jerv</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="L22" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="R22" t="n">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="S22" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T22" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="V22" t="n">
-        <v>1.73</v>
+        <v>2.38</v>
       </c>
       <c r="W22" t="n">
+        <v>10</v>
+      </c>
+      <c r="X22" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD22" t="n">
         <v>7</v>
       </c>
-      <c r="X22" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB22" t="n">
+      <c r="AE22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF22" t="n">
         <v>34</v>
       </c>
-      <c r="AC22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>51</v>
-      </c>
       <c r="AG22" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
         <v>34</v>
       </c>
       <c r="AL22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM22" t="n">
         <v>26</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
       </c>
       <c r="AN22" t="n">
         <v>4.33</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR22" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS22" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV22" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX22" t="n">
         <v>17</v>
       </c>
       <c r="AY22" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ22" t="n">
         <v>51</v>
       </c>
       <c r="BA22" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD22" t="n">
         <v>81</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>276</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>276</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>b5k8oPA5</t>
+          <t>IaerBgx0</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,173 +4550,2721 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L23" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="R23" t="n">
-        <v>1.37</v>
+        <v>1.67</v>
       </c>
       <c r="S23" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="T23" t="n">
-        <v>2.07</v>
+        <v>2.63</v>
       </c>
       <c r="U23" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V23" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="W23" t="n">
-        <v>5.9</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>11</v>
       </c>
-      <c r="Y23" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG23" t="n">
+      <c r="AK23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR23" t="n">
         <v>67</v>
       </c>
-      <c r="AH23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>120</v>
-      </c>
       <c r="AS23" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="AU23" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AW23" t="n">
         <v>4.75</v>
       </c>
       <c r="AX23" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AY23" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AZ23" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="BA23" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="BB23" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
       </c>
       <c r="BD23" t="n">
         <v>81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>M5XgeA55</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Legnica</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Pogon Siedlce</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N24" t="n">
+        <v>13</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>OAJfx8Q0</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Benfica B</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W25" t="n">
+        <v>7</v>
+      </c>
+      <c r="X25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MRtZdiWH</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Poli Iasi</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Otelul</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W26" t="n">
+        <v>7</v>
+      </c>
+      <c r="X26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>8AF72cf4</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W27" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X27" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0pCa4JPi</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Tekstilac Odzaci</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W28" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X28" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>hUN9yS45</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SLOVENIA - PRVA LIGA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mura</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W29" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X29" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>l6zUubV6</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W30" t="n">
+        <v>6</v>
+      </c>
+      <c r="X30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>vy7A7eC9</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SWEDEN - ALLSVENSKAN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Brommapojkarna</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Varnamo</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N31" t="n">
+        <v>13</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>11</v>
+      </c>
+      <c r="X31" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>jFUJpY4d</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SWEDEN - ALLSVENSKAN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Hacken</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>GAIS</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N32" t="n">
+        <v>21</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P32" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T32" t="n">
+        <v>4</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W32" t="n">
+        <v>12</v>
+      </c>
+      <c r="X32" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>hK6YGqAL</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>I1hj46QF</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N34" t="n">
+        <v>11</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W34" t="n">
+        <v>7</v>
+      </c>
+      <c r="X34" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>rcBuwNuJ</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Amedspor</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W35" t="n">
+        <v>6</v>
+      </c>
+      <c r="X35" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>b5k8oPA5</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kolos Kovalivka</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W36" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X36" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>th1J1MN7</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Progreso</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N37" t="n">
+        <v>11</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
@@ -771,16 +771,16 @@
         <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -789,10 +789,10 @@
         <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
         <v>8</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K3" t="n">
         <v>2.4</v>
@@ -959,10 +959,10 @@
         <v>4.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S3" t="n">
         <v>1.3</v>
@@ -971,13 +971,13 @@
         <v>3.4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
         <v>8</v>
@@ -986,16 +986,16 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
         <v>8</v>
@@ -1004,10 +1004,10 @@
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
@@ -1019,7 +1019,7 @@
         <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1055,13 +1055,13 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
         <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
         <v>101</v>
@@ -1070,7 +1070,7 @@
         <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC3" t="n">
         <v>501</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8jq5NCqS</t>
+          <t>QXtsC0lD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,59 +1092,59 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Atl. Madrid</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.33</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S4" t="n">
         <v>1.29</v>
@@ -1153,109 +1153,109 @@
         <v>3.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z4" t="n">
-        <v>13</v>
-      </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
         <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="n">
         <v>41</v>
       </c>
-      <c r="AG4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AR4" t="n">
         <v>41</v>
       </c>
       <c r="AS4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
         <v>3.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX4" t="n">
         <v>41</v>
       </c>
-      <c r="AW4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>23</v>
-      </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
-        <v>401</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>joFIOKzI</t>
+          <t>8jq5NCqS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1279,90 +1279,90 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Francs Borains</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Seraing</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.2</v>
       </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
       <c r="W5" t="n">
+        <v>9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="n">
         <v>8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1371,22 +1371,22 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
@@ -1395,40 +1395,40 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY5" t="n">
         <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA5" t="n">
         <v>81</v>
@@ -1437,16 +1437,16 @@
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KntSU4rH</t>
+          <t>joFIOKzI</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,173 +1456,173 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Francs Borains</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Beroe</t>
+          <t>Seraing</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
         <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AE6" t="n">
         <v>13</v>
       </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AF6" t="n">
         <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>101</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>67</v>
       </c>
-      <c r="AS6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV6" t="n">
+      <c r="BA6" t="n">
         <v>81</v>
       </c>
-      <c r="AW6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>201</v>
-      </c>
       <c r="BB6" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
         <v>1.8</v>
@@ -1678,7 +1678,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1687,10 +1687,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1699,13 +1699,13 @@
         <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
         <v>23</v>
@@ -1714,7 +1714,7 @@
         <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="n">
         <v>34</v>
@@ -1723,7 +1723,7 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
@@ -1738,7 +1738,7 @@
         <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
         <v>9</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0C8qAPwU</t>
+          <t>Gx2E6ln3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nomme Utd</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Paide</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
         <v>15</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N8" t="n">
-        <v>16</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>3.91</v>
+        <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>1.49</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>250</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>65</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>600</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
         <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.8</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>4.9</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>9.75</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>4.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.15</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>8.5</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4QYgUSOo</t>
+          <t>fXGJp7Pq</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tammeka</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Narva</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.47</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>2.57</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
+        <v>19</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA9" t="n">
         <v>11</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15.5</v>
       </c>
       <c r="AB9" t="n">
         <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.7</v>
+        <v>8.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.25</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
-        <v>15.5</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>17.5</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.65</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>13.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AY9" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Wx4uB5ON</t>
+          <t>IVa4asZb</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Levadia</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>3.56</v>
+        <v>5.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="S10" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="T10" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="V10" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="W10" t="n">
-        <v>7.4</v>
+        <v>13</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="n">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG10" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.75</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="n">
         <v>21</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="AO10" t="n">
         <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.77</v>
+        <v>3.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="BC10" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dA6ZHxaL</t>
+          <t>Wx4uB5ON</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2371,174 +2371,174 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Levadia</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.55</v>
+        <v>2.18</v>
       </c>
       <c r="H11" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="K11" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>3.55</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>6.5</v>
+        <v>3.56</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.36</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T11" t="n">
         <v>3.1</v>
       </c>
-      <c r="S11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T11" t="n">
-        <v>4</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="V11" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO11" t="n">
         <v>12</v>
       </c>
-      <c r="X11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AP11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX11" t="n">
         <v>17</v>
       </c>
-      <c r="AC11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>23</v>
-      </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ11" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="BC11" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>naLHUFrR</t>
+          <t>dA6ZHxaL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,133 +2558,133 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>23</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V12" t="n">
         <v>2.5</v>
       </c>
-      <c r="L12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>19</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.63</v>
-      </c>
       <c r="W12" t="n">
+        <v>12</v>
+      </c>
+      <c r="X12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
         <v>13</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AA12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE12" t="n">
         <v>15</v>
       </c>
-      <c r="Y12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z12" t="n">
+      <c r="AF12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH12" t="n">
         <v>21</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AI12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>15</v>
       </c>
-      <c r="AB12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AK12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM12" t="n">
         <v>29</v>
       </c>
-      <c r="AG12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR12" t="n">
         <v>34</v>
       </c>
-      <c r="AL12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>41</v>
-      </c>
       <c r="AS12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
@@ -2693,19 +2693,19 @@
         <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AY12" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
         <v>101</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OKjEAfie</t>
+          <t>naLHUFrR</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,160 +2740,160 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="J13" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L13" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
+        <v>19</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W13" t="n">
+        <v>13</v>
+      </c>
+      <c r="X13" t="n">
         <v>15</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="Y13" t="n">
         <v>9.5</v>
       </c>
-      <c r="X13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA13" t="n">
         <v>15</v>
       </c>
-      <c r="AA13" t="n">
-        <v>13</v>
-      </c>
       <c r="AB13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC13" t="n">
         <v>21</v>
       </c>
-      <c r="AC13" t="n">
-        <v>15</v>
-      </c>
       <c r="AD13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AG13" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="n">
         <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK13" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
         <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="n">
         <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
         <v>81</v>
       </c>
-      <c r="BB13" t="n">
-        <v>151</v>
-      </c>
       <c r="BC13" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UwybW05L</t>
+          <t>OKjEAfie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2917,90 +2917,90 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Unterhaching</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mannheim</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J14" t="n">
         <v>2.25</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.29</v>
       </c>
-      <c r="P14" t="n">
+      <c r="T14" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U14" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
         <v>15</v>
       </c>
-      <c r="Y14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>34</v>
-      </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE14" t="n">
         <v>13</v>
@@ -3009,73 +3009,73 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>26</v>
       </c>
-      <c r="AN14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>51</v>
-      </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS14" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU14" t="n">
         <v>7.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ14" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="n">
         <v>151</v>
       </c>
       <c r="BC14" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pfgbFFt0</t>
+          <t>UwybW05L</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,65 +3094,65 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Paks</t>
+          <t>Unterhaching</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DVTK</t>
+          <t>Mannheim</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.57</v>
+        <v>2.75</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="J15" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="R15" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="S15" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
         <v>1.73</v>
@@ -3161,112 +3161,112 @@
         <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AA15" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
         <v>41</v>
       </c>
       <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS15" t="n">
         <v>151</v>
       </c>
-      <c r="AH15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL15" t="n">
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>41</v>
       </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>81</v>
-      </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
         <v>151</v>
       </c>
       <c r="BC15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>63CHqMPP</t>
+          <t>pfgbFFt0</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,47 +3276,47 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BFC Daugavpils</t>
+          <t>Paks</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Valmiera</t>
+          <t>DVTK</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>7.5</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.31</v>
+        <v>4.75</v>
       </c>
       <c r="J16" t="n">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>14.4</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
         <v>1.18</v>
@@ -3325,118 +3325,118 @@
         <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S16" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="T16" t="n">
-        <v>3.91</v>
+        <v>3.4</v>
       </c>
       <c r="U16" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="V16" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="W16" t="n">
-        <v>20</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
-        <v>45</v>
+        <v>8.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="AB16" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
         <v>15</v>
       </c>
       <c r="AD16" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.1</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>6.1</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>7.4</v>
+        <v>51</v>
       </c>
       <c r="AL16" t="n">
-        <v>8.75</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="AQ16" t="n">
-        <v>300</v>
+        <v>23</v>
       </c>
       <c r="AR16" t="n">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="AS16" t="n">
-        <v>450</v>
+        <v>101</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>5.8</v>
+        <v>26</v>
       </c>
       <c r="AY16" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="BA16" t="n">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="BB16" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="BC16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EXVQMbIC</t>
+          <t>63CHqMPP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,157 +3468,157 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>BFC Daugavpils</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Valmiera</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N17" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W17" t="n">
+        <v>20</v>
+      </c>
+      <c r="X17" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y17" t="n">
         <v>19.5</v>
       </c>
-      <c r="H17" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="T17" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="Z17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA17" t="n">
         <v>60</v>
       </c>
-      <c r="X17" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AA17" t="n">
+      <c r="AB17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG17" t="n">
         <v>300</v>
       </c>
-      <c r="AB17" t="n">
-        <v>150</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>600</v>
-      </c>
       <c r="AH17" t="n">
-        <v>9.5</v>
+        <v>7.1</v>
       </c>
       <c r="AI17" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.5</v>
+        <v>7.2</v>
       </c>
       <c r="AK17" t="n">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="AL17" t="n">
         <v>8.75</v>
       </c>
       <c r="AM17" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AO17" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="AP17" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="AQ17" t="n">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="AR17" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="AS17" t="n">
-        <v>51</v>
+        <v>450</v>
       </c>
       <c r="AT17" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="AU17" t="n">
-        <v>10.25</v>
+        <v>7.9</v>
       </c>
       <c r="AV17" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AW17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AX17" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="AY17" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>8.25</v>
+        <v>15</v>
       </c>
       <c r="BA17" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="BB17" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC17" t="n">
         <v>51</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OraqutYt</t>
+          <t>EXVQMbIC</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,157 +3650,157 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jelgava</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FK Liepaja</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W18" t="n">
+        <v>60</v>
+      </c>
+      <c r="X18" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>500</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK18" t="n">
         <v>5.9</v>
       </c>
-      <c r="H18" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>11</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W18" t="n">
+      <c r="AL18" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>800</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AY18" t="n">
         <v>13.5</v>
       </c>
-      <c r="X18" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>200</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>250</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>17.5</v>
+        <v>8.25</v>
       </c>
       <c r="BA18" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="BB18" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BC18" t="n">
         <v>51</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hOUULIXI</t>
+          <t>OraqutYt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,55 +3832,55 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Riga FC</t>
+          <t>Jelgava</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Metta</t>
+          <t>FK Liepaja</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.11</v>
+        <v>5.9</v>
       </c>
       <c r="H19" t="n">
-        <v>6.6</v>
+        <v>4.15</v>
       </c>
       <c r="I19" t="n">
-        <v>18</v>
+        <v>1.42</v>
       </c>
       <c r="J19" t="n">
-        <v>1.42</v>
+        <v>5.7</v>
       </c>
       <c r="K19" t="n">
-        <v>2.95</v>
+        <v>2.37</v>
       </c>
       <c r="L19" t="n">
-        <v>11.75</v>
+        <v>1.88</v>
       </c>
       <c r="M19" t="n">
-        <v>21</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>3.5</v>
+        <v>1.98</v>
       </c>
       <c r="S19" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="T19" t="n">
-        <v>4.69</v>
+        <v>3.25</v>
       </c>
       <c r="U19" t="n">
         <v>1.93</v>
@@ -3889,100 +3889,100 @@
         <v>1.82</v>
       </c>
       <c r="W19" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="X19" t="n">
-        <v>6.1</v>
+        <v>29</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.25</v>
+        <v>15.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>5.8</v>
+        <v>90</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.75</v>
+        <v>50</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="AC19" t="n">
-        <v>21</v>
+        <v>11.75</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="AE19" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AG19" t="n">
         <v>450</v>
       </c>
       <c r="AH19" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="AI19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>200</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL19" t="n">
+      <c r="AR19" t="n">
         <v>250</v>
       </c>
-      <c r="AM19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN19" t="n">
+      <c r="AS19" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT19" t="n">
         <v>3.15</v>
       </c>
-      <c r="AO19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>4.2</v>
-      </c>
       <c r="AU19" t="n">
-        <v>9.75</v>
+        <v>7.9</v>
       </c>
       <c r="AV19" t="n">
         <v>70</v>
       </c>
       <c r="AW19" t="n">
-        <v>17</v>
+        <v>3.3</v>
       </c>
       <c r="AX19" t="n">
-        <v>110</v>
+        <v>6.4</v>
       </c>
       <c r="AY19" t="n">
-        <v>65</v>
+        <v>15.5</v>
       </c>
       <c r="AZ19" t="n">
-        <v>51</v>
+        <v>17.5</v>
       </c>
       <c r="BA19" t="n">
-        <v>500</v>
+        <v>45</v>
       </c>
       <c r="BB19" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="BC19" t="n">
         <v>51</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>fT8Dp2AJ</t>
+          <t>hOUULIXI</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,157 +4014,157 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tukums 2000</t>
+          <t>Riga FC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auda</t>
+          <t>Metta</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7.1</v>
+        <v>1.11</v>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="I20" t="n">
-        <v>1.34</v>
+        <v>18</v>
       </c>
       <c r="J20" t="n">
-        <v>6.2</v>
+        <v>1.42</v>
       </c>
       <c r="K20" t="n">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="L20" t="n">
-        <v>1.72</v>
+        <v>11.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="N20" t="n">
-        <v>14.2</v>
+        <v>26</v>
       </c>
       <c r="O20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S20" t="n">
         <v>1.18</v>
       </c>
-      <c r="P20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.26</v>
-      </c>
       <c r="T20" t="n">
-        <v>3.75</v>
+        <v>4.69</v>
       </c>
       <c r="U20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.82</v>
       </c>
-      <c r="V20" t="n">
-        <v>1.93</v>
-      </c>
       <c r="W20" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="X20" t="n">
-        <v>40</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>18</v>
+        <v>9.25</v>
       </c>
       <c r="Z20" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>250</v>
+      </c>
+      <c r="AM20" t="n">
         <v>120</v>
       </c>
-      <c r="AA20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AL20" t="n">
+      <c r="AN20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>8.75</v>
       </c>
-      <c r="AM20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>250</v>
-      </c>
       <c r="AR20" t="n">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="AS20" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.5</v>
+        <v>9.75</v>
       </c>
       <c r="AV20" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AW20" t="n">
-        <v>3.4</v>
+        <v>17</v>
       </c>
       <c r="AX20" t="n">
-        <v>5.8</v>
+        <v>110</v>
       </c>
       <c r="AY20" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="AZ20" t="n">
-        <v>14.5</v>
+        <v>51</v>
       </c>
       <c r="BA20" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="BB20" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BC20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nqwRzgGi</t>
+          <t>fT8Dp2AJ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,167 +4186,167 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sabah</t>
+          <t>Tukums 2000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kelantan DNFC</t>
+          <t>Auda</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.17</v>
+        <v>7.1</v>
       </c>
       <c r="H21" t="n">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>11.25</v>
+        <v>1.34</v>
       </c>
       <c r="J21" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.87</v>
+        <v>2.55</v>
       </c>
       <c r="L21" t="n">
-        <v>8.5</v>
+        <v>1.72</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="R21" t="n">
-        <v>2.94</v>
+        <v>2.15</v>
       </c>
       <c r="S21" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="T21" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V21" t="n">
         <v>1.93</v>
       </c>
       <c r="W21" t="n">
+        <v>19</v>
+      </c>
+      <c r="X21" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN21" t="n">
         <v>9</v>
       </c>
-      <c r="X21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK21" t="n">
+      <c r="AO21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>250</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS21" t="n">
         <v>300</v>
       </c>
-      <c r="AL21" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AP21" t="n">
+      <c r="AT21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AY21" t="n">
         <v>13</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>45</v>
-      </c>
       <c r="AZ21" t="n">
-        <v>450</v>
+        <v>14.5</v>
       </c>
       <c r="BA21" t="n">
-        <v>350</v>
+        <v>32</v>
       </c>
       <c r="BB21" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="BC21" t="n">
         <v>51</v>
@@ -4587,10 +4587,10 @@
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
@@ -4605,10 +4605,10 @@
         <v>1.67</v>
       </c>
       <c r="S23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U23" t="n">
         <v>1.91</v>
@@ -4620,7 +4620,7 @@
         <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
         <v>10</v>
@@ -4686,10 +4686,10 @@
         <v>201</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>M5XgeA55</t>
+          <t>vNF3pgim</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4742,157 +4742,157 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>LKS Lodz</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.91</v>
+        <v>2.63</v>
       </c>
       <c r="K24" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.73</v>
       </c>
-      <c r="R24" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V24" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB24" t="n">
         <v>26</v>
       </c>
       <c r="AC24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE24" t="n">
         <v>13</v>
       </c>
-      <c r="AD24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE24" t="n">
+      <c r="AF24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI24" t="n">
         <v>19</v>
       </c>
-      <c r="AF24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI24" t="n">
+      <c r="AJ24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM24" t="n">
         <v>34</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AN24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP24" t="n">
         <v>21</v>
       </c>
-      <c r="AK24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ24" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AR24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS24" t="n">
         <v>126</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
       </c>
       <c r="AW24" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AY24" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AZ24" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BA24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB24" t="n">
         <v>151</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>251</v>
       </c>
       <c r="BC24" t="n">
         <v>81</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OAJfx8Q0</t>
+          <t>MRtZdiWH</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,179 +4914,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L25" t="n">
         <v>3.5</v>
       </c>
-      <c r="J25" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4</v>
-      </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="P25" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U25" t="n">
         <v>2.1</v>
       </c>
-      <c r="R25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V25" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="W25" t="n">
         <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AB25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK25" t="n">
         <v>29</v>
       </c>
-      <c r="AC25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>41</v>
-      </c>
       <c r="AL25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM25" t="n">
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV25" t="n">
         <v>67</v>
       </c>
-      <c r="AS25" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>51</v>
-      </c>
       <c r="AW25" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY25" t="n">
         <v>29</v>
       </c>
       <c r="AZ25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA25" t="n">
         <v>101</v>
       </c>
       <c r="BB25" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC25" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD25" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MRtZdiWH</t>
+          <t>8AF72cf4</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,167 +5096,167 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T26" t="n">
         <v>2.8</v>
       </c>
-      <c r="H26" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U26" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="V26" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>8.75</v>
       </c>
       <c r="Z26" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AF26" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH26" t="n">
-        <v>6.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI26" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AK26" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AL26" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AM26" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>10.75</v>
       </c>
       <c r="AP26" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AR26" t="n">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="AS26" t="n">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="AU26" t="n">
-        <v>9</v>
+        <v>6.9</v>
       </c>
       <c r="AV26" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="AX26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY26" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AZ26" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="BA26" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="BB26" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BC26" t="n">
         <v>51</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8AF72cf4</t>
+          <t>0pCa4JPi</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5288,154 +5288,154 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.22</v>
+        <v>2.85</v>
       </c>
       <c r="H27" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>2.85</v>
+        <v>2.3</v>
       </c>
       <c r="J27" t="n">
-        <v>2.85</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L27" t="n">
-        <v>3.45</v>
+        <v>2.92</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="R27" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="S27" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T27" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="U27" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="V27" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="W27" t="n">
         <v>8.25</v>
       </c>
       <c r="X27" t="n">
-        <v>11.25</v>
+        <v>14</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="Z27" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="AA27" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AB27" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AE27" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AG27" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AH27" t="n">
-        <v>9.5</v>
+        <v>7.4</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK27" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AM27" t="n">
         <v>32</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="AO27" t="n">
-        <v>11.75</v>
+        <v>16</v>
       </c>
       <c r="AP27" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AQ27" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AR27" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AS27" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV27" t="n">
         <v>65</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.85</v>
+        <v>4.2</v>
       </c>
       <c r="AX27" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ27" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="BA27" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BB27" t="n">
         <v>300</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0pCa4JPi</t>
+          <t>hUN9yS45</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5465,36 +5465,36 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Mura</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.85</v>
+        <v>1.87</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I28" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>2.47</v>
       </c>
       <c r="K28" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>2.92</v>
+        <v>4.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -5503,7 +5503,7 @@
         <v>6.7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P28" t="n">
         <v>2.92</v>
@@ -5521,106 +5521,106 @@
         <v>2.65</v>
       </c>
       <c r="U28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V28" t="n">
         <v>1.82</v>
       </c>
-      <c r="V28" t="n">
-        <v>1.88</v>
-      </c>
       <c r="W28" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X28" t="n">
         <v>8.25</v>
       </c>
-      <c r="X28" t="n">
-        <v>14</v>
-      </c>
       <c r="Y28" t="n">
-        <v>10.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>35</v>
+        <v>15.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AB28" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AC28" t="n">
         <v>6.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AE28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR28" t="n">
         <v>75</v>
       </c>
-      <c r="AG28" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>120</v>
-      </c>
       <c r="AS28" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AT28" t="n">
         <v>2.65</v>
       </c>
       <c r="AU28" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AV28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="AX28" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AY28" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ28" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="BA28" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="BB28" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BC28" t="n">
         <v>51</v>
@@ -5632,7 +5632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>hUN9yS45</t>
+          <t>l6zUubV6</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,179 +5642,179 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="H29" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="J29" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="K29" t="n">
         <v>2.1</v>
       </c>
       <c r="L29" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>6.7</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P29" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="R29" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S29" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T29" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="U29" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V29" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="W29" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="X29" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="Y29" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC29" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AD29" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AG29" t="n">
-        <v>700</v>
+        <v>1250</v>
       </c>
       <c r="AH29" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AL29" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM29" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AO29" t="n">
         <v>9.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AQ29" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AR29" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AS29" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AV29" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AW29" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY29" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ29" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="BA29" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="BB29" t="n">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="BC29" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD29" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>l6zUubV6</t>
+          <t>vy7A7eC9</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5829,174 +5829,174 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.73</v>
+        <v>2.9</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="J30" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N30" t="n">
+        <v>13</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V30" t="n">
         <v>2.1</v>
       </c>
-      <c r="L30" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N30" t="n">
-        <v>10</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W30" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X30" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AA30" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AD30" t="n">
         <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>1250</v>
+        <v>151</v>
       </c>
       <c r="AH30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM30" t="n">
         <v>23</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AN30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO30" t="n">
         <v>15</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>9.5</v>
       </c>
       <c r="AP30" t="n">
         <v>23</v>
       </c>
       <c r="AQ30" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS30" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU30" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV30" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW30" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AY30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ30" t="n">
         <v>41</v>
       </c>
-      <c r="AZ30" t="n">
-        <v>101</v>
-      </c>
       <c r="BA30" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB30" t="n">
         <v>126</v>
       </c>
-      <c r="BB30" t="n">
-        <v>301</v>
-      </c>
       <c r="BC30" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD30" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>vy7A7eC9</t>
+          <t>jFUJpY4d</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6016,160 +6016,160 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="K31" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N31" t="n">
+        <v>21</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R31" t="n">
         <v>2.88</v>
       </c>
-      <c r="M31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N31" t="n">
-        <v>13</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="S31" t="n">
         <v>1.22</v>
       </c>
-      <c r="P31" t="n">
+      <c r="T31" t="n">
         <v>4</v>
       </c>
-      <c r="Q31" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T31" t="n">
-        <v>3</v>
-      </c>
       <c r="U31" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="V31" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="W31" t="n">
+        <v>12</v>
+      </c>
+      <c r="X31" t="n">
         <v>11</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Y31" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z31" t="n">
         <v>15</v>
       </c>
-      <c r="Y31" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>29</v>
-      </c>
       <c r="AA31" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AB31" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AC31" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AE31" t="n">
         <v>13</v>
       </c>
       <c r="AF31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK31" t="n">
         <v>41</v>
       </c>
-      <c r="AG31" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK31" t="n">
+      <c r="AL31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX31" t="n">
         <v>21</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>12</v>
       </c>
       <c r="AY31" t="n">
         <v>21</v>
       </c>
       <c r="AZ31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB31" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC31" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BD31" t="n">
         <v>151</v>
@@ -6178,7 +6178,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>jFUJpY4d</t>
+          <t>2P4qsavP</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,143 +6188,143 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="H32" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="J32" t="n">
+        <v>3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N32" t="n">
+        <v>15</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R32" t="n">
         <v>2.2</v>
       </c>
-      <c r="K32" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N32" t="n">
-        <v>21</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P32" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2.88</v>
-      </c>
       <c r="S32" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="T32" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U32" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="V32" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="W32" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC32" t="n">
         <v>15</v>
       </c>
-      <c r="AA32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>23</v>
-      </c>
       <c r="AD32" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE32" t="n">
         <v>13</v>
       </c>
       <c r="AF32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG32" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AH32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP32" t="n">
         <v>19</v>
       </c>
-      <c r="AI32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK32" t="n">
+      <c r="AQ32" t="n">
         <v>41</v>
       </c>
-      <c r="AL32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>23</v>
-      </c>
       <c r="AR32" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AS32" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AT32" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="AU32" t="n">
         <v>7</v>
@@ -6333,28 +6333,28 @@
         <v>41</v>
       </c>
       <c r="AW32" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX32" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AY32" t="n">
         <v>21</v>
       </c>
       <c r="AZ32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC32" t="n">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="BD32" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
@@ -6389,13 +6389,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J33" t="n">
         <v>3.25</v>
@@ -6437,7 +6437,7 @@
         <v>1.73</v>
       </c>
       <c r="W33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X33" t="n">
         <v>11</v>
@@ -6464,7 +6464,7 @@
         <v>17</v>
       </c>
       <c r="AF33" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG33" t="n">
         <v>351</v>
@@ -6473,7 +6473,7 @@
         <v>8</v>
       </c>
       <c r="AI33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ33" t="n">
         <v>12</v>
@@ -6509,22 +6509,22 @@
         <v>2.38</v>
       </c>
       <c r="AU33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV33" t="n">
         <v>67</v>
       </c>
       <c r="AW33" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY33" t="n">
         <v>29</v>
       </c>
       <c r="AZ33" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA33" t="n">
         <v>101</v>
@@ -6589,22 +6589,22 @@
         <v>5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O34" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R34" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
         <v>1.4</v>
@@ -6906,7 +6906,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>b5k8oPA5</t>
+          <t>46damotg</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6926,49 +6926,49 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Oleksandriya</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Polissya Zhytomyr</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="I36" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="J36" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K36" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="L36" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="M36" t="n">
         <v>1.14</v>
       </c>
       <c r="N36" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="O36" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P36" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="R36" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S36" t="n">
         <v>1.6</v>
@@ -6977,61 +6977,61 @@
         <v>2.07</v>
       </c>
       <c r="U36" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="V36" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W36" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X36" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y36" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z36" t="n">
         <v>30</v>
       </c>
       <c r="AA36" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB36" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC36" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AD36" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AE36" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG36" t="n">
-        <v>67</v>
+        <v>900</v>
       </c>
       <c r="AH36" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="AI36" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AJ36" t="n">
         <v>12.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AL36" t="n">
         <v>40</v>
       </c>
       <c r="AM36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN36" t="n">
         <v>4.15</v>
@@ -7040,7 +7040,7 @@
         <v>14.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ36" t="n">
         <v>70</v>
@@ -7049,34 +7049,34 @@
         <v>120</v>
       </c>
       <c r="AS36" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB36" t="n">
         <v>450</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>110</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>500</v>
       </c>
       <c r="BC36" t="n">
         <v>81</v>
@@ -7120,37 +7120,37 @@
         <v>1.8</v>
       </c>
       <c r="H37" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K37" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L37" t="n">
         <v>4.75</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P37" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R37" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S37" t="n">
         <v>1.4</v>
@@ -7207,10 +7207,10 @@
         <v>15</v>
       </c>
       <c r="AK37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM37" t="n">
         <v>41</v>
@@ -7219,7 +7219,7 @@
         <v>3.75</v>
       </c>
       <c r="AO37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP37" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD37"/>
+  <dimension ref="A1:BD42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,73 +747,73 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -822,13 +822,13 @@
         <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -849,22 +849,22 @@
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -888,7 +888,7 @@
         <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
         <v>501</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Yg64iWHb</t>
+          <t>tK9CkAnB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,133 +920,133 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>G.A. Eagles</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I3" t="n">
         <v>4.2</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="n">
         <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N3" t="n">
-        <v>15</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>8</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
         <v>151</v>
       </c>
-      <c r="AH3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>101</v>
-      </c>
       <c r="AT3" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
@@ -1055,25 +1055,25 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QXtsC0lD</t>
+          <t>08MpX1Wq</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,170 +1092,170 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Atl. Madrid</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.33</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W4" t="n">
         <v>9</v>
       </c>
-      <c r="J4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8</v>
-      </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.5</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>26</v>
       </c>
       <c r="AC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
         <v>15</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AJ4" t="n">
         <v>10</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
         <v>21</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AM4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA4" t="n">
         <v>67</v>
       </c>
-      <c r="AG4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
+      <c r="BB4" t="n">
         <v>151</v>
       </c>
-      <c r="BA4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>301</v>
-      </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8jq5NCqS</t>
+          <t>QXtsC0lD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,56 +1274,56 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Atl. Madrid</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>5.25</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
         <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
         <v>2.3</v>
@@ -1335,109 +1335,109 @@
         <v>3.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y5" t="n">
         <v>9</v>
       </c>
-      <c r="X5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>13</v>
-      </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
         <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
         <v>3.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC5" t="n">
-        <v>401</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>joFIOKzI</t>
+          <t>dSqPU3pp</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,41 +1456,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>AUSTRIA - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Francs Borains</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Seraing</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>2.35</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1505,10 +1505,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -1517,28 +1517,28 @@
         <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1553,82 +1553,82 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI6" t="n">
         <v>12</v>
       </c>
-      <c r="AI6" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC6" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fNRxnvr9</t>
+          <t>UurXSsFd</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>AUSTRIA - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ceske Budejovice</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Liberec</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.8</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="V7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X7" t="n">
         <v>13</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W7" t="n">
-        <v>13</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="n">
         <v>23</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>34</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AH7" t="n">
         <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO7" t="n">
         <v>15</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>21</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
         <v>81</v>
       </c>
       <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB7" t="n">
         <v>151</v>
       </c>
-      <c r="AT7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB7" t="n">
+      <c r="BC7" t="n">
         <v>126</v>
       </c>
-      <c r="BC7" t="n">
-        <v>501</v>
-      </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gx2E6ln3</t>
+          <t>8jq5NCqS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,65 +1820,65 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U8" t="n">
         <v>1.57</v>
@@ -1887,31 +1887,31 @@
         <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE8" t="n">
         <v>13</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1920,67 +1920,67 @@
         <v>126</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>15</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>10</v>
-      </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
         <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
         <v>401</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>fXGJp7Pq</t>
+          <t>joFIOKzI</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,161 +2002,161 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Francs Borains</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Seraing</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="H9" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R9" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
         <v>5.5</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="AX9" t="n">
         <v>19</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>26</v>
       </c>
       <c r="AY9" t="n">
         <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
         <v>81</v>
@@ -2165,16 +2165,16 @@
         <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IVa4asZb</t>
+          <t>fNRxnvr9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Ceske Budejovice</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Liberec</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>4.33</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="S10" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="W10" t="n">
         <v>13</v>
       </c>
       <c r="X10" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y10" t="n">
         <v>15</v>
       </c>
-      <c r="Y10" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM10" t="n">
         <v>23</v>
       </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AN10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP10" t="n">
         <v>29</v>
       </c>
-      <c r="AG10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
         <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA10" t="n">
         <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC10" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Wx4uB5ON</t>
+          <t>Gx2E6ln3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Levadia</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.18</v>
+        <v>2.45</v>
       </c>
       <c r="H11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J11" t="n">
         <v>3</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.8</v>
-      </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>3.56</v>
+        <v>4.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R11" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="S11" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="T11" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="U11" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
         <v>2.25</v>
       </c>
       <c r="W11" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>10</v>
       </c>
-      <c r="Y11" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>9</v>
-      </c>
       <c r="AK11" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY11" t="n">
         <v>21</v>
       </c>
-      <c r="AN11" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>20</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dA6ZHxaL</t>
+          <t>fXGJp7Pq</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,131 +2548,131 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="I12" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L12" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O12" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="R12" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
         <v>11</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AK12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO12" t="n">
         <v>7.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ12" t="n">
         <v>21</v>
@@ -2681,13 +2681,13 @@
         <v>34</v>
       </c>
       <c r="AS12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
         <v>41</v>
@@ -2696,31 +2696,31 @@
         <v>7.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>naLHUFrR</t>
+          <t>IVa4asZb</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,59 +2730,59 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J13" t="n">
         <v>2.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
         <v>3.2</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="R13" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S13" t="n">
         <v>1.25</v>
@@ -2791,10 +2791,10 @@
         <v>3.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W13" t="n">
         <v>13</v>
@@ -2812,10 +2812,10 @@
         <v>15</v>
       </c>
       <c r="AB13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC13" t="n">
         <v>19</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>21</v>
       </c>
       <c r="AD13" t="n">
         <v>8</v>
@@ -2827,22 +2827,22 @@
         <v>29</v>
       </c>
       <c r="AG13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
         <v>17</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>19</v>
       </c>
       <c r="AJ13" t="n">
         <v>11</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>21</v>
@@ -2851,13 +2851,13 @@
         <v>4.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
         <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
@@ -2890,19 +2890,19 @@
         <v>51</v>
       </c>
       <c r="BB13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC13" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD13" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OKjEAfie</t>
+          <t>Wx4uB5ON</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2917,174 +2917,174 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Levadia</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.7</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>15</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.62</v>
-      </c>
       <c r="R14" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="S14" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="T14" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="U14" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="V14" t="n">
         <v>2.25</v>
       </c>
       <c r="W14" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH14" t="n">
         <v>9.5</v>
       </c>
-      <c r="X14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AI14" t="n">
         <v>15</v>
       </c>
-      <c r="AA14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AJ14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM14" t="n">
         <v>21</v>
       </c>
-      <c r="AC14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH14" t="n">
+      <c r="AN14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX14" t="n">
         <v>17</v>
       </c>
-      <c r="AI14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>21</v>
-      </c>
       <c r="AY14" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AZ14" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BA14" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="BB14" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="BC14" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UwybW05L</t>
+          <t>dA6ZHxaL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3099,90 +3099,90 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Unterhaching</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mannheim</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.75</v>
+        <v>1.62</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L15" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
+        <v>19</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W15" t="n">
         <v>11</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD15" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -3191,73 +3191,73 @@
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AL15" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
         <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP15" t="n">
         <v>15</v>
       </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="AU15" t="n">
         <v>7.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA15" t="n">
         <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC15" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BD15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pfgbFFt0</t>
+          <t>naLHUFrR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Paks</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DVTK</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="V16" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="X16" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
         <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AH16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI16" t="n">
         <v>17</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AJ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK16" t="n">
         <v>29</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>51</v>
-      </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AM16" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AP16" t="n">
         <v>17</v>
       </c>
       <c r="AQ16" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
         <v>101</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD16" t="n">
         <v>81</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>63CHqMPP</t>
+          <t>OKjEAfie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BFC Daugavpils</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Valmiera</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU17" t="n">
         <v>7.5</v>
       </c>
-      <c r="H17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N17" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W17" t="n">
-        <v>20</v>
-      </c>
-      <c r="X17" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>37</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>300</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>250</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7.9</v>
-      </c>
       <c r="AV17" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>5.8</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AZ17" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="BA17" t="n">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EXVQMbIC</t>
+          <t>UwybW05L</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Unterhaching</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Mannheim</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>19.5</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
-        <v>6.7</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="J18" t="n">
-        <v>13.5</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>3.05</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>2.88</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>11</v>
+      </c>
+      <c r="X18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU18" t="n">
         <v>7.5</v>
       </c>
-      <c r="Q18" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="T18" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="W18" t="n">
-        <v>60</v>
-      </c>
-      <c r="X18" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>500</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>800</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AV18" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="AX18" t="n">
-        <v>4.3</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AZ18" t="n">
-        <v>8.25</v>
+        <v>41</v>
       </c>
       <c r="BA18" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BB18" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OraqutYt</t>
+          <t>pfgbFFt0</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,167 +3822,167 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Jelgava</t>
+          <t>Paks</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FK Liepaja</t>
+          <t>DVTK</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.9</v>
+        <v>1.62</v>
       </c>
       <c r="H19" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>1.42</v>
+        <v>4.75</v>
       </c>
       <c r="J19" t="n">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.88</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="S19" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="T19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="V19" t="n">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="W19" t="n">
-        <v>13.5</v>
+        <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AB19" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>5.9</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO19" t="n">
         <v>8</v>
       </c>
-      <c r="AL19" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>35</v>
-      </c>
       <c r="AP19" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="AS19" t="n">
-        <v>450</v>
+        <v>101</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>6.4</v>
+        <v>23</v>
       </c>
       <c r="AY19" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>17.5</v>
+        <v>81</v>
       </c>
       <c r="BA19" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="BB19" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="BC19" t="n">
         <v>51</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hOUULIXI</t>
+          <t>EZpFBXuP</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,167 +4004,167 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Riga FC</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Metta</t>
+          <t>Debrecen</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="H20" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I20" t="n">
-        <v>18</v>
+        <v>8.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="K20" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="L20" t="n">
-        <v>11.75</v>
+        <v>8.5</v>
       </c>
       <c r="M20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N20" t="n">
+        <v>19</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH20" t="n">
         <v>21</v>
       </c>
-      <c r="N20" t="n">
-        <v>26</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T20" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W20" t="n">
-        <v>9</v>
-      </c>
-      <c r="X20" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AI20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>23</v>
       </c>
-      <c r="AC20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>50</v>
-      </c>
       <c r="AK20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>201</v>
       </c>
-      <c r="AL20" t="n">
-        <v>250</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>51</v>
-      </c>
       <c r="BA20" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="BB20" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BC20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>fT8Dp2AJ</t>
+          <t>tjQvlaGj</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,173 +4186,173 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tukums 2000</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auda</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.1</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>1.34</v>
+        <v>2.6</v>
       </c>
       <c r="J21" t="n">
-        <v>6.2</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.72</v>
+        <v>3.1</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="S21" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="T21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.82</v>
+        <v>1.44</v>
       </c>
       <c r="V21" t="n">
-        <v>1.93</v>
+        <v>2.63</v>
       </c>
       <c r="W21" t="n">
+        <v>13</v>
+      </c>
+      <c r="X21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC21" t="n">
         <v>19</v>
       </c>
-      <c r="X21" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>15</v>
-      </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AF21" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AG21" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.1</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
-        <v>6.2</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="n">
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="AK21" t="n">
-        <v>7.7</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>8.75</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AO21" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AQ21" t="n">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV21" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="AX21" t="n">
-        <v>5.8</v>
+        <v>13</v>
       </c>
       <c r="AY21" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ21" t="n">
-        <v>14.5</v>
+        <v>41</v>
       </c>
       <c r="BA21" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="BB21" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BC21" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BD21" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22">
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IaerBgx0</t>
+          <t>8nTh0xOs</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4560,100 +4560,100 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Jagiellonia</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
         <v>2.9</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K23" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="R23" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="S23" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T23" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="U23" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="V23" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB23" t="n">
         <v>21</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AC23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF23" t="n">
         <v>34</v>
       </c>
-      <c r="AC23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>51</v>
-      </c>
       <c r="AG23" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="AH23" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>11</v>
@@ -4662,58 +4662,58 @@
         <v>29</v>
       </c>
       <c r="AL23" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN23" t="n">
         <v>4.5</v>
       </c>
       <c r="AO23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX23" t="n">
         <v>15</v>
       </c>
-      <c r="AP23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>17</v>
-      </c>
       <c r="AY23" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ23" t="n">
         <v>51</v>
       </c>
       <c r="BA23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB23" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC23" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD23" t="n">
         <v>81</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MRtZdiWH</t>
+          <t>KxD3zneD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,98 +4914,98 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="H25" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="K25" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="R25" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="T25" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="U25" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W25" t="n">
+        <v>6</v>
+      </c>
+      <c r="X25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD25" t="n">
         <v>7</v>
       </c>
-      <c r="X25" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="n">
         <v>67</v>
@@ -5014,43 +5014,43 @@
         <v>1250</v>
       </c>
       <c r="AH25" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AL25" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM25" t="n">
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AP25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>34</v>
       </c>
-      <c r="AQ25" t="n">
-        <v>51</v>
-      </c>
       <c r="AR25" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU25" t="n">
         <v>9</v>
@@ -5059,34 +5059,34 @@
         <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ25" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA25" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB25" t="n">
         <v>301</v>
       </c>
       <c r="BC25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8AF72cf4</t>
+          <t>84zJ0ZWh</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,167 +5096,167 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>U. Cluj</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="K26" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N26" t="n">
+        <v>8</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6</v>
+      </c>
+      <c r="X26" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
         <v>3.75</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N26" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>4.1</v>
-      </c>
       <c r="AO26" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AR26" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AS26" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AU26" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AW26" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AZ26" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA26" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BB26" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BC26" t="n">
         <v>51</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0pCa4JPi</t>
+          <t>8AF72cf4</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5288,49 +5288,49 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.85</v>
+        <v>2.12</v>
       </c>
       <c r="H27" t="n">
         <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="n">
         <v>2.07</v>
       </c>
       <c r="L27" t="n">
-        <v>2.92</v>
+        <v>3.8</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="P27" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="R27" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="S27" t="n">
         <v>1.42</v>
@@ -5339,103 +5339,103 @@
         <v>2.65</v>
       </c>
       <c r="U27" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="V27" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="W27" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="X27" t="n">
-        <v>14</v>
+        <v>10.25</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.75</v>
+        <v>8.75</v>
       </c>
       <c r="Z27" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AD27" t="n">
         <v>6.2</v>
       </c>
       <c r="AE27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF27" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AG27" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH27" t="n">
-        <v>7.4</v>
+        <v>9.75</v>
       </c>
       <c r="AI27" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9.25</v>
+        <v>11.25</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AM27" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.8</v>
+        <v>4.05</v>
       </c>
       <c r="AO27" t="n">
-        <v>16</v>
+        <v>11.25</v>
       </c>
       <c r="AP27" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AQ27" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AR27" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AS27" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AT27" t="n">
         <v>2.65</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV27" t="n">
         <v>65</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="AX27" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AY27" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ27" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="BA27" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="BB27" t="n">
         <v>300</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hUN9yS45</t>
+          <t>0pCa4JPi</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5465,36 +5465,36 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.87</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="J28" t="n">
-        <v>2.47</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
         <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -5518,109 +5518,109 @@
         <v>1.42</v>
       </c>
       <c r="T28" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U28" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="V28" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="W28" t="n">
-        <v>6.3</v>
+        <v>8.75</v>
       </c>
       <c r="X28" t="n">
-        <v>8.25</v>
+        <v>15.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>15.5</v>
+        <v>40</v>
       </c>
       <c r="AA28" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AB28" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AC28" t="n">
         <v>6.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AE28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>80</v>
       </c>
-      <c r="AG28" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK28" t="n">
+      <c r="AR28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV28" t="n">
         <v>65</v>
       </c>
-      <c r="AL28" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM28" t="n">
+      <c r="AW28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ28" t="n">
         <v>45</v>
       </c>
-      <c r="AN28" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS28" t="n">
+      <c r="BA28" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB28" t="n">
         <v>250</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>400</v>
       </c>
       <c r="BC28" t="n">
         <v>51</v>
@@ -5632,7 +5632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>l6zUubV6</t>
+          <t>hUN9yS45</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,179 +5642,179 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Mura</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="I29" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="K29" t="n">
         <v>2.1</v>
       </c>
       <c r="L29" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>6.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P29" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="R29" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S29" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T29" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="U29" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V29" t="n">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="W29" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="X29" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB29" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.5</v>
+        <v>6.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AE29" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AF29" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AG29" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AL29" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AO29" t="n">
         <v>9.5</v>
       </c>
       <c r="AP29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX29" t="n">
         <v>23</v>
       </c>
-      <c r="AQ29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX29" t="n">
+      <c r="AY29" t="n">
         <v>29</v>
       </c>
-      <c r="AY29" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ29" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="BA29" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="BB29" t="n">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="BC29" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD29" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vy7A7eC9</t>
+          <t>KrvjHcJj</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,179 +5824,179 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Celje</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>O. Ljubljana</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="J30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P30" t="n">
         <v>3.4</v>
       </c>
-      <c r="K30" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N30" t="n">
-        <v>13</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
       <c r="Q30" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R30" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S30" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T30" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="U30" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V30" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="W30" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="X30" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE30" t="n">
         <v>12</v>
       </c>
-      <c r="AD30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>13</v>
-      </c>
       <c r="AF30" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG30" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="AH30" t="n">
         <v>9</v>
       </c>
       <c r="AI30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
         <v>9.5</v>
       </c>
       <c r="AK30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL30" t="n">
         <v>21</v>
       </c>
-      <c r="AL30" t="n">
-        <v>17</v>
-      </c>
       <c r="AM30" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP30" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AQ30" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AR30" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AS30" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT30" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AU30" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV30" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AW30" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AX30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY30" t="n">
         <v>21</v>
       </c>
       <c r="AZ30" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="BA30" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="BB30" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="BC30" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD30" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>jFUJpY4d</t>
+          <t>l6zUubV6</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6011,174 +6011,174 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H31" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="J31" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="K31" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.11</v>
+        <v>1.4</v>
       </c>
       <c r="P31" t="n">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="R31" t="n">
-        <v>2.88</v>
+        <v>1.58</v>
       </c>
       <c r="S31" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="T31" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U31" t="n">
-        <v>1.44</v>
+        <v>2.1</v>
       </c>
       <c r="V31" t="n">
-        <v>2.63</v>
+        <v>1.67</v>
       </c>
       <c r="W31" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="X31" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
       </c>
       <c r="Z31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA31" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>17</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AK31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP31" t="n">
         <v>23</v>
       </c>
-      <c r="AD31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF31" t="n">
+      <c r="AQ31" t="n">
         <v>34</v>
       </c>
-      <c r="AG31" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>23</v>
-      </c>
       <c r="AR31" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AS31" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV31" t="n">
         <v>67</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>41</v>
       </c>
       <c r="AW31" t="n">
         <v>6.5</v>
       </c>
       <c r="AX31" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY31" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AZ31" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA31" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB31" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC31" t="n">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="BD31" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2P4qsavP</t>
+          <t>vy7A7eC9</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,59 +6188,59 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="K32" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L32" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P32" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="R32" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="S32" t="n">
         <v>1.33</v>
@@ -6249,34 +6249,34 @@
         <v>3.25</v>
       </c>
       <c r="U32" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X32" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC32" t="n">
         <v>13</v>
       </c>
-      <c r="Y32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>15</v>
-      </c>
       <c r="AD32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE32" t="n">
         <v>13</v>
@@ -6288,58 +6288,58 @@
         <v>151</v>
       </c>
       <c r="AH32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI32" t="n">
         <v>11</v>
       </c>
-      <c r="AI32" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK32" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL32" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AM32" t="n">
         <v>23</v>
       </c>
       <c r="AN32" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO32" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP32" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS32" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT32" t="n">
         <v>3.25</v>
       </c>
       <c r="AU32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW32" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AX32" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AY32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ32" t="n">
         <v>41</v>
@@ -6351,16 +6351,16 @@
         <v>126</v>
       </c>
       <c r="BC32" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="BD32" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>hK6YGqAL</t>
+          <t>jFUJpY4d</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6375,174 +6375,174 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="I33" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="K33" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="O33" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4</v>
+      </c>
+      <c r="U33" t="n">
         <v>1.44</v>
       </c>
-      <c r="P33" t="n">
+      <c r="V33" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q33" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W33" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="X33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC33" t="n">
         <v>23</v>
       </c>
-      <c r="AA33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7</v>
-      </c>
       <c r="AD33" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE33" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF33" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AG33" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AI33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>13</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>12</v>
-      </c>
       <c r="AK33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM33" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AN33" t="n">
         <v>4.33</v>
       </c>
       <c r="AO33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP33" t="n">
         <v>15</v>
       </c>
-      <c r="AP33" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ33" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AR33" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC33" t="n">
         <v>251</v>
       </c>
-      <c r="AT33" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>276</v>
-      </c>
       <c r="BD33" t="n">
-        <v>276</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>I1hj46QF</t>
+          <t>EmjE9usp</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,47 +6552,47 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Brage</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Oddevold</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="J34" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>2.2</v>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O34" t="n">
         <v>1.25</v>
@@ -6607,124 +6607,124 @@
         <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T34" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U34" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="V34" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="W34" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="X34" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AA34" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB34" t="n">
         <v>26</v>
       </c>
       <c r="AC34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH34" t="n">
         <v>10</v>
       </c>
-      <c r="AD34" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH34" t="n">
+      <c r="AI34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO34" t="n">
         <v>13</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>9</v>
       </c>
       <c r="AP34" t="n">
         <v>21</v>
       </c>
       <c r="AQ34" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR34" t="n">
         <v>51</v>
       </c>
       <c r="AS34" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB34" t="n">
         <v>151</v>
       </c>
-      <c r="AT34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>251</v>
-      </c>
       <c r="BC34" t="n">
-        <v>276</v>
+        <v>501</v>
       </c>
       <c r="BD34" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>rcBuwNuJ</t>
+          <t>4E4rF1JM</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6734,131 +6734,131 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Orebro</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Amedspor</t>
+          <t>Helsingborg</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N35" t="n">
+        <v>11</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V35" t="n">
         <v>2.1</v>
       </c>
-      <c r="H35" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N35" t="n">
-        <v>8</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W35" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="X35" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH35" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AI35" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ35" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AK35" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AL35" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AM35" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN35" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO35" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP35" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ35" t="n">
         <v>41</v>
@@ -6867,37 +6867,37 @@
         <v>67</v>
       </c>
       <c r="AS35" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU35" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA35" t="n">
         <v>67</v>
       </c>
-      <c r="AW35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>101</v>
-      </c>
       <c r="BB35" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC35" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD35" t="n">
         <v>126</v>
@@ -6906,7 +6906,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>46damotg</t>
+          <t>AFqN7JBd</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,179 +6916,179 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Oleksandriya</t>
+          <t>Oster</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Polissya Zhytomyr</t>
+          <t>Skovde AIK</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>1.17</v>
       </c>
       <c r="H36" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="I36" t="n">
-        <v>3.45</v>
+        <v>12</v>
       </c>
       <c r="J36" t="n">
-        <v>3.2</v>
+        <v>1.53</v>
       </c>
       <c r="K36" t="n">
-        <v>1.78</v>
+        <v>3</v>
       </c>
       <c r="L36" t="n">
-        <v>4.1</v>
+        <v>10</v>
       </c>
       <c r="M36" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>4.25</v>
+        <v>23</v>
       </c>
       <c r="O36" t="n">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="P36" t="n">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.6</v>
+        <v>1.36</v>
       </c>
       <c r="R36" t="n">
-        <v>1.38</v>
+        <v>3.1</v>
       </c>
       <c r="S36" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="T36" t="n">
-        <v>2.07</v>
+        <v>4.33</v>
       </c>
       <c r="U36" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V36" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="W36" t="n">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="X36" t="n">
-        <v>11.25</v>
+        <v>7</v>
       </c>
       <c r="Y36" t="n">
         <v>10</v>
       </c>
       <c r="Z36" t="n">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="AB36" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AC36" t="n">
-        <v>4.55</v>
+        <v>21</v>
       </c>
       <c r="AD36" t="n">
-        <v>5.1</v>
+        <v>15</v>
       </c>
       <c r="AE36" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="AF36" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AG36" t="n">
-        <v>900</v>
+        <v>301</v>
       </c>
       <c r="AH36" t="n">
-        <v>7.3</v>
+        <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AJ36" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AK36" t="n">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="AL36" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM36" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.15</v>
+        <v>3.4</v>
       </c>
       <c r="AO36" t="n">
-        <v>14.5</v>
+        <v>5</v>
       </c>
       <c r="AP36" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AQ36" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="AR36" t="n">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="AS36" t="n">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.07</v>
+        <v>4.33</v>
       </c>
       <c r="AU36" t="n">
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="AV36" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AW36" t="n">
-        <v>5.1</v>
+        <v>12</v>
       </c>
       <c r="AX36" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AY36" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AZ36" t="n">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="BA36" t="n">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="BB36" t="n">
-        <v>450</v>
+        <v>301</v>
       </c>
       <c r="BC36" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD36" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>th1J1MN7</t>
+          <t>2P4qsavP</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7098,172 +7098,1082 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I37" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="J37" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L37" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
+        <v>15</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W37" t="n">
+        <v>10</v>
+      </c>
+      <c r="X37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y37" t="n">
         <v>9.5</v>
       </c>
-      <c r="O37" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC37" t="n">
         <v>15</v>
       </c>
-      <c r="AA37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD37" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AH37" t="n">
         <v>11</v>
       </c>
       <c r="AI37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL37" t="n">
         <v>21</v>
       </c>
-      <c r="AJ37" t="n">
+      <c r="AM37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX37" t="n">
         <v>15</v>
       </c>
-      <c r="AK37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL37" t="n">
+      <c r="AY37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>hK6YGqAL</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>7</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W38" t="n">
+        <v>7</v>
+      </c>
+      <c r="X38" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK38" t="n">
         <v>34</v>
       </c>
-      <c r="AM37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN37" t="n">
+      <c r="AL38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>I1hj46QF</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N39" t="n">
+        <v>13</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P39" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO37" t="n">
+      <c r="Q39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X39" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>rcBuwNuJ</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Amedspor</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N40" t="n">
+        <v>8</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W40" t="n">
+        <v>6</v>
+      </c>
+      <c r="X40" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>46damotg</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Oleksandriya</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Polissya Zhytomyr</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W41" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X41" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y41" t="n">
         <v>10</v>
       </c>
-      <c r="AP37" t="n">
+      <c r="Z41" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX41" t="n">
         <v>21</v>
       </c>
-      <c r="AQ37" t="n">
+      <c r="AY41" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>th1J1MN7</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Progreso</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N42" t="n">
+        <v>10</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL42" t="n">
         <v>34</v>
       </c>
-      <c r="AR37" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS37" t="n">
+      <c r="AM42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS42" t="n">
         <v>151</v>
       </c>
-      <c r="AT37" t="n">
+      <c r="AT42" t="n">
         <v>2.75</v>
       </c>
-      <c r="AU37" t="n">
+      <c r="AU42" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV37" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW37" t="n">
+      <c r="AV42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW42" t="n">
         <v>6</v>
       </c>
-      <c r="AX37" t="n">
+      <c r="AX42" t="n">
         <v>23</v>
       </c>
-      <c r="AY37" t="n">
+      <c r="AY42" t="n">
         <v>34</v>
       </c>
-      <c r="AZ37" t="n">
+      <c r="AZ42" t="n">
         <v>81</v>
       </c>
-      <c r="BA37" t="n">
+      <c r="BA42" t="n">
         <v>101</v>
       </c>
-      <c r="BB37" t="n">
+      <c r="BB42" t="n">
         <v>251</v>
       </c>
-      <c r="BC37" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD37" t="n">
+      <c r="BC42" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD42" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD51"/>
+  <dimension ref="A1:BD50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>2.88</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.13</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GnZmQeVb</t>
+          <t>raQ4MDUN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,160 +1284,160 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W5" t="n">
+        <v>13</v>
+      </c>
+      <c r="X5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN5" t="n">
         <v>4.75</v>
       </c>
-      <c r="J5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="AO5" t="n">
         <v>11</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AP5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY5" t="n">
         <v>15</v>
       </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP5" t="n">
+      <c r="AZ5" t="n">
         <v>19</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>29</v>
-      </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC5" t="n">
         <v>101</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>201</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>raQ4MDUN</t>
+          <t>WvkEqfS8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,173 +1456,173 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="H6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W6" t="n">
+        <v>12</v>
+      </c>
+      <c r="X6" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX6" t="n">
         <v>3.75</v>
       </c>
-      <c r="I6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>17</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W6" t="n">
-        <v>13</v>
-      </c>
-      <c r="X6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y6" t="n">
+      <c r="AY6" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AZ6" t="n">
         <v>21</v>
       </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
+      <c r="BA6" t="n">
         <v>34</v>
       </c>
-      <c r="AL6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>41</v>
-      </c>
       <c r="BB6" t="n">
         <v>51</v>
       </c>
       <c r="BC6" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD6" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -1663,10 +1663,10 @@
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
@@ -1708,7 +1708,7 @@
         <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
         <v>10</v>
@@ -1789,7 +1789,7 @@
         <v>4.75</v>
       </c>
       <c r="AY7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ7" t="n">
         <v>21</v>
@@ -1798,13 +1798,13 @@
         <v>41</v>
       </c>
       <c r="BB7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC7" t="n">
         <v>151</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -1887,7 +1887,7 @@
         <v>1.95</v>
       </c>
       <c r="W8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X8" t="n">
         <v>9</v>
@@ -1920,7 +1920,7 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI8" t="n">
         <v>81</v>
@@ -1941,7 +1941,7 @@
         <v>3.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AP8" t="n">
         <v>13</v>
@@ -1968,7 +1968,7 @@
         <v>401</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>51</v>
@@ -1977,7 +1977,7 @@
         <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB8" t="n">
         <v>151</v>
@@ -2042,7 +2042,7 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
@@ -2203,40 +2203,40 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
         <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P10" t="n">
         <v>3.75</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>12</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
       <c r="Q10" t="n">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S10" t="n">
         <v>1.36</v>
@@ -2245,13 +2245,13 @@
         <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
@@ -2266,10 +2266,10 @@
         <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2317,7 +2317,7 @@
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
         <v>3</v>
@@ -2332,7 +2332,7 @@
         <v>501</v>
       </c>
       <c r="AX10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY10" t="n">
         <v>17</v>
@@ -2415,7 +2415,7 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
         <v>2.05</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2591,16 +2591,16 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2660,10 +2660,10 @@
         <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN12" t="n">
         <v>4.33</v>
@@ -2681,7 +2681,7 @@
         <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
@@ -2696,7 +2696,7 @@
         <v>81</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY12" t="n">
         <v>17</v>
@@ -2755,13 +2755,13 @@
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L13" t="n">
         <v>3.25</v>
@@ -2800,7 +2800,7 @@
         <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
         <v>12</v>
@@ -2827,16 +2827,16 @@
         <v>67</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI13" t="n">
         <v>10</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK13" t="n">
         <v>23</v>
@@ -2893,7 +2893,7 @@
         <v>81</v>
       </c>
       <c r="BC13" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD13" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SdB9Bc6d</t>
+          <t>2ZyuhkX9</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Aarhus</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FK Pardubice</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="R15" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V15" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X15" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AA15" t="n">
         <v>13</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG15" t="n">
-        <v>201</v>
+        <v>451</v>
       </c>
       <c r="AH15" t="n">
         <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AO15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX15" t="n">
         <v>8</v>
       </c>
-      <c r="AP15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>7</v>
-      </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB15" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2ZkCVIcS</t>
+          <t>2cKRrofd</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Slovacko</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T16" t="n">
         <v>3.4</v>
       </c>
-      <c r="I16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="U16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W16" t="n">
+        <v>10</v>
+      </c>
+      <c r="X16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y16" t="n">
         <v>9</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="Z16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE16" t="n">
         <v>12</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL16" t="n">
         <v>23</v>
       </c>
-      <c r="Y16" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AM16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP16" t="n">
         <v>17</v>
       </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP16" t="n">
+      <c r="AQ16" t="n">
         <v>34</v>
       </c>
-      <c r="AQ16" t="n">
-        <v>81</v>
-      </c>
       <c r="AR16" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW16" t="n">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="AX16" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AZ16" t="n">
         <v>21</v>
       </c>
       <c r="BA16" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD16" t="n">
         <v>151</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2ZyuhkX9</t>
+          <t>8hA0ZYe1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,59 +3458,59 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aarhus</t>
+          <t>Mushuc Runa</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Macara</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R17" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3519,73 +3519,73 @@
         <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB17" t="n">
         <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AF17" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AM17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AR17" t="n">
         <v>51</v>
@@ -3597,40 +3597,40 @@
         <v>2.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA17" t="n">
         <v>67</v>
       </c>
-      <c r="AW17" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>151</v>
-      </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BC17" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BD17" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8hA0ZYe1</t>
+          <t>bNOqAmee</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,116 +3640,116 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mushuc Runa</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Macara</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T18" t="n">
         <v>2.25</v>
       </c>
-      <c r="H18" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
         <v>19</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AF18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK18" t="n">
         <v>29</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>41</v>
       </c>
       <c r="AL18" t="n">
         <v>29</v>
@@ -3758,61 +3758,61 @@
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW18" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AX18" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BA18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC18" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD18" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bNOqAmee</t>
+          <t>2LfB5qno</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,173 +3822,173 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Parnu JK Vaprus</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.63</v>
+        <v>2.12</v>
       </c>
       <c r="H19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.1</v>
       </c>
-      <c r="I19" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L19" t="n">
         <v>3.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.91</v>
       </c>
-      <c r="L19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.44</v>
-      </c>
       <c r="S19" t="n">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="T19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V19" t="n">
         <v>2.25</v>
       </c>
-      <c r="U19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="X19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC19" t="n">
         <v>11</v>
       </c>
-      <c r="Y19" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>9.75</v>
       </c>
       <c r="AF19" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="AG19" t="n">
-        <v>501</v>
+        <v>200</v>
       </c>
       <c r="AH19" t="n">
-        <v>6.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI19" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AM19" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.5</v>
+        <v>4.15</v>
       </c>
       <c r="AO19" t="n">
-        <v>17</v>
+        <v>11.25</v>
       </c>
       <c r="AP19" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AQ19" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AR19" t="n">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="AS19" t="n">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.25</v>
+        <v>2.82</v>
       </c>
       <c r="AU19" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="AV19" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="AW19" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AX19" t="n">
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AZ19" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="BA19" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="BB19" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BC19" t="n">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="BD19" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -4047,40 +4047,40 @@
         <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
         <v>9.5</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA20" t="n">
         <v>21</v>
@@ -4101,22 +4101,22 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>10</v>
-      </c>
       <c r="AK20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="n">
         <v>29</v>
@@ -4131,7 +4131,7 @@
         <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR20" t="n">
         <v>67</v>
@@ -4140,7 +4140,7 @@
         <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU20" t="n">
         <v>7.5</v>
@@ -4152,10 +4152,10 @@
         <v>81</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ20" t="n">
         <v>21</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>23J7iYMr</t>
+          <t>As65xCDU</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,77 +4914,77 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Helmond</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Wydad</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L25" t="n">
         <v>3.5</v>
       </c>
-      <c r="I25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.63</v>
-      </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N25" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.57</v>
       </c>
-      <c r="R25" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.5</v>
-      </c>
       <c r="W25" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="X25" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
         <v>12</v>
@@ -4993,100 +4993,100 @@
         <v>34</v>
       </c>
       <c r="AA25" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB25" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AF25" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AG25" t="n">
         <v>101</v>
       </c>
       <c r="AH25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI25" t="n">
         <v>11</v>
       </c>
-      <c r="AI25" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AM25" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR25" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS25" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU25" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AW25" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="AX25" t="n">
         <v>4.5</v>
       </c>
       <c r="AY25" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="BA25" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BB25" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BC25" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BD25" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>KlH3dEZh</t>
+          <t>23J7iYMr</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,170 +5096,170 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Helmond</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.67</v>
+        <v>3.25</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="J26" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L26" t="n">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="P26" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="R26" t="n">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="S26" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="T26" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U26" t="n">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="V26" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="W26" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="X26" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AA26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC26" t="n">
         <v>15</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>10</v>
       </c>
       <c r="AD26" t="n">
         <v>7</v>
       </c>
       <c r="AE26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO26" t="n">
         <v>17</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>9</v>
       </c>
       <c r="AP26" t="n">
         <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR26" t="n">
         <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU26" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW26" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AX26" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY26" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AZ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA26" t="n">
         <v>34</v>
       </c>
-      <c r="BA26" t="n">
+      <c r="BB26" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC26" t="n">
         <v>101</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>251</v>
       </c>
       <c r="BD26" t="n">
         <v>151</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>xQB8eYla</t>
+          <t>KlH3dEZh</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5288,31 +5288,31 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KFUM Oslo</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="J27" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L27" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
@@ -5321,127 +5321,127 @@
         <v>10</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="R27" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.8</v>
       </c>
-      <c r="V27" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB27" t="n">
         <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH27" t="n">
         <v>13</v>
       </c>
-      <c r="AF27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH27" t="n">
+      <c r="AI27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO27" t="n">
         <v>9</v>
       </c>
-      <c r="AI27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK27" t="n">
+      <c r="AP27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>29</v>
       </c>
-      <c r="AL27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>41</v>
-      </c>
       <c r="AR27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS27" t="n">
         <v>151</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV27" t="n">
         <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="AX27" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BA27" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB27" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BC27" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD27" t="n">
         <v>151</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GGACfh45</t>
+          <t>xQB8eYla</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5470,136 +5470,136 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>KFUM Oslo</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="J28" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="R28" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="S28" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T28" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U28" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V28" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W28" t="n">
         <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z28" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AA28" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AB28" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC28" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>13</v>
       </c>
       <c r="AF28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG28" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS28" t="n">
         <v>151</v>
       </c>
-      <c r="AH28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>101</v>
-      </c>
       <c r="AT28" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
         <v>51</v>
@@ -5608,19 +5608,19 @@
         <v>501</v>
       </c>
       <c r="AX28" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY28" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA28" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB28" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC28" t="n">
         <v>151</v>
@@ -5632,7 +5632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AwAGgCJB</t>
+          <t>GGACfh45</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5652,160 +5652,160 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.45</v>
+        <v>1.73</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
-        <v>2.63</v>
+        <v>4.75</v>
       </c>
       <c r="J29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>13</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T29" t="n">
         <v>3</v>
       </c>
-      <c r="K29" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N29" t="n">
-        <v>15</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T29" t="n">
-        <v>3.4</v>
-      </c>
       <c r="U29" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="V29" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB29" t="n">
         <v>23</v>
       </c>
       <c r="AC29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD29" t="n">
         <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL29" t="n">
         <v>34</v>
       </c>
-      <c r="AG29" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>19</v>
-      </c>
       <c r="AM29" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="AO29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP29" t="n">
         <v>19</v>
       </c>
       <c r="AQ29" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR29" t="n">
         <v>51</v>
       </c>
       <c r="AS29" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB29" t="n">
         <v>101</v>
       </c>
-      <c r="AT29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>51</v>
-      </c>
       <c r="BC29" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BD29" t="n">
         <v>151</v>
@@ -5814,7 +5814,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OtEKhWYH</t>
+          <t>AwAGgCJB</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5834,169 +5834,169 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>1.57</v>
+        <v>2.55</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O30" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R30" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S30" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U30" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="V30" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="W30" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="X30" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC30" t="n">
         <v>15</v>
       </c>
-      <c r="Z30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA30" t="n">
+      <c r="AD30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF30" t="n">
         <v>34</v>
       </c>
-      <c r="AB30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE30" t="n">
+      <c r="AG30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI30" t="n">
         <v>15</v>
       </c>
-      <c r="AF30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>9</v>
-      </c>
       <c r="AJ30" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AK30" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AL30" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AM30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU30" t="n">
         <v>7</v>
       </c>
-      <c r="AO30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV30" t="n">
         <v>41</v>
       </c>
       <c r="AW30" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AX30" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AY30" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ30" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA30" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="BB30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC30" t="n">
         <v>101</v>
       </c>
       <c r="BD30" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>pd2TjA3U</t>
+          <t>OtEKhWYH</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6016,85 +6016,85 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J31" t="n">
+        <v>6</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N31" t="n">
+        <v>17</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U31" t="n">
         <v>1.75</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N31" t="n">
-        <v>11</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V31" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W31" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="X31" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="Z31" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="AA31" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AB31" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC31" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AE31" t="n">
         <v>17</v>
@@ -6103,46 +6103,46 @@
         <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="AL31" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AM31" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="AO31" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ31" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="AR31" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS31" t="n">
         <v>151</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
@@ -6151,25 +6151,25 @@
         <v>51</v>
       </c>
       <c r="AW31" t="n">
-        <v>126</v>
+        <v>451</v>
       </c>
       <c r="AX31" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="AY31" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="BA31" t="n">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="BB31" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC31" t="n">
         <v>101</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>201</v>
       </c>
       <c r="BD31" t="n">
         <v>151</v>
@@ -6178,7 +6178,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>viuDxGug</t>
+          <t>pd2TjA3U</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6193,165 +6193,165 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sporting Cristal</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.08</v>
+        <v>1.75</v>
       </c>
       <c r="H32" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>11</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W32" t="n">
+        <v>7</v>
+      </c>
+      <c r="X32" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO32" t="n">
         <v>9.5</v>
       </c>
-      <c r="I32" t="n">
+      <c r="AP32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY32" t="n">
         <v>23</v>
       </c>
-      <c r="J32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L32" t="n">
-        <v>15</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N32" t="n">
-        <v>26</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P32" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T32" t="n">
-        <v>5</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W32" t="n">
-        <v>12</v>
-      </c>
-      <c r="X32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF32" t="n">
+      <c r="AZ32" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA32" t="n">
         <v>81</v>
       </c>
-      <c r="AG32" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI32" t="n">
+      <c r="BB32" t="n">
         <v>101</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>351</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>151</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>151</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>351</v>
-      </c>
       <c r="BC32" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BD32" t="n">
         <v>151</v>
@@ -6360,7 +6360,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>xSK9dfN6</t>
+          <t>viuDxGug</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6370,179 +6370,179 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Sporting Cristal</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>1.09</v>
       </c>
       <c r="H33" t="n">
+        <v>9</v>
+      </c>
+      <c r="I33" t="n">
+        <v>21</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K33" t="n">
         <v>3.5</v>
       </c>
-      <c r="I33" t="n">
+      <c r="L33" t="n">
+        <v>15</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>26</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P33" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U33" t="n">
         <v>2.2</v>
       </c>
-      <c r="J33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N33" t="n">
-        <v>13</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.57</v>
-      </c>
       <c r="V33" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="W33" t="n">
+        <v>11</v>
+      </c>
+      <c r="X33" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y33" t="n">
         <v>12</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>351</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>151</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AP33" t="n">
         <v>17</v>
       </c>
-      <c r="Y33" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB33" t="n">
+      <c r="AQ33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AR33" t="n">
         <v>29</v>
       </c>
-      <c r="AC33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE33" t="n">
+      <c r="AS33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU33" t="n">
         <v>12</v>
       </c>
-      <c r="AF33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL33" t="n">
+      <c r="AV33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX33" t="n">
         <v>17</v>
       </c>
-      <c r="AM33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR33" t="n">
+      <c r="AY33" t="n">
         <v>67</v>
       </c>
-      <c r="AS33" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>451</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>12</v>
-      </c>
       <c r="AZ33" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="BA33" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="BB33" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BC33" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BD33" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CfASztKj</t>
+          <t>xSK9dfN6</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,170 +6552,170 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Warta Poznan</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Chrobry Glogow</t>
+          <t>Cracovia</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I34" t="n">
         <v>2.15</v>
       </c>
-      <c r="H34" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J34" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O34" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V34" t="n">
         <v>2.25</v>
       </c>
-      <c r="R34" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W34" t="n">
+        <v>12</v>
+      </c>
+      <c r="X34" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD34" t="n">
         <v>7</v>
       </c>
-      <c r="X34" t="n">
+      <c r="AE34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH34" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE34" t="n">
+      <c r="AI34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO34" t="n">
         <v>17</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>12</v>
       </c>
       <c r="AP34" t="n">
         <v>23</v>
       </c>
       <c r="AQ34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR34" t="n">
         <v>67</v>
       </c>
       <c r="AS34" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU34" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW34" t="n">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="AX34" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY34" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AZ34" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="BA34" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB34" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC34" t="n">
         <v>101</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>251</v>
       </c>
       <c r="BD34" t="n">
         <v>81</v>
@@ -6724,7 +6724,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>f5nCrd0t</t>
+          <t>CfASztKj</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6734,179 +6734,179 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Warta Poznan</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>2.35</v>
+        <v>3.3</v>
       </c>
       <c r="J35" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L35" t="n">
         <v>4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U35" t="n">
         <v>1.91</v>
       </c>
-      <c r="L35" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N35" t="n">
+      <c r="V35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W35" t="n">
         <v>7</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W35" t="n">
-        <v>7.5</v>
-      </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AA35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB35" t="n">
         <v>34</v>
       </c>
-      <c r="AB35" t="n">
-        <v>41</v>
-      </c>
       <c r="AC35" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AD35" t="n">
         <v>6</v>
       </c>
       <c r="AE35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR35" t="n">
         <v>67</v>
       </c>
-      <c r="AG35" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK35" t="n">
+      <c r="AS35" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY35" t="n">
         <v>21</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>15</v>
       </c>
       <c r="AZ35" t="n">
         <v>29</v>
       </c>
       <c r="BA35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB35" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC35" t="n">
         <v>251</v>
       </c>
       <c r="BD35" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6BUGqjYQ</t>
+          <t>f5nCrd0t</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6921,174 +6921,174 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" t="n">
         <v>2.35</v>
       </c>
-      <c r="H36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.9</v>
-      </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="L36" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N36" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O36" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="P36" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.93</v>
+        <v>2.6</v>
       </c>
       <c r="R36" t="n">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="S36" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="T36" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U36" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W36" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X36" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Z36" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AA36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE36" t="n">
         <v>19</v>
       </c>
-      <c r="AB36" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>13</v>
-      </c>
       <c r="AF36" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG36" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AH36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI36" t="n">
         <v>10</v>
       </c>
-      <c r="AI36" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK36" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL36" t="n">
         <v>23</v>
       </c>
       <c r="AM36" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO36" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AP36" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ36" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR36" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS36" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="AU36" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW36" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AX36" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AY36" t="n">
         <v>15</v>
       </c>
       <c r="AZ36" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA36" t="n">
         <v>51</v>
       </c>
       <c r="BB36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC36" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD36" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>APpEPUte</t>
+          <t>6BUGqjYQ</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7108,67 +7108,67 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Leixoes</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="H37" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N37" t="n">
+        <v>10</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V37" t="n">
         <v>2</v>
       </c>
-      <c r="L37" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N37" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W37" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X37" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y37" t="n">
         <v>10</v>
@@ -7180,88 +7180,88 @@
         <v>21</v>
       </c>
       <c r="AB37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH37" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ37" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK37" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM37" t="n">
         <v>29</v>
       </c>
-      <c r="AM37" t="n">
-        <v>41</v>
-      </c>
       <c r="AN37" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO37" t="n">
         <v>13</v>
       </c>
       <c r="AP37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR37" t="n">
         <v>67</v>
       </c>
       <c r="AS37" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU37" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV37" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW37" t="n">
         <v>81</v>
       </c>
       <c r="AX37" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY37" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ37" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BA37" t="n">
         <v>51</v>
       </c>
       <c r="BB37" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC37" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BD37" t="n">
         <v>81</v>
@@ -7270,7 +7270,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>j7bYw2b4</t>
+          <t>APpEPUte</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7280,95 +7280,95 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Dundee FC</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N38" t="n">
+        <v>8</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T38" t="n">
         <v>2.5</v>
       </c>
-      <c r="J38" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N38" t="n">
+      <c r="U38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W38" t="n">
+        <v>7</v>
+      </c>
+      <c r="X38" t="n">
         <v>10</v>
       </c>
-      <c r="O38" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2</v>
-      </c>
-      <c r="W38" t="n">
-        <v>9</v>
-      </c>
-      <c r="X38" t="n">
-        <v>13</v>
-      </c>
       <c r="Y38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA38" t="n">
         <v>21</v>
       </c>
       <c r="AB38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC38" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE38" t="n">
         <v>15</v>
@@ -7377,82 +7377,82 @@
         <v>51</v>
       </c>
       <c r="AG38" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>12</v>
       </c>
-      <c r="AJ38" t="n">
-        <v>10</v>
-      </c>
       <c r="AK38" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AL38" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AM38" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN38" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR38" t="n">
         <v>67</v>
       </c>
       <c r="AS38" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV38" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW38" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX38" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AY38" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ38" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA38" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB38" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC38" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD38" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06gfF33D</t>
+          <t>j7bYw2b4</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7472,31 +7472,31 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Dundee FC</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="H39" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="J39" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="K39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L39" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
@@ -7511,10 +7511,10 @@
         <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>
@@ -7523,34 +7523,34 @@
         <v>2.75</v>
       </c>
       <c r="U39" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V39" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X39" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z39" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AA39" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE39" t="n">
         <v>15</v>
@@ -7559,40 +7559,40 @@
         <v>51</v>
       </c>
       <c r="AG39" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI39" t="n">
         <v>12</v>
       </c>
-      <c r="AI39" t="n">
+      <c r="AJ39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK39" t="n">
         <v>23</v>
       </c>
-      <c r="AJ39" t="n">
+      <c r="AL39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO39" t="n">
         <v>15</v>
       </c>
-      <c r="AK39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AP39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ39" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS39" t="n">
         <v>151</v>
@@ -7601,31 +7601,31 @@
         <v>2.75</v>
       </c>
       <c r="AU39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV39" t="n">
         <v>51</v>
       </c>
       <c r="AW39" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="AX39" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AY39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ39" t="n">
         <v>23</v>
       </c>
-      <c r="AZ39" t="n">
-        <v>29</v>
-      </c>
       <c r="BA39" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB39" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BC39" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD39" t="n">
         <v>126</v>
@@ -7634,7 +7634,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>jZrsnxAN</t>
+          <t>06gfF33D</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7644,179 +7644,179 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.24</v>
+        <v>1.8</v>
       </c>
       <c r="H40" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N40" t="n">
+        <v>10</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W40" t="n">
+        <v>7</v>
+      </c>
+      <c r="X40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO40" t="n">
         <v>9.5</v>
       </c>
-      <c r="J40" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="L40" t="n">
+      <c r="AP40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU40" t="n">
         <v>8</v>
       </c>
-      <c r="M40" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N40" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T40" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W40" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X40" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE40" t="n">
+      <c r="AV40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY40" t="n">
         <v>23</v>
       </c>
-      <c r="AF40" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH40" t="n">
+      <c r="AZ40" t="n">
         <v>29</v>
       </c>
-      <c r="AI40" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>55</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>45</v>
-      </c>
       <c r="BA40" t="n">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="BB40" t="n">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="BC40" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="BD40" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>KAAmggHj</t>
+          <t>jZrsnxAN</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7836,145 +7836,145 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Crvena zvezda</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="H41" t="n">
-        <v>3.85</v>
+        <v>5.3</v>
       </c>
       <c r="I41" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="J41" t="n">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
       <c r="K41" t="n">
-        <v>2.25</v>
+        <v>2.67</v>
       </c>
       <c r="L41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M41" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="P41" t="n">
-        <v>3.9</v>
+        <v>4.65</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="R41" t="n">
-        <v>2.15</v>
+        <v>2.42</v>
       </c>
       <c r="S41" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="T41" t="n">
-        <v>2.92</v>
+        <v>3.45</v>
       </c>
       <c r="U41" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V41" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W41" t="n">
-        <v>7.1</v>
+        <v>8.25</v>
       </c>
       <c r="X41" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="Z41" t="n">
-        <v>9.75</v>
+        <v>7.6</v>
       </c>
       <c r="AA41" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB41" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE41" t="n">
         <v>23</v>
       </c>
-      <c r="AC41" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AF41" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AG41" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AH41" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI41" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AK41" t="n">
         <v>300</v>
       </c>
       <c r="AL41" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM41" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AN41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO41" t="n">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="AP41" t="n">
         <v>15</v>
       </c>
       <c r="AQ41" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="AR41" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AS41" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.92</v>
+        <v>3.45</v>
       </c>
       <c r="AU41" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV41" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AW41" t="n">
         <v>51</v>
       </c>
       <c r="AX41" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AY41" t="n">
         <v>55</v>
@@ -7983,10 +7983,10 @@
         <v>45</v>
       </c>
       <c r="BA41" t="n">
+        <v>450</v>
+      </c>
+      <c r="BB41" t="n">
         <v>400</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>350</v>
       </c>
       <c r="BC41" t="n">
         <v>500</v>
@@ -7998,7 +7998,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>lY2mb4Ls</t>
+          <t>KAAmggHj</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8008,170 +8008,170 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ruzomberok</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Zilina</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.65</v>
+        <v>1.38</v>
       </c>
       <c r="H42" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W42" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="X42" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN42" t="n">
         <v>3.25</v>
       </c>
-      <c r="I42" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N42" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="W42" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="X42" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>35</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AO42" t="n">
-        <v>20</v>
+        <v>6.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AQ42" t="n">
-        <v>110</v>
+        <v>18.5</v>
       </c>
       <c r="AR42" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AS42" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="AU42" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AV42" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AY42" t="n">
         <v>55</v>
       </c>
-      <c r="AW42" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AZ42" t="n">
-        <v>17.5</v>
+        <v>45</v>
       </c>
       <c r="BA42" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="BB42" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="BC42" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="BD42" t="n">
         <v>51</v>
@@ -8180,7 +8180,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>p0dddrjf</t>
+          <t>SbvpwutA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8190,167 +8190,167 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Skalica</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Banska Bystrica</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.18</v>
+        <v>3.9</v>
       </c>
       <c r="H43" t="n">
         <v>3.35</v>
       </c>
       <c r="I43" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="J43" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="K43" t="n">
         <v>2.1</v>
       </c>
       <c r="L43" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="P43" t="n">
-        <v>3.6</v>
+        <v>2.95</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="R43" t="n">
-        <v>1.98</v>
+        <v>1.72</v>
       </c>
       <c r="S43" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T43" t="n">
-        <v>2.87</v>
+        <v>2.65</v>
       </c>
       <c r="U43" t="n">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="V43" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="W43" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="X43" t="n">
-        <v>11.75</v>
+        <v>21</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="Z43" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AA43" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="AB43" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="AC43" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AD43" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AG43" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS43" t="n">
         <v>400</v>
       </c>
-      <c r="AH43" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>250</v>
-      </c>
       <c r="AT43" t="n">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="AU43" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="AV43" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AW43" t="n">
         <v>51</v>
       </c>
       <c r="AX43" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="AY43" t="n">
-        <v>17</v>
+        <v>9.75</v>
       </c>
       <c r="AZ43" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="BA43" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="BB43" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="BC43" t="n">
         <v>250</v>
@@ -8362,7 +8362,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SbvpwutA</t>
+          <t>MyS7z3gR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8372,179 +8372,179 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.85</v>
+        <v>1.73</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I44" t="n">
-        <v>1.91</v>
+        <v>4.5</v>
       </c>
       <c r="J44" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="K44" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="L44" t="n">
-        <v>2.42</v>
+        <v>4.75</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>6.8</v>
+        <v>15</v>
       </c>
       <c r="O44" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="P44" t="n">
-        <v>2.95</v>
+        <v>4.33</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="R44" t="n">
-        <v>1.72</v>
+        <v>2.15</v>
       </c>
       <c r="S44" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="T44" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="U44" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="V44" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="W44" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="X44" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Y44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z44" t="n">
         <v>13</v>
       </c>
-      <c r="Z44" t="n">
-        <v>55</v>
-      </c>
       <c r="AA44" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="AB44" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AC44" t="n">
-        <v>6.8</v>
+        <v>13</v>
       </c>
       <c r="AD44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX44" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE44" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>110</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>3.75</v>
-      </c>
       <c r="AY44" t="n">
-        <v>9.25</v>
+        <v>23</v>
       </c>
       <c r="AZ44" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="BA44" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="BB44" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="BC44" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BD44" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MyS7z3gR</t>
+          <t>ILI19Hsc</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8554,179 +8554,179 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.73</v>
+        <v>4.1</v>
       </c>
       <c r="H45" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I45" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J45" t="n">
         <v>4.5</v>
       </c>
-      <c r="J45" t="n">
-        <v>2.3</v>
-      </c>
       <c r="K45" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L45" t="n">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="M45" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
+        <v>10</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W45" t="n">
+        <v>11</v>
+      </c>
+      <c r="X45" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y45" t="n">
         <v>15</v>
       </c>
-      <c r="O45" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T45" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V45" t="n">
-        <v>2</v>
-      </c>
-      <c r="W45" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X45" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z45" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AA45" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AB45" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC45" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE45" t="n">
         <v>15</v>
       </c>
       <c r="AF45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG45" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS45" t="n">
         <v>201</v>
       </c>
-      <c r="AH45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL45" t="n">
+      <c r="AT45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA45" t="n">
         <v>34</v>
       </c>
-      <c r="AM45" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>67</v>
-      </c>
       <c r="BB45" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC45" t="n">
         <v>151</v>
       </c>
       <c r="BD45" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ILI19Hsc</t>
+          <t>dCH58yc3</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8746,160 +8746,160 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="H46" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N46" t="n">
+        <v>15</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T46" t="n">
         <v>3.4</v>
       </c>
-      <c r="I46" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J46" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N46" t="n">
-        <v>10</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P46" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T46" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U46" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="V46" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="W46" t="n">
         <v>12</v>
       </c>
       <c r="X46" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA46" t="n">
         <v>21</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="AB46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC46" t="n">
         <v>15</v>
       </c>
-      <c r="Z46" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC46" t="n">
+      <c r="AD46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD46" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE46" t="n">
+      <c r="AK46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO46" t="n">
         <v>15</v>
       </c>
-      <c r="AF46" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH46" t="n">
+      <c r="AP46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU46" t="n">
         <v>7</v>
       </c>
-      <c r="AI46" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR46" t="n">
+      <c r="AV46" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC46" t="n">
         <v>101</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>151</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>151</v>
       </c>
       <c r="BD46" t="n">
         <v>151</v>
@@ -8908,7 +8908,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>dCH58yc3</t>
+          <t>86HioBjt</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -8923,174 +8923,174 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.75</v>
+        <v>1.36</v>
       </c>
       <c r="H47" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>2.35</v>
+        <v>7</v>
       </c>
       <c r="J47" t="n">
-        <v>3.25</v>
+        <v>1.83</v>
       </c>
       <c r="K47" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L47" t="n">
-        <v>2.88</v>
+        <v>6.5</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O47" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P47" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="R47" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="S47" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="T47" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="U47" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="V47" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="W47" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="X47" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>29</v>
+        <v>9.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AB47" t="n">
         <v>23</v>
       </c>
       <c r="AC47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP47" t="n">
         <v>15</v>
       </c>
-      <c r="AD47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL47" t="n">
+      <c r="AQ47" t="n">
         <v>17</v>
       </c>
-      <c r="AM47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>41</v>
-      </c>
       <c r="AR47" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS47" t="n">
         <v>101</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AU47" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV47" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW47" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AX47" t="n">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="AY47" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AZ47" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="BA47" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BB47" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BC47" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BD47" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>86HioBjt</t>
+          <t>fNFaqkLh</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9110,160 +9110,160 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.36</v>
+        <v>1.9</v>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="I48" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="J48" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="K48" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L48" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="R48" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="S48" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="T48" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U48" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V48" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="W48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X48" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Y48" t="n">
         <v>8.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AA48" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC48" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO48" t="n">
         <v>10</v>
       </c>
-      <c r="AE48" t="n">
+      <c r="AP48" t="n">
         <v>19</v>
       </c>
-      <c r="AF48" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ48" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AR48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS48" t="n">
         <v>101</v>
       </c>
       <c r="AT48" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU48" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW48" t="n">
         <v>81</v>
       </c>
       <c r="AX48" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AY48" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AZ48" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BA48" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BB48" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BC48" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD48" t="n">
         <v>81</v>
@@ -9272,7 +9272,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>fNFaqkLh</t>
+          <t>UuCerP3d</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9282,41 +9282,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.73</v>
+        <v>4.2</v>
       </c>
       <c r="H49" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I49" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J49" t="n">
         <v>4.33</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2.3</v>
       </c>
       <c r="K49" t="n">
         <v>2.3</v>
       </c>
       <c r="L49" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M49" t="n">
         <v>1.04</v>
@@ -9325,16 +9325,16 @@
         <v>13</v>
       </c>
       <c r="O49" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P49" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R49" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S49" t="n">
         <v>1.33</v>
@@ -9349,31 +9349,31 @@
         <v>2.1</v>
       </c>
       <c r="W49" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="X49" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="Y49" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Z49" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AA49" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE49" t="n">
         <v>13</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>15</v>
       </c>
       <c r="AF49" t="n">
         <v>41</v>
@@ -9382,40 +9382,40 @@
         <v>151</v>
       </c>
       <c r="AH49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK49" t="n">
         <v>15</v>
       </c>
-      <c r="AI49" t="n">
+      <c r="AL49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM49" t="n">
         <v>23</v>
       </c>
-      <c r="AJ49" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>34</v>
-      </c>
       <c r="AN49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO49" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AP49" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AQ49" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AR49" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS49" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT49" t="n">
         <v>3.25</v>
@@ -9427,34 +9427,34 @@
         <v>51</v>
       </c>
       <c r="AW49" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="AX49" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AY49" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AZ49" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="BA49" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="BB49" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC49" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD49" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>UuCerP3d</t>
+          <t>fNaPt5tf</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9469,349 +9469,167 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Igdir FK</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.2</v>
+        <v>2.88</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I50" t="n">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="J50" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="K50" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L50" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="M50" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="O50" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="R50" t="n">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="S50" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T50" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U50" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V50" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W50" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="X50" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Y50" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z50" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AA50" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB50" t="n">
         <v>34</v>
       </c>
       <c r="AC50" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG50" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AH50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ50" t="n">
         <v>9.5</v>
       </c>
-      <c r="AJ50" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK50" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AL50" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AM50" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO50" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP50" t="n">
         <v>26</v>
       </c>
       <c r="AQ50" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR50" t="n">
         <v>81</v>
       </c>
       <c r="AS50" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC50" t="n">
         <v>151</v>
       </c>
-      <c r="AT50" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>251</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB50" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC50" t="n">
-        <v>126</v>
-      </c>
       <c r="BD50" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>fNaPt5tf</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Igdir FK</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Ankaragucu</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>3</v>
-      </c>
-      <c r="H51" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N51" t="n">
-        <v>10</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P51" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T51" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W51" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X51" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA51" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB51" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC51" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD51" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD45"/>
+  <dimension ref="A1:BD39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -762,7 +762,7 @@
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -771,16 +771,16 @@
         <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -798,13 +798,13 @@
         <v>17</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -813,7 +813,7 @@
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
         <v>8</v>
@@ -834,7 +834,7 @@
         <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
@@ -843,7 +843,7 @@
         <v>19</v>
       </c>
       <c r="AM2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN2" t="n">
         <v>5</v>
@@ -870,7 +870,7 @@
         <v>6.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
         <v>251</v>
@@ -879,7 +879,7 @@
         <v>5</v>
       </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
         <v>17</v>
@@ -894,7 +894,7 @@
         <v>81</v>
       </c>
       <c r="BD2" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -953,16 +953,16 @@
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>1.33</v>
@@ -1129,22 +1129,22 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -1308,7 +1308,7 @@
         <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1395,7 +1395,7 @@
         <v>4.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J6" t="n">
         <v>4.75</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1505,10 +1505,10 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1535,7 +1535,7 @@
         <v>51</v>
       </c>
       <c r="AA6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
@@ -1553,13 +1553,13 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>8.5</v>
@@ -1580,7 +1580,7 @@
         <v>23</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
         <v>81</v>
@@ -1595,7 +1595,7 @@
         <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1607,7 +1607,7 @@
         <v>3.75</v>
       </c>
       <c r="AY6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AZ6" t="n">
         <v>21</v>
@@ -1663,7 +1663,7 @@
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="J7" t="n">
         <v>3.25</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UaS8aGMt</t>
+          <t>rsizUY9b</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,157 +1830,157 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.14</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
         <v>8</v>
       </c>
-      <c r="I8" t="n">
+      <c r="O8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
         <v>17</v>
       </c>
-      <c r="J8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI8" t="n">
         <v>10</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="AJ8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>26</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W8" t="n">
-        <v>15</v>
-      </c>
-      <c r="X8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM8" t="n">
+      <c r="BA8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB8" t="n">
         <v>67</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>401</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>151</v>
       </c>
       <c r="BC8" t="n">
         <v>201</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rsizUY9b</t>
+          <t>UHapxnhA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>AUSTRIA - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K9" t="n">
         <v>2.3</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P9" t="n">
         <v>4</v>
       </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W9" t="n">
         <v>8.5</v>
       </c>
       <c r="X9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
         <v>15</v>
       </c>
-      <c r="Y9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>34</v>
-      </c>
       <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
         <v>29</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>21</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP9" t="n">
         <v>19</v>
       </c>
-      <c r="AP9" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AR9" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
         <v>26</v>
       </c>
       <c r="BA9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UHapxnhA</t>
+          <t>zwocPYEF</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,146 +2184,146 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AUSTRIA - BUNDESLIGA</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
         <v>2.5</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.75</v>
       </c>
-      <c r="R10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.7</v>
-      </c>
       <c r="V10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP10" t="n">
         <v>15</v>
       </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI10" t="n">
+      <c r="AQ10" t="n">
         <v>21</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
@@ -2332,31 +2332,31 @@
         <v>501</v>
       </c>
       <c r="AX10" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD10" t="n">
         <v>151</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>zwocPYEF</t>
+          <t>KrrqGUy2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,55 +2376,55 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Beerschot VA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.48</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>5.25</v>
+        <v>1.73</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>2.35</v>
+        <v>2.08</v>
       </c>
       <c r="S11" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U11" t="n">
         <v>1.75</v>
@@ -2433,79 +2433,79 @@
         <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AI11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP11" t="n">
         <v>29</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AR11" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
@@ -2514,22 +2514,22 @@
         <v>501</v>
       </c>
       <c r="AX11" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="AY11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA11" t="n">
         <v>29</v>
       </c>
-      <c r="AZ11" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>101</v>
-      </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BC11" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t2UzTrDT</t>
+          <t>rLBAQt65</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,173 +2548,173 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cherno More</t>
+          <t>Patro Eisden</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Levski Sofia</t>
+          <t>K. Lierse S.K.</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="J12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P12" t="n">
         <v>4</v>
       </c>
-      <c r="K12" t="n">
+      <c r="Q12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.91</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.67</v>
       </c>
       <c r="W12" t="n">
         <v>7.5</v>
       </c>
       <c r="X12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA12" t="n">
         <v>13</v>
       </c>
-      <c r="Y12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>29</v>
-      </c>
       <c r="AB12" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP12" t="n">
         <v>19</v>
       </c>
-      <c r="AF12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="AR12" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AS12" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD12" t="n">
         <v>81</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -2749,19 +2749,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J13" t="n">
         <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
         <v>2.5</v>
@@ -2773,34 +2773,34 @@
         <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
         <v>15</v>
@@ -2833,13 +2833,13 @@
         <v>6</v>
       </c>
       <c r="AI13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
         <v>17</v>
@@ -2848,7 +2848,7 @@
         <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO13" t="n">
         <v>26</v>
@@ -2866,7 +2866,7 @@
         <v>301</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU13" t="n">
         <v>9</v>
@@ -2878,10 +2878,10 @@
         <v>81</v>
       </c>
       <c r="AX13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AY13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AZ13" t="n">
         <v>23</v>
@@ -2890,7 +2890,7 @@
         <v>34</v>
       </c>
       <c r="BB13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC13" t="n">
         <v>201</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K15" t="n">
         <v>2.38</v>
       </c>
       <c r="L15" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -3164,13 +3164,13 @@
         <v>10</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
         <v>15</v>
@@ -3197,25 +3197,25 @@
         <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN15" t="n">
         <v>4.33</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
@@ -3224,7 +3224,7 @@
         <v>34</v>
       </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS15" t="n">
         <v>101</v>
@@ -3245,10 +3245,10 @@
         <v>5.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
         <v>51</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8hA0ZYe1</t>
+          <t>EVAdzFte</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3286,160 +3286,160 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Mushuc Runa</t>
+          <t>Ind. del Valle</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Macara</t>
+          <t>EL Nacional</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.05</v>
+        <v>1.22</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K16" t="n">
         <v>2.63</v>
       </c>
-      <c r="K16" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L16" t="n">
+        <v>11</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P16" t="n">
         <v>4.33</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.3</v>
       </c>
-      <c r="P16" t="n">
+      <c r="T16" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE16" t="n">
         <v>29</v>
       </c>
-      <c r="AC16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AF16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>13</v>
       </c>
-      <c r="AF16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS16" t="n">
         <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW16" t="n">
         <v>51</v>
       </c>
       <c r="AX16" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AZ16" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="BB16" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BC16" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BD16" t="n">
         <v>51</v>
@@ -3477,16 +3477,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
         <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="K17" t="n">
         <v>2.07</v>
@@ -3498,7 +3498,7 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.19</v>
@@ -3507,10 +3507,10 @@
         <v>3.58</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S17" t="n">
         <v>1.34</v>
@@ -3525,7 +3525,7 @@
         <v>2.25</v>
       </c>
       <c r="W17" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X17" t="n">
         <v>9.5</v>
@@ -3534,31 +3534,31 @@
         <v>7.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB17" t="n">
         <v>18.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AD17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG17" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH17" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
         <v>15.5</v>
@@ -3567,7 +3567,7 @@
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL17" t="n">
         <v>19.5</v>
@@ -3576,10 +3576,10 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AO17" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AP17" t="n">
         <v>18</v>
@@ -3588,16 +3588,16 @@
         <v>45</v>
       </c>
       <c r="AR17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS17" t="n">
         <v>200</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV17" t="n">
         <v>50</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>tIf3AJr2</t>
+          <t>69s7DgBC</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,41 +3640,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Fehervar FC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Kecskemeti TE</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3689,49 +3689,49 @@
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S18" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC18" t="n">
         <v>10</v>
-      </c>
-      <c r="X18" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>41</v>
@@ -3740,79 +3740,79 @@
         <v>201</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
       </c>
       <c r="AW18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB18" t="n">
         <v>81</v>
       </c>
-      <c r="AX18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>51</v>
-      </c>
       <c r="BC18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>69s7DgBC</t>
+          <t>Wvc6BNEM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,41 +3822,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Fehervar FC</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kecskemeti TE</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>6.25</v>
       </c>
       <c r="J19" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -3871,97 +3871,97 @@
         <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R19" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AA19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB19" t="n">
         <v>26</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH19" t="n">
         <v>15</v>
       </c>
-      <c r="AF19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>12</v>
-      </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN19" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS19" t="n">
         <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
@@ -3970,22 +3970,22 @@
         <v>51</v>
       </c>
       <c r="AX19" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AY19" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA19" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB19" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BC19" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD19" t="n">
         <v>51</v>
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
         <v>2.5</v>
@@ -4047,16 +4047,16 @@
         <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S20" t="n">
         <v>1.4</v>
@@ -4235,10 +4235,10 @@
         <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R21" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S21" t="n">
         <v>1.29</v>
@@ -4253,10 +4253,10 @@
         <v>2.05</v>
       </c>
       <c r="W21" t="n">
+        <v>9</v>
+      </c>
+      <c r="X21" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X21" t="n">
-        <v>8</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
@@ -4304,13 +4304,13 @@
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO21" t="n">
         <v>7.5</v>
       </c>
       <c r="AP21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ21" t="n">
         <v>21</v>
@@ -4331,7 +4331,7 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX21" t="n">
         <v>7.5</v>
@@ -4387,22 +4387,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
         <v>2.8</v>
       </c>
       <c r="I22" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
         <v>1.83</v>
       </c>
       <c r="L22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M22" t="n">
         <v>1.13</v>
@@ -4423,7 +4423,7 @@
         <v>1.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T22" t="n">
         <v>2.2</v>
@@ -4438,13 +4438,13 @@
         <v>6.5</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
         <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA22" t="n">
         <v>29</v>
@@ -4477,7 +4477,7 @@
         <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL22" t="n">
         <v>29</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23J7iYMr</t>
+          <t>KlH3dEZh</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,170 +4550,170 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Helmond</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.25</v>
+        <v>1.67</v>
       </c>
       <c r="H23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P23" t="n">
         <v>3.5</v>
       </c>
-      <c r="I23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA23" t="n">
         <v>15</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W23" t="n">
-        <v>15</v>
-      </c>
-      <c r="X23" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>23</v>
-      </c>
       <c r="AB23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
         <v>7</v>
       </c>
       <c r="AE23" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AJ23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO23" t="n">
         <v>9</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>17</v>
       </c>
       <c r="AP23" t="n">
         <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AR23" t="n">
         <v>51</v>
       </c>
       <c r="AS23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA23" t="n">
         <v>101</v>
       </c>
-      <c r="AT23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>34</v>
-      </c>
       <c r="BB23" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BC23" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BD23" t="n">
         <v>151</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>KlH3dEZh</t>
+          <t>xQB8eYla</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4742,160 +4742,160 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>KFUM Oslo</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="J24" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R24" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.95</v>
       </c>
-      <c r="V24" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W24" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X24" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AA24" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB24" t="n">
         <v>29</v>
       </c>
       <c r="AC24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF24" t="n">
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO24" t="n">
         <v>13</v>
       </c>
-      <c r="AI24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>9</v>
-      </c>
       <c r="AP24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS24" t="n">
         <v>151</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
       </c>
       <c r="AW24" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="AX24" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>26</v>
       </c>
-      <c r="AZ24" t="n">
-        <v>34</v>
-      </c>
       <c r="BA24" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB24" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BC24" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD24" t="n">
         <v>151</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>xQB8eYla</t>
+          <t>GGACfh45</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4924,55 +4924,55 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>KFUM Oslo</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.45</v>
+        <v>1.73</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I25" t="n">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L25" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R25" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T25" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U25" t="n">
         <v>1.75</v>
@@ -4981,76 +4981,76 @@
         <v>2</v>
       </c>
       <c r="W25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC25" t="n">
         <v>12</v>
       </c>
-      <c r="Y25" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z25" t="n">
+      <c r="AD25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI25" t="n">
         <v>23</v>
       </c>
-      <c r="AA25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB25" t="n">
+      <c r="AJ25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>29</v>
       </c>
-      <c r="AC25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>41</v>
-      </c>
       <c r="AR25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU25" t="n">
         <v>8</v>
@@ -5062,19 +5062,19 @@
         <v>501</v>
       </c>
       <c r="AX25" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AY25" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC25" t="n">
         <v>201</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GGACfh45</t>
+          <t>AwAGgCJB</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5106,160 +5106,160 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.73</v>
+        <v>2.55</v>
       </c>
       <c r="H26" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N26" t="n">
+        <v>17</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>12</v>
+      </c>
+      <c r="X26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN26" t="n">
         <v>4.75</v>
       </c>
-      <c r="J26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="AO26" t="n">
         <v>13</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2</v>
-      </c>
-      <c r="W26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>9</v>
       </c>
       <c r="AP26" t="n">
         <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR26" t="n">
         <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW26" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AX26" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AY26" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AZ26" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="BA26" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC26" t="n">
         <v>101</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>201</v>
       </c>
       <c r="BD26" t="n">
         <v>151</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AwAGgCJB</t>
+          <t>OtEKhWYH</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5288,31 +5288,31 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" t="n">
         <v>2.5</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L27" t="n">
-        <v>3.1</v>
+        <v>1.91</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
@@ -5327,10 +5327,10 @@
         <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R27" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S27" t="n">
         <v>1.29</v>
@@ -5339,106 +5339,106 @@
         <v>3.5</v>
       </c>
       <c r="U27" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="V27" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="Y27" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AA27" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AB27" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC27" t="n">
         <v>17</v>
       </c>
       <c r="AD27" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF27" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AJ27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK27" t="n">
         <v>10</v>
       </c>
-      <c r="AK27" t="n">
-        <v>26</v>
-      </c>
       <c r="AL27" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AM27" t="n">
         <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AP27" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AQ27" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AR27" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS27" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT27" t="n">
         <v>3.5</v>
       </c>
       <c r="AU27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>451</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY27" t="n">
         <v>7</v>
       </c>
-      <c r="AV27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>13</v>
-      </c>
       <c r="AZ27" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA27" t="n">
         <v>19</v>
       </c>
-      <c r="BA27" t="n">
-        <v>41</v>
-      </c>
       <c r="BB27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC27" t="n">
         <v>101</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OtEKhWYH</t>
+          <t>pd2TjA3U</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5470,85 +5470,85 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="H28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L28" t="n">
         <v>5</v>
       </c>
-      <c r="I28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="J28" t="n">
-        <v>6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>11</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U28" t="n">
         <v>1.91</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N28" t="n">
-        <v>19</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W28" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="X28" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="Y28" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="AA28" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AB28" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC28" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AD28" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>17</v>
@@ -5557,46 +5557,46 @@
         <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI28" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AM28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP28" t="n">
         <v>21</v>
       </c>
-      <c r="AN28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO28" t="n">
+      <c r="AQ28" t="n">
         <v>29</v>
       </c>
-      <c r="AP28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>101</v>
-      </c>
       <c r="AR28" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS28" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU28" t="n">
         <v>8</v>
@@ -5605,25 +5605,25 @@
         <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="AX28" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="AY28" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AZ28" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="BA28" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="BB28" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BC28" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BD28" t="n">
         <v>151</v>
@@ -5632,7 +5632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>pd2TjA3U</t>
+          <t>653PijlO</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,7 +5642,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5652,106 +5652,106 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.75</v>
+        <v>1.36</v>
       </c>
       <c r="H29" t="n">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="K29" t="n">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
+        <v>23</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W29" t="n">
+        <v>12</v>
+      </c>
+      <c r="X29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z29" t="n">
         <v>11</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W29" t="n">
-        <v>7</v>
-      </c>
-      <c r="X29" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>13</v>
-      </c>
       <c r="AA29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE29" t="n">
         <v>15</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AF29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH29" t="n">
         <v>26</v>
       </c>
-      <c r="AC29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>12</v>
-      </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="n">
         <v>41</v>
@@ -5763,52 +5763,52 @@
         <v>3.75</v>
       </c>
       <c r="AO29" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AQ29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR29" t="n">
         <v>29</v>
       </c>
-      <c r="AR29" t="n">
-        <v>51</v>
-      </c>
       <c r="AS29" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
       </c>
       <c r="AV29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW29" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC29" t="n">
         <v>126</v>
       </c>
-      <c r="AX29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>251</v>
-      </c>
       <c r="BD29" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30">
@@ -5969,7 +5969,7 @@
         <v>67</v>
       </c>
       <c r="AW30" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX30" t="n">
         <v>19</v>
@@ -6025,22 +6025,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J31" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K31" t="n">
         <v>2.3</v>
       </c>
       <c r="L31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M31" t="n">
         <v>1.04</v>
@@ -6049,16 +6049,16 @@
         <v>13</v>
       </c>
       <c r="O31" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P31" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R31" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S31" t="n">
         <v>1.33</v>
@@ -6067,16 +6067,16 @@
         <v>3.25</v>
       </c>
       <c r="U31" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="n">
         <v>12</v>
@@ -6109,19 +6109,19 @@
         <v>9.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ31" t="n">
         <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
       </c>
       <c r="AM31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN31" t="n">
         <v>5.5</v>
@@ -6163,13 +6163,13 @@
         <v>19</v>
       </c>
       <c r="BA31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB31" t="n">
         <v>51</v>
       </c>
       <c r="BC31" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD31" t="n">
         <v>81</v>
@@ -6231,16 +6231,16 @@
         <v>9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P32" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R32" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S32" t="n">
         <v>1.44</v>
@@ -6360,7 +6360,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>f5nCrd0t</t>
+          <t>vgC2OhFO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6370,7 +6370,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6380,67 +6380,67 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="H33" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>13</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T33" t="n">
         <v>3</v>
       </c>
-      <c r="I33" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J33" t="n">
-        <v>4</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>7</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U33" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="V33" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="W33" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="X33" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y33" t="n">
         <v>13</v>
@@ -6449,91 +6449,91 @@
         <v>41</v>
       </c>
       <c r="AA33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB33" t="n">
         <v>34</v>
       </c>
-      <c r="AB33" t="n">
-        <v>41</v>
-      </c>
       <c r="AC33" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AD33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN33" t="n">
         <v>6</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>5</v>
       </c>
       <c r="AO33" t="n">
         <v>21</v>
       </c>
       <c r="AP33" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ33" t="n">
         <v>67</v>
       </c>
       <c r="AR33" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS33" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AU33" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV33" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW33" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC33" t="n">
         <v>126</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>251</v>
       </c>
       <c r="BD33" t="n">
         <v>126</v>
@@ -6542,7 +6542,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6BUGqjYQ</t>
+          <t>rRIgQEpC</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,179 +6552,179 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="K34" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L34" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="P34" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="S34" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="T34" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U34" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="W34" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X34" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z34" t="n">
         <v>13</v>
       </c>
-      <c r="Y34" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>23</v>
-      </c>
       <c r="AA34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB34" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC34" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AD34" t="n">
         <v>6.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AF34" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG34" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AH34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI34" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AJ34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO34" t="n">
         <v>10</v>
       </c>
-      <c r="AK34" t="n">
+      <c r="AP34" t="n">
         <v>26</v>
       </c>
-      <c r="AL34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR34" t="n">
         <v>67</v>
       </c>
       <c r="AS34" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB34" t="n">
         <v>151</v>
       </c>
-      <c r="AT34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>67</v>
-      </c>
       <c r="BC34" t="n">
-        <v>151</v>
+        <v>451</v>
       </c>
       <c r="BD34" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>APpEPUte</t>
+          <t>xj7ObFgT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6734,179 +6734,179 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Leixoes</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.25</v>
+        <v>2.57</v>
       </c>
       <c r="H35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J35" t="n">
         <v>3.1</v>
       </c>
-      <c r="I35" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3</v>
-      </c>
       <c r="K35" t="n">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>2.95</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="R35" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="S35" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T35" t="n">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="U35" t="n">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
       <c r="V35" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="W35" t="n">
-        <v>7</v>
+        <v>10.75</v>
       </c>
       <c r="X35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z35" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AA35" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AC35" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD35" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="AE35" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF35" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AG35" t="n">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="AH35" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AI35" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ35" t="n">
-        <v>12</v>
+        <v>9.25</v>
       </c>
       <c r="AK35" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AL35" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AM35" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN35" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO35" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AQ35" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AR35" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AS35" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="AU35" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AV35" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AW35" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX35" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="AY35" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AZ35" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="BA35" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="BB35" t="n">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="BC35" t="n">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="BD35" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>jZrsnxAN</t>
+          <t>SbvpwutA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,170 +6916,170 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.24</v>
+        <v>3.9</v>
       </c>
       <c r="H36" t="n">
-        <v>5.4</v>
+        <v>3.35</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>1.9</v>
       </c>
       <c r="J36" t="n">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="K36" t="n">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="L36" t="n">
-        <v>7.7</v>
+        <v>2.45</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
+        <v>7</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W36" t="n">
+        <v>11</v>
+      </c>
+      <c r="X36" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AY36" t="n">
         <v>9.5</v>
       </c>
-      <c r="O36" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X36" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AR36" t="n">
+      <c r="AZ36" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA36" t="n">
         <v>35</v>
       </c>
-      <c r="AS36" t="n">
+      <c r="BB36" t="n">
+        <v>65</v>
+      </c>
+      <c r="BC36" t="n">
         <v>200</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>400</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>500</v>
       </c>
       <c r="BD36" t="n">
         <v>51</v>
@@ -7088,7 +7088,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>KAAmggHj</t>
+          <t>C66nTKo1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7098,179 +7098,179 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="H37" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>7.8</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="K37" t="n">
         <v>2.25</v>
       </c>
       <c r="L37" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P37" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="R37" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="S37" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T37" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V37" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W37" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="X37" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA37" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="AB37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC37" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF37" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AG37" t="n">
-        <v>500</v>
+        <v>301</v>
       </c>
       <c r="AH37" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AI37" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="AJ37" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AK37" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="AL37" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AM37" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AN37" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AO37" t="n">
-        <v>6.6</v>
+        <v>8.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ37" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AR37" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AS37" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV37" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX37" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY37" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AZ37" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="BA37" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="BB37" t="n">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="BC37" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="BD37" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SbvpwutA</t>
+          <t>rRUgTu3b</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7280,179 +7280,179 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.9</v>
+        <v>2.25</v>
       </c>
       <c r="H38" t="n">
-        <v>3.35</v>
+        <v>2.75</v>
       </c>
       <c r="I38" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="K38" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="L38" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="N38" t="n">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.35</v>
+        <v>1.83</v>
       </c>
       <c r="P38" t="n">
-        <v>2.95</v>
+        <v>1.83</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>1.72</v>
+        <v>1.25</v>
       </c>
       <c r="S38" t="n">
-        <v>1.42</v>
+        <v>1.85</v>
       </c>
       <c r="T38" t="n">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="U38" t="n">
-        <v>1.87</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="W38" t="n">
-        <v>10.5</v>
+        <v>4.5</v>
       </c>
       <c r="X38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z38" t="n">
         <v>21</v>
       </c>
-      <c r="Y38" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>60</v>
-      </c>
       <c r="AA38" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AB38" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AC38" t="n">
-        <v>6.8</v>
+        <v>4.33</v>
       </c>
       <c r="AD38" t="n">
         <v>6.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AF38" t="n">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="AG38" t="n">
-        <v>700</v>
+        <v>201</v>
       </c>
       <c r="AH38" t="n">
         <v>6.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AJ38" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AK38" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="AL38" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="AM38" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="AN38" t="n">
-        <v>5.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO38" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AP38" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AQ38" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AR38" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="AS38" t="n">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.65</v>
+        <v>1.83</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="AV38" t="n">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="AW38" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX38" t="n">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="AY38" t="n">
-        <v>9.75</v>
+        <v>29</v>
       </c>
       <c r="AZ38" t="n">
-        <v>19.5</v>
+        <v>51</v>
       </c>
       <c r="BA38" t="n">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="BB38" t="n">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="BC38" t="n">
-        <v>250</v>
+        <v>501</v>
       </c>
       <c r="BD38" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C66nTKo1</t>
+          <t>Ew9nHn04</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7462,1264 +7462,172 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Indy Eleven</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.62</v>
+        <v>2.55</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="J39" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="K39" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L39" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>11</v>
+        <v>7.1</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="P39" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R39" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="S39" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="T39" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U39" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="V39" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="W39" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="X39" t="n">
-        <v>7.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AA39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE39" t="n">
         <v>13</v>
       </c>
-      <c r="AB39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>17</v>
-      </c>
       <c r="AF39" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AG39" t="n">
-        <v>301</v>
+        <v>450</v>
       </c>
       <c r="AH39" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI39" t="n">
         <v>13</v>
       </c>
-      <c r="AI39" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ39" t="n">
-        <v>17</v>
+        <v>9.75</v>
       </c>
       <c r="AK39" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AL39" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="AM39" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AN39" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="AO39" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ39" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AR39" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AS39" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="AT39" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU39" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV39" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AW39" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX39" t="n">
-        <v>7</v>
+        <v>4.55</v>
       </c>
       <c r="AY39" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AZ39" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="BA39" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="BB39" t="n">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="BC39" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BD39" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>rRUgTu3b</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Tenerife</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Mirandes</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N40" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U40" t="n">
-        <v>3</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W40" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X40" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>126</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>ILI19Hsc</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Halmstad</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Djurgarden</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J41" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N41" t="n">
-        <v>9</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W41" t="n">
-        <v>11</v>
-      </c>
-      <c r="X41" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>151</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>dCH58yc3</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Sirius</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Mjallby</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H42" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N42" t="n">
-        <v>15</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T42" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W42" t="n">
-        <v>12</v>
-      </c>
-      <c r="X42" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>UuCerP3d</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>TURKEY - SUPER LIG</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Trabzonspor</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Fenerbahce</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N43" t="n">
-        <v>13</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T43" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W43" t="n">
-        <v>13</v>
-      </c>
-      <c r="X43" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>251</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>fNaPt5tf</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Igdir FK</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Ankaragucu</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="H44" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N44" t="n">
-        <v>10</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W44" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X44" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Ew9nHn04</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Indy Eleven</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Rhode Island</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N45" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T45" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V45" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W45" t="n">
-        <v>9</v>
-      </c>
-      <c r="X45" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>90</v>
-      </c>
-      <c r="BC45" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD45" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WvkEqfS8</t>
+          <t>rsizUY9b</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,167 +728,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.75</v>
       </c>
-      <c r="J2" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W2" t="n">
+        <v>8</v>
+      </c>
+      <c r="X2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y2" t="n">
         <v>12</v>
       </c>
-      <c r="X2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>17</v>
-      </c>
       <c r="Z2" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="AH2" t="n">
         <v>6.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AM2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP2" t="n">
         <v>29</v>
       </c>
-      <c r="AN2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA2" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>rsizUY9b</t>
+          <t>zwocPYEF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -915,165 +915,165 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>2.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC3" t="n">
         <v>451</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>126</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>zwocPYEF</t>
+          <t>KrrqGUy2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,88 +1102,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Beerschot VA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J4" t="n">
         <v>5</v>
       </c>
-      <c r="I4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V4" t="n">
         <v>2</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.05</v>
-      </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="X4" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD4" t="n">
         <v>8</v>
       </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>10</v>
-      </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
@@ -1192,43 +1192,43 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP4" t="n">
         <v>29</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1237,25 +1237,25 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AZ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB4" t="n">
         <v>101</v>
       </c>
-      <c r="BA4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>151</v>
-      </c>
       <c r="BC4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KrrqGUy2</t>
+          <t>rLBAQt65</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1279,36 +1279,36 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Beerschot VA</t>
+          <t>Patro Eisden</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>K. Lierse S.K.</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H5" t="n">
         <v>4.33</v>
       </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
       <c r="I5" t="n">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1323,10 +1323,10 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1335,118 +1335,118 @@
         <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
         <v>23</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
       </c>
       <c r="AC5" t="n">
         <v>13</v>
       </c>
       <c r="AD5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO5" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>23</v>
-      </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
         <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>rLBAQt65</t>
+          <t>U1H7wAJq</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Patro Eisden</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>K. Lierse S.K.</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L6" t="n">
         <v>4</v>
       </c>
-      <c r="I6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH6" t="n">
         <v>7.5</v>
       </c>
-      <c r="X6" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>12</v>
       </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX6" t="n">
         <v>19</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>26</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
         <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>U1H7wAJq</t>
+          <t>MJWrQdLk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,65 +1638,65 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Hradec Kralove</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="H7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
         <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.25</v>
       </c>
       <c r="U7" t="n">
         <v>2.1</v>
@@ -1705,76 +1705,76 @@
         <v>1.67</v>
       </c>
       <c r="W7" t="n">
+        <v>13</v>
+      </c>
+      <c r="X7" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH7" t="n">
         <v>6.5</v>
       </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AI7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO7" t="n">
         <v>41</v>
       </c>
-      <c r="AC7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
+      <c r="AP7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS7" t="n">
         <v>351</v>
       </c>
-      <c r="AH7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>301</v>
-      </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
@@ -1783,34 +1783,34 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="AX7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY7" t="n">
         <v>19</v>
       </c>
-      <c r="AY7" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BB7" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MJWrQdLk</t>
+          <t>EVAdzFte</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hradec Kralove</t>
+          <t>Ind. del Valle</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>EL Nacional</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.5</v>
+        <v>1.14</v>
       </c>
       <c r="H8" t="n">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.45</v>
+        <v>17</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>1.53</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="T8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN8" t="n">
         <v>3</v>
       </c>
-      <c r="U8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W8" t="n">
-        <v>13</v>
-      </c>
-      <c r="X8" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y8" t="n">
+      <c r="AO8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP8" t="n">
         <v>19</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AQ8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV8" t="n">
         <v>81</v>
       </c>
-      <c r="AA8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS8" t="n">
+      <c r="AW8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>351</v>
       </c>
-      <c r="AT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>21</v>
-      </c>
       <c r="BA8" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2cKRrofd</t>
+          <t>dQxjYMz9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,92 +2002,92 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>Dortmund II</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>2.38</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V9" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
         <v>11</v>
       </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="n">
         <v>7.5</v>
@@ -2096,49 +2096,49 @@
         <v>12</v>
       </c>
       <c r="AF9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>41</v>
       </c>
-      <c r="AG9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
       <c r="AR9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
         <v>101</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU9" t="n">
         <v>7</v>
@@ -2147,34 +2147,34 @@
         <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY9" t="n">
         <v>17</v>
       </c>
-      <c r="AY9" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC9" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EVAdzFte</t>
+          <t>Wvc6BNEM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,134 +2184,134 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ind. del Valle</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>EL Nacional</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="H10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L10" t="n">
         <v>7</v>
       </c>
-      <c r="I10" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
         <v>13</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>17</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="S10" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T10" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA10" t="n">
         <v>12</v>
       </c>
       <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
         <v>41</v>
       </c>
-      <c r="AC10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>67</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AM10" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AR10" t="n">
         <v>41</v>
@@ -2320,31 +2320,31 @@
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AX10" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AY10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BA10" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BB10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2LfB5qno</t>
+          <t>l8yGdFbn</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,167 +2366,167 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Parnu JK Vaprus</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="I11" t="n">
-        <v>2.67</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="L11" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="n">
         <v>11</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="X11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>7.8</v>
-      </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
-        <v>19.5</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.75</v>
+        <v>5.5</v>
       </c>
       <c r="AD11" t="n">
         <v>5.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>9.75</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="AG11" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>13</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>19.5</v>
+        <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AS11" t="n">
-        <v>200</v>
+        <v>351</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.82</v>
+        <v>2.2</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.4</v>
+        <v>9.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX11" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dQxjYMz9</t>
+          <t>653PijlO</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dortmund II</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>1.36</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.57</v>
       </c>
-      <c r="R12" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W12" t="n">
+        <v>12</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP12" t="n">
         <v>13</v>
       </c>
-      <c r="X12" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL12" t="n">
+      <c r="AQ12" t="n">
         <v>15</v>
       </c>
-      <c r="AM12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AS12" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AY12" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ12" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Wvc6BNEM</t>
+          <t>AgYGfYiJ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Legia</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="K13" t="n">
         <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="n">
         <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
         <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>17</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AK13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL13" t="n">
         <v>41</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>51</v>
-      </c>
       <c r="AM13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY13" t="n">
         <v>34</v>
       </c>
-      <c r="AY13" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ13" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BA13" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BB13" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>As65xCDU</t>
+          <t>vgC2OhFO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Wydad</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="H14" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="K14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.83</v>
       </c>
-      <c r="L14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.88</v>
-      </c>
       <c r="R14" t="n">
-        <v>1.4</v>
+        <v>2.03</v>
       </c>
       <c r="S14" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="T14" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA14" t="n">
         <v>34</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>29</v>
       </c>
       <c r="AB14" t="n">
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>81</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>67</v>
       </c>
       <c r="AR14" t="n">
         <v>101</v>
       </c>
       <c r="AS14" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AZ14" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB14" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BC14" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD14" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>l8yGdFbn</t>
+          <t>rRIgQEpC</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2.35</v>
       </c>
-      <c r="H15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="R15" t="n">
         <v>1.57</v>
       </c>
-      <c r="P15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.4</v>
-      </c>
       <c r="S15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.62</v>
       </c>
-      <c r="T15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AB15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
         <v>81</v>
       </c>
       <c r="AG15" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
         <v>41</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AM15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>34</v>
       </c>
-      <c r="AM15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>51</v>
-      </c>
       <c r="AR15" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU15" t="n">
         <v>9.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>401</v>
+      </c>
+      <c r="BC15" t="n">
         <v>126</v>
       </c>
-      <c r="BB15" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>51</v>
-      </c>
       <c r="BD15" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>653PijlO</t>
+          <t>CxsA2e2t</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Univ. Craiova</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.36</v>
       </c>
-      <c r="H16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N16" t="n">
-        <v>23</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.2</v>
-      </c>
       <c r="T16" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="V16" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X16" t="n">
         <v>12</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y16" t="n">
-        <v>9</v>
-      </c>
       <c r="Z16" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
       </c>
       <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>41</v>
       </c>
-      <c r="AG16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ16" t="n">
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX16" t="n">
         <v>15</v>
       </c>
-      <c r="AR16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS16" t="n">
+      <c r="AY16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA16" t="n">
         <v>67</v>
       </c>
-      <c r="AT16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>81</v>
-      </c>
       <c r="BB16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC16" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="BD16" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AgYGfYiJ</t>
+          <t>xj7ObFgT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Legia</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.53</v>
+        <v>2.65</v>
       </c>
       <c r="H17" t="n">
-        <v>4.33</v>
+        <v>3.45</v>
       </c>
       <c r="I17" t="n">
-        <v>5.75</v>
+        <v>2.32</v>
       </c>
       <c r="J17" t="n">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>2.85</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>8.75</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="R17" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S17" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="T17" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.95</v>
+        <v>2.42</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>11.5</v>
       </c>
       <c r="X17" t="n">
-        <v>7.5</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AA17" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="n">
         <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>8.75</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>11.25</v>
       </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="AG17" t="n">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>11.75</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>9.25</v>
       </c>
       <c r="AK17" t="n">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="AL17" t="n">
-        <v>41</v>
+        <v>16.5</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.5</v>
+        <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AR17" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AS17" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AW17" t="n">
-        <v>7.5</v>
+        <v>4.65</v>
       </c>
       <c r="AX17" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AY17" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="BA17" t="n">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="BC17" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>vgC2OhFO</t>
+          <t>C66nTKo1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.5</v>
+        <v>1.62</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7</v>
+      </c>
+      <c r="X18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA18" t="n">
         <v>13</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W18" t="n">
+      <c r="AB18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH18" t="n">
         <v>13</v>
       </c>
-      <c r="X18" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA18" t="n">
+      <c r="AI18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY18" t="n">
         <v>34</v>
       </c>
-      <c r="AB18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ18" t="n">
+      <c r="AZ18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC18" t="n">
         <v>81</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="BD18" t="n">
         <v>81</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>rRIgQEpC</t>
+          <t>rRUgTu3b</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,110 +3822,110 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="L19" t="n">
         <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="P19" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="T19" t="n">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="U19" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="V19" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="W19" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="X19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC19" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AG19" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
         <v>17</v>
@@ -3934,67 +3934,67 @@
         <v>51</v>
       </c>
       <c r="AL19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP19" t="n">
         <v>41</v>
       </c>
-      <c r="AM19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ19" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR19" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS19" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AV19" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AW19" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX19" t="n">
         <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ19" t="n">
         <v>126</v>
       </c>
       <c r="BA19" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BB19" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="BC19" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD19" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CxsA2e2t</t>
+          <t>d0q6PPFE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,95 +4004,95 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Univ. Craiova</t>
+          <t>Fenix</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2.25</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>13</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.85</v>
-      </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W20" t="n">
         <v>8.5</v>
       </c>
       <c r="X20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y20" t="n">
         <v>12</v>
       </c>
-      <c r="Y20" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4101,70 +4101,70 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH20" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ20" t="n">
         <v>10</v>
       </c>
       <c r="AK20" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
         <v>21</v>
       </c>
       <c r="AM20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP20" t="n">
         <v>29</v>
       </c>
-      <c r="AN20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR20" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS20" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT20" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AX20" t="n">
         <v>15</v>
       </c>
       <c r="AY20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
         <v>51</v>
       </c>
       <c r="BA20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>xj7ObFgT</t>
+          <t>Ew9nHn04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,718 +4186,172 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Indy Eleven</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="H21" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
         <v>2.35</v>
       </c>
       <c r="J21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P21" t="n">
         <v>3.15</v>
       </c>
-      <c r="K21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="Q21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" t="n">
         <v>8.75</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W21" t="n">
-        <v>12.5</v>
-      </c>
       <c r="X21" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z21" t="n">
         <v>32</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AB21" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.75</v>
+        <v>7.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AG21" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="AH21" t="n">
-        <v>11.25</v>
+        <v>8.25</v>
       </c>
       <c r="AI21" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AJ21" t="n">
         <v>9.25</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AP21" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AR21" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AS21" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="AU21" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="AV21" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.65</v>
+        <v>4.35</v>
       </c>
       <c r="AX21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ21" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BA21" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="BB21" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BC21" t="n">
         <v>51</v>
       </c>
       <c r="BD21" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>C66nTKo1</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Castellon</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Racing Club Ferrol</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N22" t="n">
-        <v>11</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W22" t="n">
-        <v>7</v>
-      </c>
-      <c r="X22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>rRUgTu3b</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Tenerife</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Mirandes</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="L23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N23" t="n">
-        <v>5</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X23" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>126</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Ew9nHn04</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Indy Eleven</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Rhode Island</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W24" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="X24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>90</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD24" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>rsizUY9b</t>
+          <t>UTsToXQN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,170 +728,170 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>FRANCE - LIGUE 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57</v>
+        <v>1.99</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
       </c>
       <c r="Z2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="n">
         <v>34</v>
       </c>
-      <c r="AA2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF2" t="n">
         <v>41</v>
       </c>
-      <c r="AC2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>67</v>
-      </c>
       <c r="AG2" t="n">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>10</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
         <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
         <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
         <v>41</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>zwocPYEF</t>
+          <t>v5hMsYdL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,170 +910,170 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="R3" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="T3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W3" t="n">
+        <v>11</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
         <v>3.5</v>
       </c>
-      <c r="U3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.6</v>
-      </c>
       <c r="AO3" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AP3" t="n">
         <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX3" t="n">
         <v>41</v>
       </c>
-      <c r="AS3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>29</v>
-      </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KrrqGUy2</t>
+          <t>U5mYDMJ0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,170 +1092,170 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Beerschot VA</t>
+          <t>Ath Bilbao</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>13</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>15</v>
-      </c>
-      <c r="X4" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AK4" t="n">
         <v>41</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
         <v>41</v>
       </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ4" t="n">
+      <c r="AN4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU4" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX4" t="n">
         <v>23</v>
       </c>
-      <c r="AN4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ4" t="n">
+      <c r="AY4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>81</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="BA4" t="n">
         <v>101</v>
       </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>41</v>
-      </c>
       <c r="BB4" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>rLBAQt65</t>
+          <t>z1aQy2Ia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Patro Eisden</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>K. Lierse S.K.</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.48</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
         <v>4.33</v>
       </c>
-      <c r="I5" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="AO5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>451</v>
+      </c>
+      <c r="AT5" t="n">
         <v>2</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL5" t="n">
+      <c r="AU5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY5" t="n">
         <v>41</v>
       </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS5" t="n">
+      <c r="AZ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC5" t="n">
         <v>126</v>
       </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA5" t="n">
+      <c r="BD5" t="n">
         <v>126</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>U1H7wAJq</t>
+          <t>KrrqGUy2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Beerschot VA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T6" t="n">
         <v>3.25</v>
       </c>
-      <c r="K6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AJ6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK6" t="n">
         <v>12</v>
       </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AP6" t="n">
         <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB6" t="n">
         <v>101</v>
       </c>
-      <c r="BB6" t="n">
-        <v>301</v>
-      </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MJWrQdLk</t>
+          <t>rLBAQt65</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,41 +1638,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hradec Kralove</t>
+          <t>Patro Eisden</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>K. Lierse S.K.</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L7" t="n">
         <v>6.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1681,124 +1681,124 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
+        <v>7</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
         <v>13</v>
-      </c>
-      <c r="X7" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
       </c>
       <c r="AD7" t="n">
         <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.5</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="n">
-        <v>9.5</v>
+        <v>67</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
         <v>8</v>
       </c>
-      <c r="AO7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>3.25</v>
-      </c>
       <c r="AX7" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="BA7" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EVAdzFte</t>
+          <t>U1H7wAJq</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ind. del Valle</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EL Nacional</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.14</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>1.53</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>2.4</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U8" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
       </c>
       <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI8" t="n">
         <v>15</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
         <v>15</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY8" t="n">
         <v>34</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AZ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC8" t="n">
         <v>126</v>
       </c>
-      <c r="AG8" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL8" t="n">
+      <c r="BD8" t="n">
         <v>126</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dQxjYMz9</t>
+          <t>EVAdzFte</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,47 +2002,47 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dortmund II</t>
+          <t>Ind. del Valle</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>EL Nacional</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>1.14</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.15</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>1.53</v>
       </c>
       <c r="K9" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="L9" t="n">
-        <v>2.75</v>
+        <v>13</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O9" t="n">
         <v>1.17</v>
@@ -2051,130 +2051,130 @@
         <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.5</v>
+        <v>2.63</v>
       </c>
       <c r="V9" t="n">
-        <v>2.5</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
       </c>
       <c r="Z9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE9" t="n">
         <v>34</v>
       </c>
-      <c r="AA9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU9" t="n">
         <v>12</v>
       </c>
-      <c r="AF9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="AV9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW9" t="n">
         <v>15</v>
       </c>
-      <c r="AM9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.5</v>
-      </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="AY9" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AZ9" t="n">
-        <v>34</v>
+        <v>351</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Wvc6BNEM</t>
+          <t>dQxjYMz9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Dortmund II</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.42</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="J10" t="n">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>2.38</v>
       </c>
       <c r="L10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>17</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>13</v>
+      </c>
+      <c r="X10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU10" t="n">
         <v>7</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>13</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX10" t="n">
         <v>11</v>
       </c>
-      <c r="AD10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG10" t="n">
+      <c r="AY10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC10" t="n">
         <v>351</v>
       </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK10" t="n">
+      <c r="BD10" t="n">
         <v>81</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>l8yGdFbn</t>
+          <t>Wvc6BNEM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,167 +2366,167 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.35</v>
+        <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="K11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1.83</v>
       </c>
-      <c r="L11" t="n">
-        <v>4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.88</v>
-      </c>
       <c r="R11" t="n">
-        <v>1.4</v>
+        <v>2.03</v>
       </c>
       <c r="S11" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
         <v>11</v>
       </c>
-      <c r="Z11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AD11" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>19</v>
       </c>
       <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK11" t="n">
         <v>81</v>
       </c>
-      <c r="AG11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AL11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR11" t="n">
         <v>41</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX11" t="n">
         <v>34</v>
       </c>
-      <c r="AM11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>21</v>
-      </c>
       <c r="AY11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BA11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB11" t="n">
-        <v>450</v>
+        <v>301</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>653PijlO</t>
+          <t>l8yGdFbn</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.36</v>
+        <v>2.35</v>
       </c>
       <c r="H12" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
         <v>5.5</v>
       </c>
-      <c r="I12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="AD12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX12" t="n">
         <v>21</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W12" t="n">
-        <v>12</v>
-      </c>
-      <c r="X12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AY12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA12" t="n">
         <v>126</v>
       </c>
-      <c r="AH12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>81</v>
-      </c>
       <c r="BB12" t="n">
-        <v>126</v>
+        <v>450</v>
       </c>
       <c r="BC12" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>176</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AgYGfYiJ</t>
+          <t>653PijlO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,116 +2730,116 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Legia</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K13" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="L13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.36</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="V13" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="W13" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="X13" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
         <v>11</v>
       </c>
       <c r="AA13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="n">
         <v>41</v>
@@ -2848,61 +2848,61 @@
         <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AR13" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX13" t="n">
         <v>29</v>
       </c>
       <c r="AY13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
         <v>101</v>
       </c>
       <c r="BA13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB13" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC13" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BD13" t="n">
-        <v>81</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>vgC2OhFO</t>
+          <t>v5KoiFfn</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.75</v>
+        <v>1.14</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.73</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>4.75</v>
+        <v>1.53</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="L14" t="n">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.25</v>
       </c>
-      <c r="P14" t="n">
+      <c r="T14" t="n">
         <v>3.75</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3</v>
-      </c>
       <c r="U14" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>51</v>
+        <v>6.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AB14" t="n">
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="n">
         <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>8.5</v>
+        <v>51</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="AK14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW14" t="n">
         <v>13</v>
       </c>
-      <c r="AL14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>3.75</v>
-      </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="AY14" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AZ14" t="n">
-        <v>29</v>
+        <v>351</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BB14" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC14" t="n">
         <v>126</v>
       </c>
-      <c r="BC14" t="n">
-        <v>501</v>
-      </c>
       <c r="BD14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>rRIgQEpC</t>
+          <t>8pC2mXgB</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Deportivo Garcilaso</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.8</v>
+        <v>1.18</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>6.25</v>
       </c>
       <c r="I15" t="n">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L15" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="R15" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="S15" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="T15" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V15" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W15" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="n">
         <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AF15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM15" t="n">
         <v>81</v>
       </c>
-      <c r="AG15" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL15" t="n">
+      <c r="AN15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR15" t="n">
         <v>41</v>
       </c>
-      <c r="AM15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>67</v>
-      </c>
       <c r="AS15" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AV15" t="n">
         <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AX15" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AY15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ15" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BA15" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BB15" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="BC15" t="n">
         <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CxsA2e2t</t>
+          <t>hzs5vxBt</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,59 +3276,59 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Univ. Craiova</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>U. de Deportes</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.63</v>
+        <v>1.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R16" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S16" t="n">
         <v>1.36</v>
@@ -3337,118 +3337,118 @@
         <v>3</v>
       </c>
       <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.73</v>
       </c>
-      <c r="V16" t="n">
-        <v>2</v>
-      </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="AA16" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AB16" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AC16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
         <v>7.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH16" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AJ16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK16" t="n">
         <v>10</v>
       </c>
-      <c r="AK16" t="n">
-        <v>29</v>
-      </c>
       <c r="AL16" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AM16" t="n">
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT16" t="n">
         <v>3</v>
       </c>
       <c r="AU16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX16" t="n">
         <v>7.5</v>
       </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>15</v>
-      </c>
       <c r="AY16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>23</v>
       </c>
-      <c r="AZ16" t="n">
-        <v>51</v>
-      </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB16" t="n">
         <v>151</v>
       </c>
       <c r="BC16" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD16" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>xj7ObFgT</t>
+          <t>AgYGfYiJ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Legia</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.65</v>
+        <v>1.53</v>
       </c>
       <c r="H17" t="n">
-        <v>3.45</v>
+        <v>4.33</v>
       </c>
       <c r="I17" t="n">
-        <v>2.32</v>
+        <v>5.75</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="K17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L17" t="n">
-        <v>2.85</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>8.75</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="T17" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>2.42</v>
+        <v>1.95</v>
       </c>
       <c r="W17" t="n">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>7.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AB17" t="n">
         <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
-        <v>11.25</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="AH17" t="n">
-        <v>11.75</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.25</v>
+        <v>17</v>
       </c>
       <c r="AK17" t="n">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="AL17" t="n">
-        <v>16.5</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>7.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AQ17" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.65</v>
+        <v>7.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AZ17" t="n">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="BA17" t="n">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="BB17" t="n">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C66nTKo1</t>
+          <t>vgC2OhFO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,47 +3640,47 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.62</v>
+        <v>4.75</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>1.73</v>
       </c>
       <c r="J18" t="n">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="K18" t="n">
         <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3689,10 +3689,10 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3701,118 +3701,118 @@
         <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
+        <v>13</v>
+      </c>
+      <c r="X18" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD18" t="n">
         <v>7</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AI18" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA18" t="n">
+      <c r="AJ18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK18" t="n">
         <v>13</v>
       </c>
-      <c r="AB18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH18" t="n">
+      <c r="AL18" t="n">
         <v>13</v>
       </c>
-      <c r="AI18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>41</v>
-      </c>
       <c r="AM18" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>8.5</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS18" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="AX18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>29</v>
       </c>
-      <c r="AY18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>101</v>
-      </c>
       <c r="BA18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB18" t="n">
         <v>126</v>
       </c>
-      <c r="BB18" t="n">
-        <v>251</v>
-      </c>
       <c r="BC18" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD18" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>rRUgTu3b</t>
+          <t>rRIgQEpC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,110 +3822,110 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="K19" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
         <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="P19" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>2.35</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.98</v>
+        <v>2.5</v>
       </c>
       <c r="U19" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="W19" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="X19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA19" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AG19" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
         <v>17</v>
@@ -3934,67 +3934,67 @@
         <v>51</v>
       </c>
       <c r="AL19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR19" t="n">
         <v>67</v>
       </c>
-      <c r="AN19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>101</v>
-      </c>
       <c r="AS19" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="AU19" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AV19" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AW19" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX19" t="n">
         <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC19" t="n">
         <v>126</v>
       </c>
-      <c r="BA19" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>81</v>
-      </c>
       <c r="BD19" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>d0q6PPFE</t>
+          <t>CxsA2e2t</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,95 +4004,95 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Fenix</t>
+          <t>Univ. Craiova</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.1</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>12</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V20" t="n">
         <v>2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.8</v>
       </c>
       <c r="W20" t="n">
         <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC20" t="n">
         <v>12</v>
       </c>
-      <c r="Z20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4101,70 +4101,70 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
         <v>10</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AL20" t="n">
         <v>21</v>
       </c>
       <c r="AM20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
         <v>4.75</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>4.33</v>
       </c>
       <c r="AX20" t="n">
         <v>15</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
         <v>51</v>
       </c>
       <c r="BA20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ew9nHn04</t>
+          <t>xj7ObFgT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,172 +4186,718 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Indy Eleven</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.75</v>
+        <v>2.47</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L21" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W21" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD21" t="n">
         <v>7.1</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="X21" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6.3</v>
-      </c>
       <c r="AE21" t="n">
-        <v>13.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF21" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AG21" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.25</v>
+        <v>11.25</v>
       </c>
       <c r="AI21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AM21" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AN21" t="n">
         <v>4.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AQ21" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AR21" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AS21" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
       <c r="AU21" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="AV21" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.35</v>
+        <v>4.75</v>
       </c>
       <c r="AX21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AY21" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AZ21" t="n">
         <v>50</v>
       </c>
       <c r="BA21" t="n">
+        <v>70</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>zuhsk28K</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>d0q6PPFE</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Fenix</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ew9nHn04</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Indy Eleven</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Rhode Island</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X24" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA24" t="n">
         <v>80</v>
       </c>
-      <c r="BB21" t="n">
+      <c r="BB24" t="n">
         <v>250</v>
       </c>
-      <c r="BC21" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD21" t="n">
+      <c r="BC24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD24" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
         <v>11</v>
@@ -888,7 +888,7 @@
         <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC2" t="n">
         <v>501</v>
@@ -1323,10 +1323,10 @@
         <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S5" t="n">
         <v>1.75</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KrrqGUy2</t>
+          <t>r3KoqpQP</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Beerschot VA</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.75</v>
       </c>
-      <c r="V6" t="n">
-        <v>2</v>
-      </c>
       <c r="W6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
         <v>15</v>
       </c>
-      <c r="X6" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y6" t="n">
+      <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>15</v>
       </c>
-      <c r="Z6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
         <v>41</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AM6" t="n">
         <v>41</v>
       </c>
-      <c r="AC6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM6" t="n">
+      <c r="AN6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
         <v>23</v>
       </c>
-      <c r="AN6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
         <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rLBAQt65</t>
+          <t>KrrqGUy2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1643,48 +1643,48 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Patro Eisden</t>
+          <t>Beerschot VA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>K. Lierse S.K.</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.42</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>6.25</v>
+        <v>1.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
         <v>1.7</v>
@@ -1699,118 +1699,118 @@
         <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="AA7" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="AL7" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="AM7" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
         <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX7" t="n">
         <v>8</v>
       </c>
-      <c r="AX7" t="n">
-        <v>34</v>
-      </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AZ7" t="n">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>U1H7wAJq</t>
+          <t>rLBAQt65</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Patro Eisden</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>K. Lierse S.K.</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K8" t="n">
         <v>2.4</v>
       </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T8" t="n">
         <v>3.25</v>
       </c>
-      <c r="K8" t="n">
+      <c r="U8" t="n">
         <v>1.91</v>
       </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="V8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W8" t="n">
         <v>7</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6</v>
-      </c>
       <c r="X8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>10</v>
       </c>
-      <c r="Y8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>23</v>
-      </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
       </c>
       <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK8" t="n">
         <v>67</v>
       </c>
-      <c r="AG8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AY8" t="n">
         <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EVAdzFte</t>
+          <t>U1H7wAJq</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ind. del Valle</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>EL Nacional</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.14</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.53</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>2.4</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="T9" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U9" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
       </c>
       <c r="AC9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI9" t="n">
         <v>15</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
         <v>15</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY9" t="n">
         <v>34</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AZ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC9" t="n">
         <v>126</v>
       </c>
-      <c r="AG9" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="BD9" t="n">
         <v>126</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dQxjYMz9</t>
+          <t>I3HmxyCr</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dortmund II</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>LDU Quito</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>2.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="I10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.15</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>17</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.57</v>
-      </c>
       <c r="R10" t="n">
-        <v>2.35</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X10" t="n">
         <v>13</v>
-      </c>
-      <c r="X10" t="n">
-        <v>17</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
       </c>
       <c r="Z10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB10" t="n">
         <v>34</v>
       </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL10" t="n">
         <v>23</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO10" t="n">
         <v>17</v>
       </c>
-      <c r="AD10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
         <v>4.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Wvc6BNEM</t>
+          <t>dQxjYMz9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Dortmund II</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.42</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="J11" t="n">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
         <v>2.38</v>
       </c>
       <c r="L11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>17</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W11" t="n">
+        <v>13</v>
+      </c>
+      <c r="X11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU11" t="n">
         <v>7</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>13</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC11" t="n">
+      <c r="AV11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX11" t="n">
         <v>11</v>
       </c>
-      <c r="AD11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG11" t="n">
+      <c r="AY11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC11" t="n">
         <v>351</v>
       </c>
-      <c r="AH11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="BD11" t="n">
         <v>81</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>l8yGdFbn</t>
+          <t>Wvc6BNEM</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,167 +2548,167 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.35</v>
+        <v>1.42</v>
       </c>
       <c r="H12" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="K12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1.83</v>
       </c>
-      <c r="L12" t="n">
-        <v>4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.88</v>
-      </c>
       <c r="R12" t="n">
-        <v>1.4</v>
+        <v>2.03</v>
       </c>
       <c r="S12" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="T12" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
         <v>11</v>
       </c>
-      <c r="Z12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AD12" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
       </c>
       <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK12" t="n">
         <v>81</v>
       </c>
-      <c r="AG12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AL12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR12" t="n">
         <v>41</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX12" t="n">
         <v>34</v>
       </c>
-      <c r="AM12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>21</v>
-      </c>
       <c r="AY12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BA12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB12" t="n">
-        <v>450</v>
+        <v>301</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>653PijlO</t>
+          <t>l8yGdFbn</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.36</v>
+        <v>2.35</v>
       </c>
       <c r="H13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
         <v>5.5</v>
       </c>
-      <c r="I13" t="n">
-        <v>7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N13" t="n">
-        <v>23</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T13" t="n">
+      <c r="AD13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN13" t="n">
         <v>4.33</v>
       </c>
-      <c r="U13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W13" t="n">
-        <v>12</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="AO13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU13" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="n">
+      <c r="AV13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA13" t="n">
         <v>126</v>
       </c>
-      <c r="AH13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>81</v>
-      </c>
       <c r="BB13" t="n">
-        <v>126</v>
+        <v>450</v>
       </c>
       <c r="BC13" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>176</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>v5KoiFfn</t>
+          <t>653PijlO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="K14" t="n">
         <v>2.88</v>
       </c>
       <c r="L14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>23</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W14" t="n">
+        <v>12</v>
+      </c>
+      <c r="X14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP14" t="n">
         <v>13</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N14" t="n">
-        <v>21</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="AQ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU14" t="n">
         <v>8</v>
       </c>
-      <c r="X14" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AV14" t="n">
         <v>41</v>
       </c>
-      <c r="AC14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AW14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB14" t="n">
         <v>126</v>
       </c>
-      <c r="AG14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>501</v>
-      </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8pC2mXgB</t>
+          <t>v5KoiFfn</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,70 +3104,70 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Deportivo Garcilaso</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="H15" t="n">
-        <v>6.25</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
+        <v>11</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L15" t="n">
         <v>13</v>
       </c>
-      <c r="J15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L15" t="n">
-        <v>11</v>
-      </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
         <v>6</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
         <v>6.5</v>
@@ -3176,52 +3176,52 @@
         <v>12</v>
       </c>
       <c r="AB15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>29</v>
       </c>
-      <c r="AF15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>34</v>
-      </c>
       <c r="AK15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN15" t="n">
         <v>3.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
@@ -3230,19 +3230,19 @@
         <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX15" t="n">
         <v>67</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>51</v>
       </c>
       <c r="AY15" t="n">
         <v>51</v>
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="BA15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB15" t="n">
         <v>501</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hzs5vxBt</t>
+          <t>8pC2mXgB</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,160 +3286,160 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>U. de Deportes</t>
+          <t>Deportivo Garcilaso</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>1.18</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>6.25</v>
       </c>
       <c r="I16" t="n">
-        <v>1.5</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L16" t="n">
+        <v>11</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z16" t="n">
         <v>6.5</v>
       </c>
-      <c r="K16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W16" t="n">
-        <v>17</v>
-      </c>
-      <c r="X16" t="n">
+      <c r="AA16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB16" t="n">
         <v>34</v>
       </c>
-      <c r="Y16" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="AC16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV16" t="n">
         <v>67</v>
       </c>
-      <c r="AA16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
+      <c r="AW16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>351</v>
       </c>
-      <c r="AH16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ16" t="n">
+      <c r="BA16" t="n">
+        <v>301</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC16" t="n">
         <v>126</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>151</v>
       </c>
       <c r="BD16" t="n">
         <v>151</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AgYGfYiJ</t>
+          <t>hzs5vxBt</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Legia</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>U. de Deportes</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.53</v>
+        <v>7</v>
       </c>
       <c r="H17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="J17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L17" t="n">
         <v>2.05</v>
       </c>
-      <c r="K17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="R17" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="W17" t="n">
+        <v>17</v>
+      </c>
+      <c r="X17" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD17" t="n">
         <v>7.5</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AE17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN17" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB17" t="n">
+      <c r="AO17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>23</v>
       </c>
-      <c r="AC17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL17" t="n">
+      <c r="BA17" t="n">
         <v>41</v>
       </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>126</v>
-      </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BD17" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>vgC2OhFO</t>
+          <t>AgYGfYiJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Legia</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="I18" t="n">
-        <v>1.73</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="K18" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L18" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
+        <v>15</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA18" t="n">
         <v>12</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2</v>
-      </c>
-      <c r="W18" t="n">
+      <c r="AB18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="n">
         <v>13</v>
       </c>
-      <c r="X18" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA18" t="n">
+      <c r="AD18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI18" t="n">
         <v>34</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AJ18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL18" t="n">
         <v>41</v>
       </c>
-      <c r="AC18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB18" t="n">
         <v>201</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>126</v>
       </c>
       <c r="BC18" t="n">
         <v>501</v>
       </c>
       <c r="BD18" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>rRIgQEpC</t>
+          <t>dAfCDy16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3832,157 +3832,157 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>FC Porto</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>1.14</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>4.75</v>
+        <v>19</v>
       </c>
       <c r="J19" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="O19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1.44</v>
       </c>
-      <c r="P19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.35</v>
-      </c>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>2.7</v>
       </c>
       <c r="S19" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="T19" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U19" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V19" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="W19" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB19" t="n">
         <v>34</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AF19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG19" t="n">
         <v>501</v>
       </c>
       <c r="AH19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>301</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>10</v>
       </c>
-      <c r="AI19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ19" t="n">
+      <c r="AR19" t="n">
         <v>34</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX19" t="n">
         <v>67</v>
       </c>
-      <c r="AS19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>29</v>
-      </c>
       <c r="AY19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ19" t="n">
-        <v>101</v>
+        <v>451</v>
       </c>
       <c r="BA19" t="n">
-        <v>151</v>
+        <v>401</v>
       </c>
       <c r="BB19" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC19" t="n">
         <v>126</v>
@@ -4044,7 +4044,7 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
         <v>1.29</v>
@@ -4053,10 +4053,10 @@
         <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S20" t="n">
         <v>1.36</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
         <v>2.25</v>
       </c>
       <c r="L21" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -4232,7 +4232,7 @@
         <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q21" t="n">
         <v>1.57</v>
@@ -4259,16 +4259,16 @@
         <v>15.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC21" t="n">
         <v>8.75</v>
@@ -4277,7 +4277,7 @@
         <v>7.1</v>
       </c>
       <c r="AE21" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF21" t="n">
         <v>37</v>
@@ -4286,7 +4286,7 @@
         <v>200</v>
       </c>
       <c r="AH21" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AI21" t="n">
         <v>15</v>
@@ -4295,28 +4295,28 @@
         <v>9.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ21" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS21" t="n">
         <v>175</v>
@@ -4331,22 +4331,22 @@
         <v>45</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AX21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AZ21" t="n">
         <v>50</v>
       </c>
       <c r="BA21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB21" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC21" t="n">
         <v>51</v>
@@ -4593,10 +4593,10 @@
         <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
         <v>2.25</v>
@@ -4716,188 +4716,6 @@
         <v>51</v>
       </c>
       <c r="BD23" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Ew9nHn04</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Indy Eleven</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Rhode Island</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2</v>
-      </c>
-      <c r="W24" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="X24" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD24" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.5</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -762,7 +762,7 @@
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -795,13 +795,13 @@
         <v>2.05</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
         <v>19</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
@@ -834,16 +834,16 @@
         <v>10</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN2" t="n">
         <v>5.5</v>
@@ -855,7 +855,7 @@
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
         <v>81</v>
@@ -882,7 +882,7 @@
         <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA2" t="n">
         <v>51</v>
@@ -894,7 +894,7 @@
         <v>501</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -971,19 +971,19 @@
         <v>4.33</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
         <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>8</v>
@@ -1007,25 +1007,25 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>34</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>151</v>
       </c>
       <c r="AL3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM3" t="n">
         <v>67</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>3.5</v>
@@ -1055,7 +1055,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1141,10 +1141,10 @@
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1162,7 +1162,7 @@
         <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1192,13 +1192,13 @@
         <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
@@ -1323,10 +1323,10 @@
         <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
         <v>1.75</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KrrqGUy2</t>
+          <t>U1H7wAJq</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Beerschot VA</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.1</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>9.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH7" t="n">
         <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
       </c>
       <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
         <v>81</v>
       </c>
-      <c r="AR7" t="n">
-        <v>101</v>
-      </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rLBAQt65</t>
+          <t>I3HmxyCr</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Patro Eisden</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>K. Lierse S.K.</t>
+          <t>LDU Quito</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
         <v>4.5</v>
       </c>
-      <c r="I8" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>13</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AX8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY8" t="n">
         <v>26</v>
       </c>
-      <c r="AC8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>U1H7wAJq</t>
+          <t>dQxjYMz9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Dortmund II</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.5</v>
       </c>
-      <c r="P9" t="n">
+      <c r="V9" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
         <v>23</v>
       </c>
-      <c r="AA9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
       <c r="AC9" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
         <v>15</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD9" t="n">
         <v>81</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>I3HmxyCr</t>
+          <t>l8yGdFbn</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,167 +2184,167 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Emelec</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>LDU Quito</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="H10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.88</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AD10" t="n">
         <v>5.5</v>
       </c>
       <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>13</v>
       </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>11</v>
-      </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP10" t="n">
         <v>34</v>
       </c>
-      <c r="AN10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ10" t="n">
         <v>51</v>
       </c>
       <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV10" t="n">
         <v>81</v>
       </c>
-      <c r="AS10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
       <c r="AW10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>450</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dQxjYMz9</t>
+          <t>jVW2acNk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dortmund II</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.38</v>
       </c>
-      <c r="L11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
         <v>17</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W11" t="n">
-        <v>13</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO11" t="n">
         <v>17</v>
       </c>
-      <c r="Y11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG11" t="n">
+      <c r="AP11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
         <v>101</v>
       </c>
-      <c r="AH11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL11" t="n">
+      <c r="AS11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX11" t="n">
         <v>15</v>
       </c>
-      <c r="AM11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>11</v>
-      </c>
       <c r="AY11" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Wvc6BNEM</t>
+          <t>v5KoiFfn</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,134 +2548,134 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>8.5</v>
       </c>
       <c r="I12" t="n">
+        <v>11</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L12" t="n">
+        <v>12</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N12" t="n">
+        <v>19</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W12" t="n">
         <v>7.5</v>
       </c>
-      <c r="J12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L12" t="n">
-        <v>7</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>13</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="n">
         <v>6.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>9.5</v>
       </c>
       <c r="AA12" t="n">
         <v>12</v>
       </c>
       <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>29</v>
       </c>
-      <c r="AC12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AK12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM12" t="n">
         <v>67</v>
       </c>
-      <c r="AG12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>51</v>
-      </c>
       <c r="AN12" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AO12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP12" t="n">
         <v>19</v>
       </c>
       <c r="AQ12" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AR12" t="n">
         <v>41</v>
@@ -2684,43 +2684,43 @@
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AX12" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AY12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ12" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BA12" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BB12" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="BC12" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>l8yGdFbn</t>
+          <t>8pC2mXgB</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>Deportivo Garcilaso</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.35</v>
+        <v>1.18</v>
       </c>
       <c r="H13" t="n">
-        <v>2.7</v>
+        <v>6.25</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>1.62</v>
       </c>
       <c r="K13" t="n">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M13" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X13" t="n">
         <v>6</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>10</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU13" t="n">
         <v>11</v>
       </c>
-      <c r="Z13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>351</v>
       </c>
-      <c r="AT13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>67</v>
-      </c>
       <c r="BA13" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BB13" t="n">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>653PijlO</t>
+          <t>hzs5vxBt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>U. de Deportes</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.36</v>
       </c>
-      <c r="H14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="T14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W14" t="n">
+        <v>17</v>
+      </c>
+      <c r="X14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI14" t="n">
         <v>7</v>
       </c>
-      <c r="J14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="AJ14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>23</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W14" t="n">
-        <v>12</v>
-      </c>
-      <c r="X14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="BA14" t="n">
         <v>41</v>
       </c>
-      <c r="AG14" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>81</v>
-      </c>
       <c r="BB14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BD14" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>v5KoiFfn</t>
+          <t>AgYGfYiJ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>Legia</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.14</v>
+        <v>1.48</v>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="T15" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="U15" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="W15" t="n">
         <v>8</v>
       </c>
       <c r="X15" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AA15" t="n">
         <v>12</v>
       </c>
       <c r="AB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL15" t="n">
         <v>41</v>
       </c>
-      <c r="AC15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP15" t="n">
         <v>17</v>
       </c>
-      <c r="AE15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH15" t="n">
+      <c r="AQ15" t="n">
         <v>21</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>11</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD15" t="n">
         <v>81</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8pC2mXgB</t>
+          <t>dAfCDy16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,65 +3276,65 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>FC Porto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Deportivo Garcilaso</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="H16" t="n">
-        <v>6.25</v>
+        <v>8.5</v>
       </c>
       <c r="I16" t="n">
+        <v>19</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L16" t="n">
         <v>13</v>
       </c>
-      <c r="J16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L16" t="n">
-        <v>11</v>
-      </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="R16" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="S16" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="T16" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U16" t="n">
         <v>2.38</v>
@@ -3343,13 +3343,13 @@
         <v>1.53</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
         <v>6</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
         <v>6.5</v>
@@ -3358,82 +3358,82 @@
         <v>12</v>
       </c>
       <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE16" t="n">
         <v>34</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>29</v>
       </c>
       <c r="AF16" t="n">
         <v>101</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>501</v>
       </c>
       <c r="AH16" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK16" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AL16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM16" t="n">
         <v>101</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>81</v>
       </c>
       <c r="AN16" t="n">
         <v>3.1</v>
       </c>
       <c r="AO16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AP16" t="n">
         <v>19</v>
       </c>
       <c r="AQ16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AR16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS16" t="n">
         <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AU16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX16" t="n">
         <v>67</v>
       </c>
-      <c r="AW16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>51</v>
-      </c>
       <c r="AY16" t="n">
         <v>51</v>
       </c>
       <c r="AZ16" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BA16" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="BB16" t="n">
         <v>501</v>
@@ -3442,13 +3442,13 @@
         <v>126</v>
       </c>
       <c r="BD16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hzs5vxBt</t>
+          <t>CxsA2e2t</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,59 +3458,59 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>Univ. Craiova</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>U. de Deportes</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="J17" t="n">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S17" t="n">
         <v>1.36</v>
@@ -3519,118 +3519,118 @@
         <v>3</v>
       </c>
       <c r="U17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V17" t="n">
         <v>2</v>
       </c>
-      <c r="V17" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W17" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="X17" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL17" t="n">
         <v>21</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>13</v>
       </c>
       <c r="AM17" t="n">
         <v>29</v>
       </c>
       <c r="AN17" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>41</v>
       </c>
-      <c r="AQ17" t="n">
-        <v>126</v>
-      </c>
       <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
         <v>151</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>301</v>
       </c>
       <c r="AT17" t="n">
         <v>3</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="AX17" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AY17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB17" t="n">
         <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BD17" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AgYGfYiJ</t>
+          <t>zuhsk28K</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,170 +3640,170 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Legia</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
         <v>6</v>
       </c>
-      <c r="J18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="AD18" t="n">
         <v>6</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="AE18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>15</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>19</v>
-      </c>
       <c r="AK18" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="n">
         <v>41</v>
       </c>
       <c r="AM18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY18" t="n">
         <v>41</v>
       </c>
-      <c r="AN18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA18" t="n">
         <v>126</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="BC18" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dAfCDy16</t>
+          <t>d0q6PPFE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,900 +3822,172 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>Fenix</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.14</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N19" t="n">
         <v>8</v>
       </c>
-      <c r="I19" t="n">
-        <v>19</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="O19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S19" t="n">
         <v>1.5</v>
       </c>
-      <c r="K19" t="n">
-        <v>3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>13</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N19" t="n">
-        <v>21</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P19" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.22</v>
-      </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U19" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
         <v>8.5</v>
       </c>
       <c r="X19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD19" t="n">
         <v>6</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI19" t="n">
         <v>11</v>
       </c>
-      <c r="Z19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB19" t="n">
+      <c r="AJ19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM19" t="n">
         <v>34</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AN19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO19" t="n">
         <v>17</v>
       </c>
-      <c r="AD19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI19" t="n">
+      <c r="AP19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR19" t="n">
         <v>81</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>301</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>34</v>
-      </c>
       <c r="AS19" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AT19" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="AU19" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW19" t="n">
-        <v>15</v>
+        <v>4.33</v>
       </c>
       <c r="AX19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA19" t="n">
         <v>67</v>
       </c>
-      <c r="AY19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>451</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>401</v>
-      </c>
       <c r="BB19" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="BC19" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD19" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>CxsA2e2t</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ROMANIA - LIGA 1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Univ. Craiova</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>FCSB</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>13</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X20" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>xj7ObFgT</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SERBIA - SUPER LIGA</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>TSC</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Partizan</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="W21" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="X21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>65</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>zuhsk28K</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Eldense</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X22" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>d0q6PPFE</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Fenix</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Racing Montevideo</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N23" t="n">
-        <v>8</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X23" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD23" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -762,7 +762,7 @@
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -795,13 +795,13 @@
         <v>2.05</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>19</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
@@ -834,16 +834,16 @@
         <v>10</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL2" t="n">
         <v>17</v>
       </c>
-      <c r="AL2" t="n">
-        <v>15</v>
-      </c>
       <c r="AM2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN2" t="n">
         <v>5.5</v>
@@ -855,7 +855,7 @@
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
         <v>81</v>
@@ -882,19 +882,19 @@
         <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA2" t="n">
         <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="n">
         <v>501</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -932,10 +932,10 @@
         <v>1.2</v>
       </c>
       <c r="H3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
         <v>1.57</v>
@@ -944,7 +944,7 @@
         <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -971,19 +971,19 @@
         <v>4.33</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
         <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
         <v>8</v>
@@ -1001,13 +1001,13 @@
         <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
@@ -1028,16 +1028,16 @@
         <v>67</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP3" t="n">
         <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -1129,13 +1129,13 @@
         <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
         <v>3.4</v>
@@ -1255,7 +1255,7 @@
         <v>251</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1311,13 +1311,13 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
         <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -1475,31 +1475,31 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1517,25 +1517,25 @@
         <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
@@ -1547,37 +1547,37 @@
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
@@ -1601,34 +1601,34 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>U1H7wAJq</t>
+          <t>zPP3skC1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T7" t="n">
         <v>3.4</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>21</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AK7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>21</v>
       </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU7" t="n">
         <v>8</v>
       </c>
-      <c r="AI7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP7" t="n">
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX7" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>21</v>
       </c>
       <c r="AY7" t="n">
         <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>I3HmxyCr</t>
+          <t>6NbSqrYa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,143 +1820,143 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Emelec</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>LDU Quito</t>
+          <t>U. De Chile</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>2.03</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y8" t="n">
         <v>13</v>
       </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
       <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
         <v>29</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>23</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
       </c>
       <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
         <v>8</v>
       </c>
-      <c r="AD8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM8" t="n">
         <v>23</v>
       </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
       <c r="AN8" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
         <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1965,34 +1965,34 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dQxjYMz9</t>
+          <t>U1H7wAJq</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dortmund II</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.57</v>
       </c>
-      <c r="R9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.29</v>
-      </c>
       <c r="T9" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
         <v>34</v>
       </c>
-      <c r="AG9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI9" t="n">
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
         <v>13</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK9" t="n">
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX9" t="n">
         <v>21</v>
       </c>
-      <c r="AL9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>11</v>
-      </c>
       <c r="AY9" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>l8yGdFbn</t>
+          <t>dAv0sJKH</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.35</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="K10" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.62</v>
       </c>
-      <c r="T10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
         <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>34</v>
       </c>
-      <c r="AM10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
       <c r="AR10" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
         <v>9.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC10" t="n">
         <v>126</v>
       </c>
-      <c r="BB10" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jVW2acNk</t>
+          <t>I3HmxyCr</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,158 +2366,158 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>LDU Quito</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>2.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I11" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
         <v>3.25</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.44</v>
       </c>
-      <c r="P11" t="n">
+      <c r="T11" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X11" t="n">
         <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
         <v>29</v>
       </c>
       <c r="AA11" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>11</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>10</v>
-      </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>23</v>
       </c>
       <c r="AM11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
         <v>4.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
         <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX11" t="n">
         <v>15</v>
       </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
         <v>51</v>
@@ -2526,7 +2526,7 @@
         <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>v5KoiFfn</t>
+          <t>l8yGdFbn</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.17</v>
+        <v>2.35</v>
       </c>
       <c r="H12" t="n">
-        <v>8.5</v>
+        <v>2.7</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.53</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2.88</v>
       </c>
-      <c r="L12" t="n">
-        <v>12</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>19</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.53</v>
-      </c>
       <c r="R12" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="S12" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="T12" t="n">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="U12" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
         <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.5</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
         <v>34</v>
       </c>
-      <c r="AC12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>81</v>
-      </c>
       <c r="AM12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="AU12" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AV12" t="n">
         <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AZ12" t="n">
-        <v>351</v>
+        <v>67</v>
       </c>
       <c r="BA12" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BB12" t="n">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8pC2mXgB</t>
+          <t>jVW2acNk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Deportivo Garcilaso</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.18</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
-        <v>6.25</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>2.4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.62</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L13" t="n">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="R13" t="n">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="T13" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="U13" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="W13" t="n">
         <v>7.5</v>
       </c>
       <c r="X13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD13" t="n">
         <v>6</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>10</v>
       </c>
-      <c r="Z13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AK13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP13" t="n">
         <v>29</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
         <v>101</v>
       </c>
-      <c r="AG13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>41</v>
-      </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU13" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AV13" t="n">
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>12</v>
+        <v>4.33</v>
       </c>
       <c r="AX13" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AY13" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BA13" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="BB13" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC13" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hzs5vxBt</t>
+          <t>v5KoiFfn</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,160 +2922,160 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>U. de Deportes</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>1.11</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>6.5</v>
+        <v>1.53</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="L14" t="n">
-        <v>2.05</v>
+        <v>13</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
+        <v>19</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y14" t="n">
         <v>11</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T14" t="n">
+      <c r="Z14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN14" t="n">
         <v>3</v>
       </c>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W14" t="n">
-        <v>17</v>
-      </c>
-      <c r="X14" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AO14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX14" t="n">
         <v>67</v>
       </c>
-      <c r="AA14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
+      <c r="AY14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>351</v>
       </c>
-      <c r="AH14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ14" t="n">
+      <c r="BA14" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC14" t="n">
         <v>126</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>151</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AgYGfYiJ</t>
+          <t>8pC2mXgB</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Legia</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Deportivo Garcilaso</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.48</v>
+        <v>1.15</v>
       </c>
       <c r="H15" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L15" t="n">
+        <v>11</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P15" t="n">
         <v>4.5</v>
       </c>
-      <c r="I15" t="n">
+      <c r="Q15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X15" t="n">
         <v>6</v>
       </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N15" t="n">
-        <v>15</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W15" t="n">
-        <v>8</v>
-      </c>
-      <c r="X15" t="n">
-        <v>7.5</v>
-      </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AA15" t="n">
         <v>12</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AG15" t="n">
-        <v>251</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>34</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AK15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP15" t="n">
         <v>19</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AQ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV15" t="n">
         <v>67</v>
       </c>
-      <c r="AL15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
       <c r="AW15" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AX15" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AZ15" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BA15" t="n">
+        <v>301</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC15" t="n">
         <v>126</v>
       </c>
-      <c r="BB15" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>501</v>
-      </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dAfCDy16</t>
+          <t>hzs5vxBt</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>U. de Deportes</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.13</v>
+        <v>6.25</v>
       </c>
       <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W16" t="n">
+        <v>17</v>
+      </c>
+      <c r="X16" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>8.5</v>
       </c>
-      <c r="I16" t="n">
+      <c r="AK16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY16" t="n">
         <v>19</v>
       </c>
-      <c r="J16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>13</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N16" t="n">
-        <v>21</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P16" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T16" t="n">
-        <v>4</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>301</v>
-      </c>
-      <c r="AL16" t="n">
+      <c r="AZ16" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB16" t="n">
         <v>126</v>
       </c>
-      <c r="AM16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS16" t="n">
+      <c r="BC16" t="n">
         <v>151</v>
       </c>
-      <c r="AT16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>501</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>401</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>126</v>
-      </c>
       <c r="BD16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CxsA2e2t</t>
+          <t>AgYGfYiJ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Univ. Craiova</t>
+          <t>Legia</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>1.48</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R17" t="n">
         <v>2.2</v>
       </c>
-      <c r="L17" t="n">
+      <c r="S17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T17" t="n">
         <v>3.4</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="U17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
         <v>11</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="AA17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT17" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
+      <c r="AU17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB17" t="n">
         <v>201</v>
       </c>
-      <c r="AH17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>151</v>
-      </c>
       <c r="BC17" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>zuhsk28K</t>
+          <t>dAfCDy16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,65 +3640,65 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>FC Porto</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>1.14</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>19</v>
       </c>
       <c r="J18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.1</v>
       </c>
-      <c r="K18" t="n">
-        <v>1.91</v>
-      </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.13</v>
       </c>
       <c r="P18" t="n">
-        <v>2.38</v>
+        <v>6</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R18" t="n">
         <v>2.7</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.44</v>
-      </c>
       <c r="S18" t="n">
-        <v>1.62</v>
+        <v>1.22</v>
       </c>
       <c r="T18" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="U18" t="n">
         <v>2.25</v>
@@ -3707,112 +3707,112 @@
         <v>1.57</v>
       </c>
       <c r="W18" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Y18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>10</v>
       </c>
-      <c r="Z18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ18" t="n">
+      <c r="AR18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW18" t="n">
         <v>15</v>
       </c>
-      <c r="AK18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AY18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="BA18" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC18" t="n">
         <v>126</v>
       </c>
-      <c r="BB18" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>81</v>
-      </c>
       <c r="BD18" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>d0q6PPFE</t>
+          <t>zuhsk28K</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,128 +3822,128 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Fenix</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.1</v>
       </c>
-      <c r="H19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P19" t="n">
         <v>2.38</v>
       </c>
-      <c r="J19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N19" t="n">
-        <v>8</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
       <c r="Q19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U19" t="n">
         <v>2.25</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="W19" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
       </c>
       <c r="AE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>15</v>
       </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>10</v>
-      </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
         <v>29</v>
@@ -3955,40 +3955,404 @@
         <v>81</v>
       </c>
       <c r="AS19" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>d0q6PPFE</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Fenix</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS20" t="n">
         <v>251</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT20" t="n">
         <v>2.5</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU20" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV20" t="n">
         <v>67</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW20" t="n">
         <v>4.33</v>
       </c>
-      <c r="AX19" t="n">
+      <c r="AX20" t="n">
         <v>13</v>
       </c>
-      <c r="AY19" t="n">
+      <c r="AY20" t="n">
         <v>26</v>
       </c>
-      <c r="AZ19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA19" t="n">
+      <c r="AZ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA20" t="n">
         <v>67</v>
       </c>
-      <c r="BB19" t="n">
+      <c r="BB20" t="n">
         <v>201</v>
       </c>
-      <c r="BC19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>51</v>
+      <c r="BC20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>d0NQJNqe</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>New York Red Bulls</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Columbus Crew</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W21" t="n">
+        <v>11</v>
+      </c>
+      <c r="X21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
@@ -756,7 +756,7 @@
         <v>2.1</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -807,7 +807,7 @@
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
@@ -828,10 +828,10 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
         <v>9</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX2" t="n">
         <v>11</v>
@@ -888,13 +888,13 @@
         <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC2" t="n">
         <v>501</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I3" t="n">
         <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -953,16 +953,16 @@
         <v>21</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.2</v>
@@ -971,10 +971,10 @@
         <v>4.33</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>11</v>
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA3" t="n">
         <v>10</v>
@@ -995,10 +995,10 @@
         <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -1016,10 +1016,10 @@
         <v>67</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL3" t="n">
         <v>81</v>
@@ -1058,16 +1058,16 @@
         <v>12</v>
       </c>
       <c r="AX3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA3" t="n">
         <v>201</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>151</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>
@@ -1129,22 +1129,22 @@
         <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
         <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
         <v>3.75</v>
@@ -1311,13 +1311,13 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N5" t="n">
         <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -1341,13 +1341,13 @@
         <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
         <v>29</v>
@@ -1377,7 +1377,7 @@
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
         <v>13</v>
@@ -1392,7 +1392,7 @@
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
         <v>19</v>
@@ -1407,7 +1407,7 @@
         <v>126</v>
       </c>
       <c r="AS5" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AT5" t="n">
         <v>2</v>
@@ -1419,7 +1419,7 @@
         <v>101</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX5" t="n">
         <v>21</v>
@@ -1428,10 +1428,10 @@
         <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
         <v>501</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
         <v>2.88</v>
@@ -1490,25 +1490,25 @@
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1523,13 +1523,13 @@
         <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
         <v>9.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
         <v>19</v>
@@ -1541,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1559,7 +1559,7 @@
         <v>9.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>13</v>
@@ -1598,7 +1598,7 @@
         <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
         <v>5.5</v>
@@ -1607,7 +1607,7 @@
         <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>67</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>zPP3skC1</t>
+          <t>00UJFd2r</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X7" t="n">
         <v>6</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>8</v>
-      </c>
       <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>13</v>
       </c>
       <c r="AD7" t="n">
         <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP7" t="n">
         <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
       </c>
       <c r="AQ7" t="n">
         <v>21</v>
       </c>
       <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX7" t="n">
         <v>41</v>
       </c>
-      <c r="AS7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>29</v>
-      </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6NbSqrYa</t>
+          <t>zPP3skC1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,31 +1830,31 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>U. De Chile</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1863,22 +1863,22 @@
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="U8" t="n">
         <v>1.73</v>
@@ -1887,76 +1887,76 @@
         <v>2</v>
       </c>
       <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA8" t="n">
         <v>12</v>
       </c>
-      <c r="X8" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y8" t="n">
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
         <v>13</v>
       </c>
-      <c r="Z8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="AO8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>21</v>
       </c>
-      <c r="AP8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>67</v>
-      </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1965,34 +1965,34 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>U1H7wAJq</t>
+          <t>6NbSqrYa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,167 +2002,167 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>U. De Chile</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K9" t="n">
         <v>2.25</v>
       </c>
-      <c r="H9" t="n">
+      <c r="L9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
         <v>3</v>
       </c>
-      <c r="I9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="U9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>12</v>
+      </c>
+      <c r="X9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD9" t="n">
         <v>7</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6</v>
-      </c>
-      <c r="X9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
         <v>8</v>
       </c>
       <c r="AI9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK9" t="n">
         <v>15</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR9" t="n">
         <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AY9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>34</v>
       </c>
-      <c r="AZ9" t="n">
-        <v>67</v>
-      </c>
       <c r="BA9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB9" t="n">
         <v>126</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>351</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -2260,7 +2260,7 @@
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
@@ -2296,7 +2296,7 @@
         <v>51</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM10" t="n">
         <v>51</v>
@@ -2305,7 +2305,7 @@
         <v>3.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>2.88</v>
       </c>
       <c r="I11" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2427,25 +2427,25 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
         <v>29</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
@@ -2466,19 +2466,19 @@
         <v>251</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM11" t="n">
         <v>34</v>
@@ -2487,7 +2487,7 @@
         <v>4.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2523,7 +2523,7 @@
         <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
         <v>201</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>l8yGdFbn</t>
+          <t>jVW2acNk</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,131 +2548,131 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM12" t="n">
         <v>41</v>
       </c>
-      <c r="AL12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>51</v>
-      </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
         <v>51</v>
@@ -2681,34 +2681,34 @@
         <v>101</v>
       </c>
       <c r="AS12" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AU12" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA12" t="n">
         <v>81</v>
       </c>
-      <c r="AW12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>126</v>
-      </c>
       <c r="BB12" t="n">
-        <v>450</v>
+        <v>251</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jVW2acNk</t>
+          <t>v5KoiFfn</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>1.14</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="I13" t="n">
+        <v>13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L13" t="n">
+        <v>15</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N13" t="n">
+        <v>21</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R13" t="n">
         <v>2.4</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="S13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W13" t="n">
         <v>7</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7.5</v>
-      </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="Y13" t="n">
         <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA13" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
         <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AF13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX13" t="n">
         <v>67</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AY13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>351</v>
       </c>
-      <c r="AH13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>51</v>
-      </c>
       <c r="BA13" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BB13" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>v5KoiFfn</t>
+          <t>8pC2mXgB</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,49 +2922,49 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>Deportivo Garcilaso</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>6.25</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="K14" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L14" t="n">
+        <v>11</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
         <v>13</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N14" t="n">
-        <v>19</v>
-      </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R14" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S14" t="n">
         <v>1.29</v>
@@ -2973,46 +2973,46 @@
         <v>3.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="W14" t="n">
         <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA14" t="n">
         <v>12</v>
       </c>
       <c r="AB14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AF14" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AG14" t="n">
-        <v>201</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>51</v>
@@ -3030,16 +3030,16 @@
         <v>81</v>
       </c>
       <c r="AN14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AP14" t="n">
         <v>19</v>
       </c>
       <c r="AQ14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR14" t="n">
         <v>41</v>
@@ -3051,16 +3051,16 @@
         <v>3.5</v>
       </c>
       <c r="AU14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
         <v>12</v>
       </c>
-      <c r="AV14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>15</v>
-      </c>
       <c r="AX14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AY14" t="n">
         <v>51</v>
@@ -3069,7 +3069,7 @@
         <v>351</v>
       </c>
       <c r="BA14" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB14" t="n">
         <v>501</v>
@@ -3078,13 +3078,13 @@
         <v>126</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8pC2mXgB</t>
+          <t>hzs5vxBt</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,160 +3104,160 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Deportivo Garcilaso</t>
+          <t>U. de Deportes</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.15</v>
+        <v>7</v>
       </c>
       <c r="H15" t="n">
-        <v>6.25</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>1.48</v>
       </c>
       <c r="J15" t="n">
-        <v>1.62</v>
+        <v>6.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
         <v>11</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>13</v>
-      </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>2.3</v>
+        <v>2.03</v>
       </c>
       <c r="S15" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T15" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
+        <v>17</v>
+      </c>
+      <c r="X15" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX15" t="n">
         <v>7.5</v>
       </c>
-      <c r="X15" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP15" t="n">
+      <c r="AY15" t="n">
         <v>19</v>
       </c>
-      <c r="AQ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AZ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA15" t="n">
         <v>41</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="BB15" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC15" t="n">
         <v>151</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>126</v>
       </c>
       <c r="BD15" t="n">
         <v>151</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hzs5vxBt</t>
+          <t>dAfCDy16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>FC Porto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>U. de Deportes</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6.25</v>
+        <v>1.14</v>
       </c>
       <c r="H16" t="n">
+        <v>8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>19</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>13</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N16" t="n">
+        <v>21</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T16" t="n">
         <v>4</v>
       </c>
-      <c r="I16" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="U16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X16" t="n">
         <v>6</v>
       </c>
-      <c r="K16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N16" t="n">
-        <v>13</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P16" t="n">
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>301</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT16" t="n">
         <v>4</v>
       </c>
-      <c r="Q16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W16" t="n">
-        <v>17</v>
-      </c>
-      <c r="X16" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="AU16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV16" t="n">
         <v>67</v>
       </c>
-      <c r="AA16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AW16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>401</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC16" t="n">
         <v>126</v>
       </c>
-      <c r="AS16" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB16" t="n">
+      <c r="BD16" t="n">
         <v>126</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AgYGfYiJ</t>
+          <t>zuhsk28K</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,170 +3458,170 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Legia</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.48</v>
+        <v>2.15</v>
       </c>
       <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L17" t="n">
         <v>4.5</v>
       </c>
-      <c r="I17" t="n">
+      <c r="M17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
         <v>6</v>
       </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="AD17" t="n">
         <v>6</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>15</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8</v>
-      </c>
-      <c r="X17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>19</v>
-      </c>
       <c r="AK17" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="n">
         <v>41</v>
       </c>
       <c r="AM17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY17" t="n">
         <v>41</v>
       </c>
-      <c r="AN17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA17" t="n">
         <v>126</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="BC17" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dAfCDy16</t>
+          <t>d0q6PPFE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>Fenix</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.14</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
         <v>8</v>
       </c>
-      <c r="I18" t="n">
-        <v>19</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="O18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.5</v>
       </c>
-      <c r="K18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>13</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="T18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL18" t="n">
         <v>21</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P18" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T18" t="n">
-        <v>4</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W18" t="n">
-        <v>9</v>
-      </c>
-      <c r="X18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB18" t="n">
+      <c r="AM18" t="n">
         <v>34</v>
       </c>
-      <c r="AC18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK18" t="n">
+      <c r="AN18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS18" t="n">
         <v>251</v>
       </c>
-      <c r="AL18" t="n">
-        <v>126</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>126</v>
-      </c>
       <c r="AT18" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
         <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>15</v>
+        <v>4.33</v>
       </c>
       <c r="AX18" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AY18" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>351</v>
+        <v>67</v>
       </c>
       <c r="BB18" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="BC18" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD18" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>zuhsk28K</t>
+          <t>d0NQJNqe</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,536 +3822,172 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J19" t="n">
         <v>3</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K19" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M19" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.53</v>
       </c>
-      <c r="P19" t="n">
+      <c r="V19" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q19" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W19" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
         <v>10</v>
       </c>
       <c r="Z19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL19" t="n">
         <v>21</v>
       </c>
-      <c r="AA19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>41</v>
-      </c>
       <c r="AM19" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AN19" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AW19" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX19" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AY19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>41</v>
       </c>
-      <c r="AZ19" t="n">
-        <v>81</v>
-      </c>
       <c r="BA19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB19" t="n">
         <v>126</v>
       </c>
-      <c r="BB19" t="n">
-        <v>500</v>
-      </c>
       <c r="BC19" t="n">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="BD19" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>d0q6PPFE</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Fenix</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Racing Montevideo</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X20" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>d0NQJNqe</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>New York Red Bulls</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Columbus Crew</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N21" t="n">
-        <v>13</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W21" t="n">
-        <v>11</v>
-      </c>
-      <c r="X21" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD21" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1162,7 +1162,7 @@
         <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1192,13 +1192,13 @@
         <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
         <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>1.8</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.17</v>
@@ -1350,7 +1350,7 @@
         <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
         <v>34</v>
@@ -1383,7 +1383,7 @@
         <v>13</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
         <v>34</v>
@@ -1395,7 +1395,7 @@
         <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP5" t="n">
         <v>41</v>
@@ -1422,7 +1422,7 @@
         <v>4.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1475,40 +1475,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1523,7 +1523,7 @@
         <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
         <v>9.5</v>
@@ -1532,16 +1532,16 @@
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1556,7 +1556,7 @@
         <v>351</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
         <v>17</v>
@@ -1577,10 +1577,10 @@
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
@@ -1598,16 +1598,16 @@
         <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
         <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
         <v>67</v>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
         <v>6.5</v>
@@ -1851,16 +1851,16 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
         <v>1.18</v>
@@ -1869,10 +1869,10 @@
         <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S8" t="n">
         <v>1.3</v>
@@ -1887,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
         <v>8</v>
@@ -1905,7 +1905,7 @@
         <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
         <v>8</v>
@@ -1926,7 +1926,7 @@
         <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="n">
         <v>67</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
         <v>2.38</v>
@@ -2224,7 +2224,7 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -2233,10 +2233,10 @@
         <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2263,13 +2263,13 @@
         <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2293,7 +2293,7 @@
         <v>19</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL10" t="n">
         <v>51</v>
@@ -2311,7 +2311,7 @@
         <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
@@ -2329,7 +2329,7 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX10" t="n">
         <v>29</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J11" t="n">
         <v>3.6</v>
@@ -2403,16 +2403,16 @@
         <v>3.2</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
         <v>2.15</v>
@@ -2427,10 +2427,10 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
         <v>9</v>
@@ -2442,13 +2442,13 @@
         <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
         <v>26</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
@@ -2466,10 +2466,10 @@
         <v>251</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ11" t="n">
         <v>10</v>
@@ -2490,7 +2490,7 @@
         <v>17</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
         <v>51</v>
@@ -2511,10 +2511,10 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY11" t="n">
         <v>26</v>
@@ -2749,10 +2749,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="I13" t="n">
         <v>13</v>
@@ -2761,7 +2761,7 @@
         <v>1.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
         <v>15</v>
@@ -2770,7 +2770,7 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
@@ -2779,16 +2779,16 @@
         <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U13" t="n">
         <v>2.75</v>
@@ -2797,7 +2797,7 @@
         <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
         <v>5.5</v>
@@ -2815,10 +2815,10 @@
         <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
         <v>41</v>
@@ -2857,7 +2857,7 @@
         <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
@@ -2866,7 +2866,7 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU13" t="n">
         <v>13</v>
@@ -3298,7 +3298,7 @@
         <v>1.14</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I16" t="n">
         <v>19</v>
@@ -3307,7 +3307,7 @@
         <v>1.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L16" t="n">
         <v>13</v>
@@ -3316,7 +3316,7 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O16" t="n">
         <v>1.13</v>
@@ -3340,10 +3340,10 @@
         <v>2.25</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
         <v>6</v>
@@ -3430,7 +3430,7 @@
         <v>51</v>
       </c>
       <c r="AZ16" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BA16" t="n">
         <v>351</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>d0q6PPFE</t>
+          <t>d0NQJNqe</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,354 +3640,172 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Fenix</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V18" t="n">
         <v>2.25</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="X18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI18" t="n">
         <v>15</v>
       </c>
-      <c r="Y18" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI18" t="n">
+      <c r="AJ18" t="n">
         <v>11</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>10</v>
-      </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
         <v>21</v>
       </c>
       <c r="AM18" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW18" t="n">
         <v>5</v>
       </c>
-      <c r="AO18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>4.33</v>
-      </c>
       <c r="AX18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY18" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC18" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="BD18" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>d0NQJNqe</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>New York Red Bulls</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Columbus Crew</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>13</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W19" t="n">
-        <v>11</v>
-      </c>
-      <c r="X19" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD19" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>r3KoqpQP</t>
+          <t>rR2YZumC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,151 +738,151 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
+        <v>7</v>
+      </c>
+      <c r="X2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
         <v>6.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
         <v>101</v>
@@ -894,13 +894,13 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>rR2YZumC</t>
+          <t>00UJFd2r</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO3" t="n">
         <v>7</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7</v>
-      </c>
-      <c r="X3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU3" t="n">
         <v>11</v>
       </c>
-      <c r="Z3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB3" t="n">
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX3" t="n">
         <v>41</v>
       </c>
-      <c r="AC3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
+      <c r="AY3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB3" t="n">
         <v>501</v>
       </c>
-      <c r="AH3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>301</v>
-      </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>00UJFd2r</t>
+          <t>zPP3skC1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD4" t="n">
         <v>8</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AE4" t="n">
         <v>15</v>
       </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX4" t="n">
         <v>26</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>81</v>
       </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK4" t="n">
+      <c r="BA4" t="n">
         <v>101</v>
       </c>
-      <c r="AL4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>251</v>
-      </c>
       <c r="BB4" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>zPP3skC1</t>
+          <t>6NbSqrYa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,31 +1284,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>U. De Chile</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J5" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.1</v>
-      </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1317,136 +1317,136 @@
         <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="R5" t="n">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="S5" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
         <v>12</v>
       </c>
-      <c r="AA5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
         <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
       </c>
       <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
         <v>151</v>
       </c>
-      <c r="AH5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>34</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>81</v>
-      </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6NbSqrYa</t>
+          <t>dAv0sJKH</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,167 +1456,167 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>U. De Chile</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.4</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K6" t="n">
         <v>2.05</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.25</v>
       </c>
-      <c r="L6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>12</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
         <v>11</v>
       </c>
-      <c r="X6" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>34</v>
-      </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
         <v>7</v>
       </c>
       <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH6" t="n">
         <v>13</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AI6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY6" t="n">
         <v>41</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AZ6" t="n">
         <v>151</v>
       </c>
-      <c r="AH6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>34</v>
-      </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dAv0sJKH</t>
+          <t>v7mD6TE8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>4.85</v>
       </c>
       <c r="I7" t="n">
-        <v>6.25</v>
+        <v>9.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>7.9</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>3.35</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="X7" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>7.3</v>
       </c>
       <c r="AA7" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>15</v>
       </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>29</v>
-      </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.82</v>
       </c>
       <c r="AU7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW7" t="n">
         <v>9.5</v>
       </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>7</v>
-      </c>
       <c r="AX7" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AY7" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AZ7" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="BA7" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="BB7" t="n">
         <v>501</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>I3HmxyCr</t>
+          <t>jVW2acNk</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,107 +1820,107 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Emelec</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>LDU Quito</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>2.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
         <v>11</v>
@@ -1932,10 +1932,10 @@
         <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
         <v>4.75</v>
@@ -1950,37 +1950,37 @@
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
         <v>4.33</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jVW2acNk</t>
+          <t>UDsEN3pR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,167 +2002,167 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W9" t="n">
+        <v>15</v>
+      </c>
+      <c r="X9" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
         <v>8</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL9" t="n">
         <v>13</v>
       </c>
-      <c r="Y9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO9" t="n">
         <v>41</v>
       </c>
-      <c r="AC9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG9" t="n">
+      <c r="AP9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS9" t="n">
         <v>351</v>
       </c>
-      <c r="AH9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>251</v>
-      </c>
       <c r="AT9" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dAfCDy16</t>
+          <t>d0NQJNqe</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,536 +2184,172 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.14</v>
+        <v>2.35</v>
       </c>
       <c r="H10" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>13</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10</v>
+      </c>
+      <c r="X10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP10" t="n">
         <v>19</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>13</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>21</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P10" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W10" t="n">
-        <v>9</v>
-      </c>
-      <c r="X10" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AJ10" t="n">
+      <c r="AQ10" t="n">
         <v>41</v>
       </c>
-      <c r="AK10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>10</v>
-      </c>
       <c r="AR10" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
         <v>126</v>
       </c>
       <c r="AT10" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX10" t="n">
         <v>15</v>
       </c>
-      <c r="AX10" t="n">
-        <v>67</v>
-      </c>
       <c r="AY10" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC10" t="n">
         <v>451</v>
       </c>
-      <c r="BA10" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>126</v>
-      </c>
       <c r="BD10" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>UDsEN3pR</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>River Plate</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Penarol</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W11" t="n">
-        <v>15</v>
-      </c>
-      <c r="X11" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>d0NQJNqe</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>New York Red Bulls</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Columbus Crew</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>13</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>10</v>
-      </c>
-      <c r="X12" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>451</v>
-      </c>
-      <c r="BD12" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,34 +747,34 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L2" t="n">
         <v>3.6</v>
       </c>
-      <c r="K2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.5</v>
-      </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
         <v>2.5</v>
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
         <v>301</v>
@@ -932,55 +932,55 @@
         <v>1.4</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.95</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
         <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
         <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -989,19 +989,19 @@
         <v>8.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>8.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
@@ -1034,7 +1034,7 @@
         <v>7</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>21</v>
@@ -1046,10 +1046,10 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1061,7 +1061,7 @@
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
         <v>201</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>v7mD6TE8</t>
+          <t>IyD1ait3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tampico Madero</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>4.85</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>9.25</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
         <v>11</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AA7" t="n">
-        <v>11.75</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>5.6</v>
+        <v>9</v>
       </c>
       <c r="AP7" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AR7" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.82</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="AW7" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AY7" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="BA7" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="BB7" t="n">
         <v>501</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jVW2acNk</t>
+          <t>v7mD6TE8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,167 +1820,167 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>1.29</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4.85</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>9.25</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>7.9</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>3.35</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.53</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>5.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>7.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>11.75</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="AG8" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>300</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.75</v>
+        <v>2.95</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>5.6</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AR8" t="n">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="AS8" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.38</v>
+        <v>2.82</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.33</v>
+        <v>9.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UDsEN3pR</t>
+          <t>dr23cyh2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,95 +2002,95 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="L9" t="n">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.03</v>
+        <v>3.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X9" t="n">
         <v>15</v>
       </c>
-      <c r="X9" t="n">
-        <v>34</v>
-      </c>
       <c r="Y9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB9" t="n">
         <v>51</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>21</v>
@@ -2099,70 +2099,70 @@
         <v>81</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
         <v>41</v>
       </c>
       <c r="AQ9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR9" t="n">
         <v>151</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>201</v>
       </c>
       <c r="AS9" t="n">
         <v>351</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>d0NQJNqe</t>
+          <t>UDsEN3pR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,172 +2184,536 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>New York Red Bulls</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.35</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>2.88</v>
+        <v>1.45</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>7</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P10" t="n">
         <v>3.4</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="Q10" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W10" t="n">
+        <v>15</v>
+      </c>
+      <c r="X10" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL10" t="n">
         <v>13</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
         <v>3.25</v>
       </c>
-      <c r="U10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>10</v>
-      </c>
-      <c r="X10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5</v>
-      </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
         <v>51</v>
       </c>
       <c r="BB10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>d0NQJNqe</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>New York Red Bulls</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Columbus Crew</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>15</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>10</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
         <v>126</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="AT11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC11" t="n">
         <v>451</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD11" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SKm9QS13</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Houston Dynamo</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD12" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,16 +765,16 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
         <v>2.5</v>
@@ -947,10 +947,10 @@
         <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.3</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>zPP3skC1</t>
+          <t>IyD1ait3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.57</v>
       </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>2.25</v>
       </c>
-      <c r="S4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.4</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>12</v>
       </c>
       <c r="AA4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
         <v>12</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL4" t="n">
         <v>51</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX4" t="n">
         <v>41</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AY4" t="n">
         <v>41</v>
       </c>
-      <c r="AN4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ4" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6NbSqrYa</t>
+          <t>v7mD6TE8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>U. De Chile</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>1.29</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>4.85</v>
       </c>
       <c r="I5" t="n">
-        <v>2.05</v>
+        <v>9.25</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="L5" t="n">
-        <v>2.63</v>
+        <v>7.9</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>2.18</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>6.2</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>41</v>
+        <v>7.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>11.75</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="AL5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>15</v>
       </c>
-      <c r="AM5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
+      <c r="AR5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>500</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>500</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC5" t="n">
         <v>51</v>
       </c>
-      <c r="AR5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV5" t="n">
+      <c r="BD5" t="n">
         <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dAv0sJKH</t>
+          <t>dr23cyh2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,95 +1456,95 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.62</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
@@ -1553,46 +1553,46 @@
         <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>9.5</v>
       </c>
       <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
         <v>21</v>
       </c>
-      <c r="AK6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AU6" t="n">
         <v>10</v>
@@ -1601,34 +1601,34 @@
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="AX6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY6" t="n">
         <v>34</v>
       </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IyD1ait3</t>
+          <t>UDsEN3pR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P7" t="n">
         <v>3.4</v>
       </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L7" t="n">
-        <v>7</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.5</v>
-      </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>4.75</v>
+        <v>15</v>
       </c>
       <c r="X7" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC7" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6</v>
-      </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM7" t="n">
         <v>29</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AN7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>23</v>
       </c>
-      <c r="AK7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL7" t="n">
+      <c r="BA7" t="n">
         <v>51</v>
       </c>
-      <c r="AM7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY7" t="n">
+      <c r="BB7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC7" t="n">
         <v>51</v>
       </c>
-      <c r="AZ7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
-      </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>v7mD6TE8</t>
+          <t>SKm9QS13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,900 +1820,172 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tampico Madero</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.29</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
-        <v>4.85</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>9.25</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.75</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>7.9</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="V8" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>5.6</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.3</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>11.75</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
         <v>201</v>
       </c>
-      <c r="AH8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>300</v>
-      </c>
       <c r="AT8" t="n">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>500</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>dr23cyh2</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Ameliano</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Olimpia Asuncion</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>UDsEN3pR</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>River Plate</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Penarol</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W10" t="n">
-        <v>15</v>
-      </c>
-      <c r="X10" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>d0NQJNqe</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>New York Red Bulls</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Columbus Crew</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N11" t="n">
-        <v>15</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>10</v>
-      </c>
-      <c r="X11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>451</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SKm9QS13</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Houston Dynamo</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Seattle Sounders</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N12" t="n">
-        <v>8</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W12" t="n">
-        <v>7</v>
-      </c>
-      <c r="X12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD12" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -777,10 +777,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>00UJFd2r</t>
+          <t>IyD1ait3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,143 +910,143 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>8.5</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K3" t="n">
         <v>1.95</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.25</v>
       </c>
-      <c r="L3" t="n">
-        <v>8</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>11</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
         <v>6</v>
       </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9</v>
-      </c>
       <c r="AD3" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>67</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1055,34 +1055,34 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA3" t="n">
         <v>201</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>251</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
       </c>
       <c r="BC3" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IyD1ait3</t>
+          <t>v7mD6TE8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>1.78</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.93</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W4" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA4" t="n">
         <v>12</v>
       </c>
-      <c r="AA4" t="n">
-        <v>17</v>
-      </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>9.75</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AK4" t="n">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="AM4" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>2.92</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.72</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AZ4" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="BA4" t="n">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="BB4" t="n">
         <v>501</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>v7mD6TE8</t>
+          <t>dr23cyh2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,167 +1274,167 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tampico Madero</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.29</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>4.85</v>
+        <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>9.25</v>
+        <v>2.3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.75</v>
+        <v>4.33</v>
       </c>
       <c r="K5" t="n">
-        <v>2.35</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>7.9</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>3.35</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>1.34</v>
+        <v>1.67</v>
       </c>
       <c r="T5" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="U5" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
         <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>5.6</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.3</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>11.75</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>5</v>
       </c>
       <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU5" t="n">
         <v>10</v>
       </c>
-      <c r="AE5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ5" t="n">
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX5" t="n">
         <v>15</v>
       </c>
-      <c r="AR5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>55</v>
-      </c>
       <c r="AY5" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dr23cyh2</t>
+          <t>UDsEN3pR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,167 +1456,167 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P6" t="n">
         <v>3.4</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.2</v>
-      </c>
       <c r="Q6" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.85</v>
       </c>
       <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.67</v>
       </c>
-      <c r="T6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB6" t="n">
         <v>51</v>
       </c>
       <c r="AC6" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK6" t="n">
         <v>9.5</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>23</v>
-      </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO6" t="n">
         <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>21</v>
       </c>
       <c r="AP6" t="n">
         <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AR6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS6" t="n">
         <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA6" t="n">
         <v>51</v>
       </c>
-      <c r="BA6" t="n">
-        <v>101</v>
-      </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UDsEN3pR</t>
+          <t>SKm9QS13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,354 +1638,172 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W7" t="n">
         <v>7</v>
       </c>
-      <c r="H7" t="n">
+      <c r="X7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
         <v>4</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W7" t="n">
-        <v>15</v>
-      </c>
-      <c r="X7" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AO7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="n">
         <v>81</v>
       </c>
-      <c r="AA7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>51</v>
-      </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SKm9QS13</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Houston Dynamo</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Seattle Sounders</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7</v>
-      </c>
-      <c r="X8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD8" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -771,16 +771,16 @@
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -789,22 +789,22 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
         <v>26</v>
@@ -819,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
@@ -834,13 +834,13 @@
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
         <v>301</v>
@@ -873,13 +873,13 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>51</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -1481,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J6" t="n">
         <v>7</v>
@@ -1490,7 +1490,7 @@
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1562,7 +1562,7 @@
         <v>6.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
         <v>9.5</v>
@@ -1571,7 +1571,7 @@
         <v>13</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN6" t="n">
         <v>8</v>
@@ -1586,7 +1586,7 @@
         <v>151</v>
       </c>
       <c r="AR6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AS6" t="n">
         <v>351</v>
@@ -1604,13 +1604,13 @@
         <v>3.25</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
         <v>51</v>
@@ -1660,16 +1660,16 @@
         <v>2.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
         <v>4</v>
@@ -1693,10 +1693,10 @@
         <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
         <v>1.95</v>
@@ -1705,7 +1705,7 @@
         <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
         <v>10</v>
@@ -1717,19 +1717,19 @@
         <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
@@ -1738,16 +1738,16 @@
         <v>351</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
         <v>29</v>
@@ -1762,7 +1762,7 @@
         <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
@@ -1774,13 +1774,13 @@
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
         <v>8.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
         <v>5</v>
@@ -1795,7 +1795,7 @@
         <v>67</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
         <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L5" t="n">
         <v>3.25</v>
@@ -1317,34 +1317,34 @@
         <v>5.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
         <v>15</v>
@@ -1365,37 +1365,37 @@
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="n">
         <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
         <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
         <v>41</v>
@@ -1410,13 +1410,13 @@
         <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU5" t="n">
         <v>10</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW5" t="n">
         <v>4</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UDsEN3pR</t>
+          <t>SKm9QS13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
         <v>4</v>
       </c>
-      <c r="I6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.25</v>
       </c>
-      <c r="L6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X6" t="n">
         <v>9.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W6" t="n">
-        <v>15</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
         <v>34</v>
       </c>
-      <c r="Y6" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AC6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
         <v>51</v>
       </c>
-      <c r="AB6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
         <v>67</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AS6" t="n">
         <v>201</v>
       </c>
-      <c r="AH6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>351</v>
-      </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD6" t="n">
         <v>151</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SKm9QS13</t>
+          <t>fygoJ8Vi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,104 +1638,104 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Phoenix Rising</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.4</v>
       </c>
-      <c r="P7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>351</v>
+        <v>700</v>
       </c>
       <c r="AH7" t="n">
         <v>9</v>
@@ -1744,67 +1744,67 @@
         <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AK7" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM7" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN7" t="n">
         <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>rR2YZumC</t>
+          <t>IyD1ait3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,41 +728,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -771,16 +771,16 @@
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -789,25 +789,25 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -816,91 +816,91 @@
         <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI2" t="n">
         <v>19</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AJ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="n">
         <v>67</v>
       </c>
-      <c r="AG2" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>101</v>
-      </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IyD1ait3</t>
+          <t>v7mD6TE8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.29</v>
       </c>
       <c r="H3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P3" t="n">
         <v>3.25</v>
       </c>
-      <c r="I3" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="Q3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W3" t="n">
         <v>6</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5</v>
-      </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA3" t="n">
         <v>12</v>
       </c>
-      <c r="AA3" t="n">
-        <v>19</v>
-      </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>10.75</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>9.75</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="AG3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM3" t="n">
         <v>201</v>
       </c>
-      <c r="AH3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>67</v>
-      </c>
       <c r="AN3" t="n">
-        <v>3.4</v>
+        <v>2.92</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>5.7</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>2.72</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>v7mD6TE8</t>
+          <t>dr23cyh2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,167 +1092,167 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tampico Madero</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.29</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="J4" t="n">
-        <v>1.78</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.32</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7</v>
+      </c>
+      <c r="X4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
         <v>11</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="AJ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN4" t="n">
         <v>5.5</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>175</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>2.92</v>
-      </c>
       <c r="AO4" t="n">
-        <v>5.7</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
-        <v>19.5</v>
+        <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15.5</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="AS4" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.72</v>
+        <v>2</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dr23cyh2</t>
+          <t>SKm9QS13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1279,174 +1279,174 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2.25</v>
       </c>
-      <c r="J5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.8</v>
       </c>
-      <c r="L5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
       </c>
       <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP5" t="n">
         <v>23</v>
       </c>
-      <c r="AF5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX5" t="n">
         <v>21</v>
       </c>
-      <c r="AL5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>15</v>
-      </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
         <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SKm9QS13</t>
+          <t>fygoJ8Vi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,354 +1456,172 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Phoenix Rising</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>2.67</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.4</v>
       </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="U6" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="X6" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH6" t="n">
         <v>17</v>
       </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9</v>
-      </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>11.75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>700</v>
       </c>
       <c r="AN6" t="n">
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>fygoJ8Vi</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>New Mexico</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Phoenix Rising</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="X7" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>90</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD7" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>v7mD6TE8</t>
+          <t>2TUEylld</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,173 +910,173 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Bucaramanga</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tampico Madero</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.29</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.78</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>2.32</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.78</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
       </c>
       <c r="X3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD3" t="n">
         <v>5.5</v>
       </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AE3" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AH3" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.92</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.7</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15.5</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.72</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>500</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>500</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1446,182 +1446,364 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>MVdT00pJ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>22:45</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>fygoJ8Vi</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>03/11/2024</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>22:00</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Phoenix Rising</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>2.07</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>3.2</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>3.25</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>2.67</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>2.1</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L7" t="n">
         <v>3.85</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M7" t="n">
         <v>1.08</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N7" t="n">
         <v>6.6</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O7" t="n">
         <v>1.36</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>2.9</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>2.07</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R7" t="n">
         <v>1.7</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S7" t="n">
         <v>1.4</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T7" t="n">
         <v>2.7</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U7" t="n">
         <v>1.85</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V7" t="n">
         <v>1.85</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W7" t="n">
         <v>6.9</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X7" t="n">
         <v>9.75</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y7" t="n">
         <v>8.75</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z7" t="n">
         <v>19.5</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA7" t="n">
         <v>18</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB7" t="n">
         <v>30</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC7" t="n">
         <v>6.6</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD7" t="n">
         <v>6.2</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE7" t="n">
         <v>15</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF7" t="n">
         <v>75</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG7" t="n">
         <v>9</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH7" t="n">
         <v>17</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI7" t="n">
         <v>11.75</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ7" t="n">
         <v>45</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK7" t="n">
         <v>32</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL7" t="n">
         <v>40</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM7" t="n">
         <v>700</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN7" t="n">
         <v>4</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO7" t="n">
         <v>10.75</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP7" t="n">
         <v>19.5</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ7" t="n">
         <v>40</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR7" t="n">
         <v>75</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS7" t="n">
         <v>250</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT7" t="n">
         <v>2.7</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU7" t="n">
         <v>7.1</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV7" t="n">
         <v>65</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW7" t="n">
         <v>5.2</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX7" t="n">
         <v>18.5</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY7" t="n">
         <v>25</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ7" t="n">
         <v>90</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA7" t="n">
         <v>120</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB7" t="n">
         <v>350</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC7" t="n">
         <v>51</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD7" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IyD1ait3</t>
+          <t>2TUEylld</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,31 +738,31 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Bucaramanga</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -789,55 +789,55 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -846,49 +846,49 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA2" t="n">
         <v>126</v>
       </c>
-      <c r="BA2" t="n">
-        <v>151</v>
-      </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2TUEylld</t>
+          <t>MVdT00pJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bucaramanga</t>
+          <t>Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.3</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.91</v>
-      </c>
       <c r="L3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P3" t="n">
         <v>4.33</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.5</v>
-      </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>2.15</v>
       </c>
       <c r="S3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.57</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>2.25</v>
       </c>
-      <c r="U3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y3" t="n">
-        <v>10</v>
-      </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
         <v>23</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
         <v>41</v>
       </c>
-      <c r="AC3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>15</v>
       </c>
       <c r="AI3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO3" t="n">
         <v>13</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AP3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>41</v>
       </c>
-      <c r="AK3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL3" t="n">
+      <c r="AR3" t="n">
         <v>51</v>
       </c>
-      <c r="AM3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>81</v>
-      </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
       </c>
       <c r="AX3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY3" t="n">
         <v>21</v>
       </c>
-      <c r="AY3" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB3" t="n">
         <v>126</v>
       </c>
-      <c r="BB3" t="n">
-        <v>351</v>
-      </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dr23cyh2</t>
+          <t>fygoJ8Vi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,718 +1092,172 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Phoenix Rising</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>2.07</v>
       </c>
       <c r="H4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.7</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH4" t="n">
         <v>17</v>
       </c>
-      <c r="Y4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9</v>
-      </c>
       <c r="AI4" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>351</v>
+        <v>700</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>10.75</v>
       </c>
       <c r="AP4" t="n">
-        <v>41</v>
+        <v>19.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AR4" t="n">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="AS4" t="n">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="AV4" t="n">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="AW4" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SKm9QS13</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Houston Dynamo</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Seattle Sounders</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MVdT00pJ</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22:45</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Vancouver Whitecaps</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Los Angeles FC</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>15</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W6" t="n">
-        <v>10</v>
-      </c>
-      <c r="X6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>fygoJ8Vi</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>New Mexico</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Phoenix Rising</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="X7" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>700</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>90</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD7" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
@@ -765,10 +765,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -828,10 +828,10 @@
         <v>8</v>
       </c>
       <c r="AH2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI2" t="n">
         <v>15</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -867,7 +867,7 @@
         <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -882,7 +882,7 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
         <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -1043,7 +1043,7 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
         <v>3.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -765,10 +765,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -959,10 +959,10 @@
         <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -777,10 +777,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -798,13 +798,13 @@
         <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>23</v>
@@ -819,7 +819,7 @@
         <v>5.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
@@ -828,28 +828,28 @@
         <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -867,7 +867,7 @@
         <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -882,10 +882,10 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -944,7 +944,7 @@
         <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -959,16 +959,16 @@
         <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U3" t="n">
         <v>1.57</v>
@@ -977,7 +977,7 @@
         <v>2.25</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
         <v>13</v>
@@ -998,10 +998,10 @@
         <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -1016,16 +1016,16 @@
         <v>10</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
         <v>23</v>
       </c>
       <c r="AM3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN3" t="n">
         <v>4.75</v>
@@ -1043,10 +1043,10 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU3" t="n">
         <v>7</v>
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
         <v>21</v>
@@ -1070,195 +1070,13 @@
         <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC3" t="n">
         <v>401</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>fygoJ8Vi</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>03/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>New Mexico</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Phoenix Rising</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>700</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>90</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-03.xlsx
@@ -935,7 +935,7 @@
         <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -944,7 +944,7 @@
         <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -959,10 +959,10 @@
         <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
         <v>1.3</v>
@@ -980,16 +980,16 @@
         <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>23</v>
